--- a/1st_search_string/IEEEXplore/Excel files/IEEE Xplore Citation BibTeX Download 2025.4.8.4.6.xlsx
+++ b/1st_search_string/IEEEXplore/Excel files/IEEE Xplore Citation BibTeX Download 2025.4.8.4.6.xlsx
@@ -15,12 +15,2178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="724">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>booktitle</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>ISSN</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>10324612</t>
+  </si>
+  <si>
+    <t>INPROCEEDINGS</t>
+  </si>
+  <si>
+    <t>Cherry, G. and Kazantsev, N. and Rai, T. and Williams, S. and Wright, A. and Street, T. and Wells, K. and Cook, A. J. and Kanellos, T.</t>
+  </si>
+  <si>
+    <t>International Conference on AI and the Digital Economy (CADE 2023)</t>
+  </si>
+  <si>
+    <t>Semantic sensing for data innovation</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>182-189</t>
+  </si>
+  <si>
+    <t>Industrial regulation to protect privacy, intellectual property and proprietary information often restricts data sharing - an important prerequisite for developing services in the digital economy. Social media data is publicly available for data mining but requires intensive cleaning and harmonisation before analysis. This paper reveals the process of semantic sensing to convert social network tweets into meaningful insights. Our research question is: how to realise semantic sensing for data innovation? We use design science research to develop an artefact-ontology that collects tweets by pet owners talking about their itchy pet into knowledge graphs, including symptoms, location, breed, timestamp and potential cause and converts them into a thematic map of the regional occurrence of symptoms and potential treatment needs, providing vital information for data innovation. The semantic engine can predict potential causes of itching from the tweet, so a Chatbot may contact the pet owner, inviting them to a veterinary screening. Animal health and pharma companies can use this information to position their services. Our theoretical contribution is a process of semantic sensing, which is a vital part of dynamic capability. Although limited to animal health, the results could be transferred to other contexts.</t>
+  </si>
+  <si>
+    <t>10.1049/icp.2023.2612</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>10500842</t>
+  </si>
+  <si>
+    <t>ARTICLE</t>
+  </si>
+  <si>
+    <t>Sun, Yidan and Jiang, Guiyuan and Liu, Xinwang and He, Peilan and Lam, Siew-Kei</t>
+  </si>
+  <si>
+    <t>Layer Sequence Extraction of Optimized DNNs Using Side-Channel Information Leaks</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3102-3115</t>
+  </si>
+  <si>
+    <t>Deep neural network (DNN) intellectual property (IP) models must be kept undisclosed to avoid revealing trade secrets. Recent works have devised machine learning techniques that leverage on side-channel information leakage of the target platform to reverse engineer DNN architectures. However, these works fail to perform successful attacks on DNNs that have undergone performance optimizations (i.e., operator fusion) using DNN compilers, e.g., Apache tensor virtual machine (TVM). We propose a two-phase attack framework to infer the layer sequences of optimized DNNs through side-channel information leakage. In the first phase, we use a recurrent network with multihead attention components to learn the intra and interlayer fusion patterns from GPU traces of TVM-optimized DNNs, in order to accurately predict the operation distribution. The second phase uses a model to learn the run-time temporal correlations between operations and layers, which enables the prediction of layer sequence. An encoding strategy is proposed to overcome the convergence issues faced by existing learning-based methods when inferring the layer sequences of optimized DNNs. Extensive experiments show that our learning-based framework outperforms state-of-the-art DNN model extraction techniques. Our framework is also the first to effectively reverse engineer both convolutional neural networks (CNNs) and recurrent neural networks (RNNs) using side-channel leakage.</t>
+  </si>
+  <si>
+    <t>Graphics processing units;Kernel;Computational modeling;Timing;Training;Optimization;Topology;Deep neural network (DNN);layer inference;model stealing;side-channel attack (SCA);tensor virtual machine (TVM)</t>
+  </si>
+  <si>
+    <t>10.1109/TCAD.2024.3389554</t>
+  </si>
+  <si>
+    <t>1937-4151</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Computer-Aided Design of Integrated Circuits and Systems</t>
+  </si>
+  <si>
+    <t>10903241</t>
+  </si>
+  <si>
+    <t>Barron, Ryan C. and Grantcharov, Vesselin and Wanna, Selma and Eren, Maksim E. and Bhattarai, Manish and Solovyev, Nicholas and Tompkins, George and Nicholas, Charles and Rasmussen, Kim Ø. and Matuszek, Cynthia and Alexandrov, Boian S.</t>
+  </si>
+  <si>
+    <t>2024 International Conference on Machine Learning and Applications (ICMLA)</t>
+  </si>
+  <si>
+    <t>Domain-Specific Retrieval-Augmented Generation Using Vector Stores, Knowledge Graphs, and Tensor Factorization</t>
+  </si>
+  <si>
+    <t>1669-1676</t>
+  </si>
+  <si>
+    <t>Large Language Models (LLMs) are pre-trained on large-scale corpora and excel in numerous general natural language processing (NLP) tasks, such as question answering (QA). Despite their advanced language capabilities, when it comes to domain-specific and knowledge-intensive tasks, LLMs suffer from hallucinations, knowledge cut-offs, and lack of knowledge attributions. Additionally, fine tuning LLMs' intrinsic knowledge to highly specific domains is an expensive and time consuming process. The retrieval-augmented generation (RAG) process has recently emerged as a method capable of optimization of LLM responses, by referencing them to a predetermined ontology. It was shown that using a Knowledge Graph (KG) ontology for RAG improves the QA accuracy, by taking into account relevant sub-graphs that preserve the information in a structured manner. In this paper, we introduce SMART-SLIC, a highly domain-specific LLM framework, that integrates RAG with KG and a vector store (VS) that store factual domain specific information. Importantly, to avoid hallucinations in the KG, we build these highly domain-specific KGs and VSs without the use of LLMs, but via NLP, data mining, and nonnegative tensor factorization with automatic model selection. Pairing our RAG with a domain-specific: (i) KG (containing structured information), and (ii) VS (containing unstructured information) enables the development of domain-specific chat-bots that attribute the source of information, mitigate hallucinations, lessen the need for fine-tuning, and excel in highly domain-specific question answering tasks. We pair SMART-SLIC with chain-of-thought prompting agents. The framework is designed to be generalizable to adapt to any specific or specialized domain. In this paper, we demonstrate the question answering capabilities of our framework on a corpus of scientific publications on malware analysis and anomaly detection.</t>
+  </si>
+  <si>
+    <t>Tensors;Accuracy;Retrieval augmented generation;Knowledge graphs;Ontologies;Question answering (information retrieval);Vectors;Malware;Reliability;Tuning;Artificial Intelligence;Retrieval Augmented Generation;Knowledge Graph;Natural Language Processing;Non-Negative Tensor Factorization;Topic Modeling;Agents</t>
+  </si>
+  <si>
+    <t>10.1109/ICMLA61862.2024.00258</t>
+  </si>
+  <si>
+    <t>1946-0759</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>10888201</t>
+  </si>
+  <si>
+    <t>Guo, Zhaojun and Li, Guobiao and Huang, Junqiang and Zhang, Xinpeng and Qian, Zhenxing and Li, Sheng</t>
+  </si>
+  <si>
+    <t>ICASSP 2025 - 2025 IEEE International Conference on Acoustics, Speech and Signal Processing (ICASSP)</t>
+  </si>
+  <si>
+    <t>Filtering Resistant Large Language Model Watermarking via Style Injection</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>The exorbitant cost of training Large Language Models (LLMs) makes it essential to protect the models from illegal copying and unauthorized usage. Recent attempts at LLM protection utilize black-box watermarking schemes, which embed distinctive input-output mapping (i.e., trigger set) directly into the models. However, most of them construct trigger inputs by injecting abnormal characters into normal text, which can easily be filtered out by unauthorized users, leading to a failure in watermark verification. In this paper, we propose a novel filtering-resistant LLM watermarking scheme, which takes advantage of imperceptible text styles to trigger the watermark. To achieve this, we adopt a trigger generation network to transform normal text into stylized sentences, which are assigned a specific watermarking label to build the trigger set. We then fine-tune the LLMs on both the trigger sets and clean samples for watermark embedding and performance stabilization. To boost watermark accuracy, we further propose a feature separation loss term to distinguish between normal and trigger inputs. Experimental results indicate the effectiveness of our proposed scheme for resisting the filtering attack.</t>
+  </si>
+  <si>
+    <t>Training;Accuracy;Filtering;Large language models;Watermarking;Transforms;Resists;Signal processing;Robustness;Speech processing;Large language model;black-box watermarking;filtering attack</t>
+  </si>
+  <si>
+    <t>10.1109/ICASSP49660.2025.10888201</t>
+  </si>
+  <si>
+    <t>2379-190X</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>10191495</t>
+  </si>
+  <si>
+    <t>Zhang, Jingyi and Wei, Yuting and Zhu, Yangfu and Wu, Bin</t>
+  </si>
+  <si>
+    <t>2023 International Joint Conference on Neural Networks (IJCNN)</t>
+  </si>
+  <si>
+    <t>Self-adaptive Prompt-tuning for Event Extraction in Ancient Chinese Literature</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>Extracting different types of war events from ancient Chinese literature is significant, as war is an important factor in driving the development of Chinese history. The existing trend of event extraction models utilizes template-based generative approaches, which do not take into account the brevity and obscurity of ancient Chinese, as well as the diversity of templates for similar event types. In this paper, we propose a novel Knowledge Graph-based generative event extraction framework with a self-Adaptive Prompt (KGAP) for ancient Chinese war. Specifically, we construct a self-adaptive prompt, which considers its unique trigger words for different types of wars and is designed to solve the problem of the similarity in events. Moreover, we construct a semantic knowledge graph of ancient literature, assisting the pre-trained language model to better understand the ancient Chinese text. Since there is no public dataset for the ancient Chinese event extraction task, we provide an event extraction dataset and conduct experiments on it. Experimental results show that our model is more state-of-the-art than both the classification-based and generative-based methods for event extraction in ancient Chinese literature.</t>
+  </si>
+  <si>
+    <t>Semantics;Neural networks;Knowledge graphs;Market research;History;Task analysis;Ancient Chinese;Event Extraction;Self-adaptive Prompt;Knowledge Graph</t>
+  </si>
+  <si>
+    <t>10.1109/IJCNN54540.2023.10191495</t>
+  </si>
+  <si>
+    <t>2161-4407</t>
+  </si>
+  <si>
+    <t>10769388</t>
+  </si>
+  <si>
+    <t>BOOK</t>
+  </si>
+  <si>
+    <t>Dell, Dr. Scott and Akpan, Dr. Mfon</t>
+  </si>
+  <si>
+    <t>ChatGPT and AI for Accountants: A practitioner's guide to harnessing the power of GenAI to revolutionize your accounting practice</t>
+  </si>
+  <si>
+    <t>Elevate your accounting skills by applying ChatGPT across audit, tax, consulting, and beyondKey FeaturesLeverage the impact of AI on modern accounting, from audits to corporate governanceUse ChatGPT to streamline your accounting tasks with practical hands-on techniquesUnderstand the impact of AI in accounting through in-depth chapters covering various domains, including ethical considerations and data analyticsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionIn the fast-paced AI world, accounting professionals are increasingly challenged by the complexities of AI. Many struggle to integrate these advanced tools into their workflows, leading to a sense of overwhelm. ChatGPT for Accounting bridges this gap by not only simplifying AI concepts but also offering practical insights for its application in various accounting domains. This book takes you from the foundational principles of Generative Artificial Intelligence (GAI) to its practical applications in audits, tax planning, practice management, fraud examination, financial analysis, and beyond. Each chapter equips you with essential skills, showing you how AI can revolutionize internal control systems, enhance recruitment processes, streamline marketing plans, optimize tax strategies, and boost efficiency in audits. You’ll then advance to exploring the role of AI in forensic accounting, financial analysis, managerial accounting, and corporate governance, while also addressing ethical and security implications. Concluding with a reflective outlook on the promises and challenges of AI, you’ll gain a holistic view of the future of accounting. By the end of this book, you’ll be equipped with the knowledge to harness the power of AI effectively and ethically, transforming your accounting practice and staying ahead in the ever-evolving landscape.What you will learnUnderstand the fundamentals of AI and its impact on the accounting sectorGrasp how AI streamlines and enhances the auditing process for high accuracyUncover the potential of AI in simplifying tax processes and ensuring complianceGet to grips with using AI to identify discrepancies and prevent financial fraudMaster the art of AI-powered data analytics for informed decision-makingGain insights into seamlessly integrating AI tools within existing accounting systemsStay ahead in the evolving landscape of AI-led accounting tools and practicesWho this book is forWhether you're a seasoned accounting professional, a C-suite executive, a business owner, an accounting educator, a student of accounting, or a technology enthusiast, this book provides the knowledge and insights you need to navigate the changing landscape in applying GAI technology to make a difference in all you do. An appreciation and understanding of the accounting process and concepts will be beneficial.</t>
+  </si>
+  <si>
+    <t>Packt Publishing</t>
+  </si>
+  <si>
+    <t>9781835462256</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769388</t>
+  </si>
+  <si>
+    <t>9187785</t>
+  </si>
+  <si>
+    <t>Evsutin, Oleg and Melman, Anna and Meshcheryakov, Roman</t>
+  </si>
+  <si>
+    <t>Digital Steganography and Watermarking for Digital Images: A Review of Current Research Directions</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>166589-166611</t>
+  </si>
+  <si>
+    <t>The development of information technology has led to a significant increase in the share of multimedia traffic in data networks. This has necessitated to solve the following information security tasks in relation to multimedia data: protection against leakage of confidential information, as well as identifying the source of the leak; ensuring the impossibility of unauthorized changes; copyright protection for digital objects. To solve such kind of problems, methods of steganography and watermarking are designed that implement embedding in digital objects hidden information sequences for various purposes. In this paper, an overview of promising research in the specified area is provided. First of all, we provide basic information about this field of research and consider the main applications of its methods. Next, we review works demonstrating current trends in the development of methods and algorithms for data hiding in digital images. This review is not exhaustive; it focuses on contemporary works illustrating current research directions in the field of information embedding in digital images. This is the main feature of review, which distinguishes it from previously published reviews. The paper concludes with an analysis of identified problems in the field of digital steganography and digital watermarking.</t>
+  </si>
+  <si>
+    <t>Watermarking;Digital images;Distortion;Robustness;Data mining;Receivers;Information security;digital image steganography;digital watermarking;data hiding</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2020.3022779</t>
+  </si>
+  <si>
+    <t>2169-3536</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t>10308794</t>
+  </si>
+  <si>
+    <t>Kathirisetty, Nikhila and Jadeja, Rajendrasinh and Thakkar, Hiren Kumar and Garg, Deepak and Chang, Cheng-Chieh and Mahadeva, Rajesh and Patole, Shahikant P.</t>
+  </si>
+  <si>
+    <t>Student Placement Probabilistic Assessment Using Emotional Quotient With Machine Learning: A Conceptual Case Study</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>125716-125737</t>
+  </si>
+  <si>
+    <t>The primary goal of the proposed study is to measure a student’s Emotional Quotient (EQ) for job placement and to correlate the EQ with the ability of the student to survive in the industry. EQ is expected to be influenced by several demographic factors such as age, gender, academic performance, location, parental education, parental income, and family structure. However, the previous studies did not consider these factors. To validate the correlation of demographic factors with EQ, developed a data set considering the above-mentioned factors followed by designing several Machine Learning (ML) based ensemble techniques. Ratings for each parameter ranged from 1 to 10. Based on that, evaluating the results to choose the best approach. The primary goal of this inquiry was to identify the factors other than academic performance that prompt a student to get hired by a company more quickly. The final grade for all students is determined by ascertaining a student’s emotional and intellectual ability. The fundamental contribution of this study is the establishment of a student’s emotional calculation, along with an explanation of how to evaluate it, the advantages of such a concept, its psychometric validity, and its difficulties. The background and variety of validation studies will show how measurements can accurately and rigorously evaluate the behavioral level of EQ.</t>
+  </si>
+  <si>
+    <t>Computational modeling;Psychology;Machine learning;Data models;Correlation;Education;Data mining;Emotion recognition;Behavioral sciences;Performance evaluation;Engineering students;Emotional intelligence (EI);machine learning (ML);data mining (DM);student placements;student assessment;intelligence quotient (IQ);emotional quotient (EQ)</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2023.3330320</t>
+  </si>
+  <si>
+    <t>10769333</t>
+  </si>
+  <si>
+    <t>Weaver-Lambert, Lisa</t>
+  </si>
+  <si>
+    <t>The AI Value Playbook: How to make AI work in the real world</t>
+  </si>
+  <si>
+    <t>Learn from real-world examples how leveraging AI, including machine learning and generative AI, is imperative for businesses to navigate risk, drive value, and gain a competitive advantageKey FeaturesUnderstand machine learning and generative AI terminology, concepts, and the AI technology stack.Learn from diverse real-world case studies narrated by business leaders in their own voice.Apply a value-driven approach to AI applications across multiple business sectors.Book DescriptionBusiness leaders are challenged by the speed of AI innovation and how to navigate disruption and uncertainty. This book is a crucial resource for those who want to understand how to leverage AI to drive business value, drawn from the firsthand experience of those who have been implementing this technology successfully. The AI Value Playbook focuses on questions frequently posed by leaders and boards. How can businesses adapt to these emerging technologies? How can they start building and deploying AI as a strategic asset to drive efficiency? What risks or threats need to be considered? How quickly can value be created? This book is a response to those demands. In a series of in-depth and wide-ranging conversations with practitioners, from CEOs leading new generative AI-based companies to Data Scientists and CFOs working in more traditional companies. Our experts share their hard-earned wisdom, talking candidly about their successes and failures, and what excites them about the future. These interviews offer unique insights for business leaders to apply to their own organizations. The book distils a value-driven playbook for how AI can be put to work today.What you will learnFundamentals of AI concepts and the tech stackHow AI works with real-world practical applicationsHow to integrate into your company's overall strategyHow to incorporate generative AI in your processesHow to drive value with sector-wide examplesHow to organize an AI-driven operating modelHow to use AI for competitive advantageThe dos and don'ts of AI applicationWho this book is forThe AI Value Playbook is aimed at supporting non-technical executives and board members to quickly formulate a perspective on how to integrate AI. This book addresses the gap in data and AI knowledge in leadership teams that have an appetite for nuanced, targeted and practical solutions. It includes which levers and processes to consider to future-proof their business. It speaks to an audience interested in understanding how AI can drive value for their organisations.</t>
+  </si>
+  <si>
+    <t>9781835467596</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769333</t>
+  </si>
+  <si>
+    <t>10904479</t>
+  </si>
+  <si>
+    <t>Hayashi, Victor Takashi and Vicente Ruggiero, Wilson</t>
+  </si>
+  <si>
+    <t>Hardware Trojan Detection in Open-Source Hardware Designs Using Machine Learning</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>37771-37788</t>
+  </si>
+  <si>
+    <t>The globalization of the hardware supply chain reduces costs but increases security challenges with the potential insertion of hardware trojans by third parties. Traditional detection methods face scalability limitations by relying solely on simple examples (e.g., AES). Although open-source hardware promotes transparency, it does not guarantee security. In this research, Natural Language Processing (NLP) and Machine Learning (ML) techniques were applied to identify hardware trojans in complex open hardware designs (e.g., RISC-V, MIPS). Using data from existing benchmarks (ISCAS85-89, TrustHub) and synthetic data generated with Large Language Models (LLM), a dataset of 3,808 instances was used in this research. The approach using TF-IDF and Decision Tree (DT) achieved 97.26%, surpassing the state of the art. The use of LLMs with prompt optimization achieved a recall of 99%, minimizing false negatives. A novel framework integrating NLP, ML, and LLMs was developed to enhance the security of open-source hardware.</t>
+  </si>
+  <si>
+    <t>Hardware;Trojan horses;Machine learning;Hardware design languages;Open source hardware;Benchmark testing;Static analysis;Integrated circuit modeling;Hardware security;Computer architecture;Hardware security;hardware trojan;machine learning;natural language processing;large language models;open hardware;open source</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2025.3546156</t>
+  </si>
+  <si>
+    <t>10769346</t>
+  </si>
+  <si>
+    <t>Sotiropoulos, John</t>
+  </si>
+  <si>
+    <t>Adversarial AI Attacks, Mitigations, and Defense Strategies: A cybersecurity professional's guide to AI attacks, threat modeling, and securing AI with MLSecOps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand how adversarial attacks work against predictive and generative AI, and learn how to safeguard AI and LLM projects with practical examples leveraging OWASP, MITRE, and NISTKey FeaturesUnderstand the connection between AI and security by learning about adversarial AI attacksDiscover the latest security challenges in adversarial AI by examining GenAI, deepfakes, and LLMsImplement secure-by-design methods and threat modeling, using standards and MLSecOps to safeguard AI systemsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionAdversarial attacks trick AI systems with malicious data, creating new security risks by exploiting how AI learns. This challenges cybersecurity as it forces us to defend against a whole new kind of threat. This book demystifies adversarial attacks and equips cybersecurity professionals with the skills to secure AI technologies, moving beyond research hype or business-as-usual strategies. The strategy-based book is a comprehensive guide to AI security, presenting a structured approach with practical examples to identify and counter adversarial attacks. This book goes beyond a random selection of threats and consolidates recent research and industry standards, incorporating taxonomies from MITRE, NIST, and OWASP. Next, a dedicated section introduces a secure-by-design AI strategy with threat modeling to demonstrate risk-based defenses and strategies, focusing on integrating MLSecOps and LLMOps into security systems. To gain deeper insights, you’ll cover examples of incorporating CI, MLOps, and security controls, including open-access LLMs and ML SBOMs. Based on the classic NIST pillars, the book provides a blueprint for maturing enterprise AI security, discussing the role of AI security in safety and ethics as part of Trustworthy AI. By the end of this book, you’ll be able to develop, deploy, and secure AI systems effectively.What you will learnUnderstand poisoning, evasion, and privacy attacks and how to mitigate themDiscover how GANs can be used for attacks and deepfakesExplore how LLMs change security, prompt injections, and data exposureMaster techniques to poison LLMs with RAG, embeddings, and fine-tuningExplore supply-chain threats and the challenges of open-access LLMsImplement MLSecOps with CIs, MLOps, and SBOMsWho this book is forThis book tackles AI security from both angles - offense and defense. AI builders (developers and engineers) will learn how to create secure systems, while cybersecurity professionals, such as security architects, analysts, engineers, ethical hackers, penetration testers, and incident responders will discover methods to combat threats and mitigate risks posed by attackers. The book also provides a secure-by-design approach for leaders to build AI with security in mind. To get the most out of this book, you’ll need a basic understanding of security, ML concepts, and Python. </t>
+  </si>
+  <si>
+    <t>9781835088678</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769346</t>
+  </si>
+  <si>
+    <t>10769303</t>
+  </si>
+  <si>
+    <t>Bratsis, Irene</t>
+  </si>
+  <si>
+    <t>AI Product Manager's Handbook: Build, integrate, scale, and optimize products to grow as an AI product manager</t>
+  </si>
+  <si>
+    <t>Whether you're a seasoned professional or a newcomer to the world of AI product management, this is your definitive guide. Embark on a transformative journey into the future of intelligent product management.Key FeaturesChart a successful career path in the AI product management field Packed with real-world examples, practical insights, and actionable strategiesNavigate the complexities of AI product development and evolve your existing products Book DescriptionThis book will provide you with a detailed roadmap for successfully building, maintaining, and evolving artificial intelligence (AI)-driven products, serving as an indispensable companion on your journey to becoming an effective AI PM. We'll explore the AI landscape, demystify complex terms, and walk you through infrastructure, algorithms, and deployment strategies. You’ll master essential skills to understand the optimal flow of AI processes, learn about the product development life cycle from ideation to deployment, and familiarize yourself with commonly used model development techniques. We'll discuss the intricacies of building products natively with AI, as well as evolving traditional software product to AI products. Regardless of your use case, we’ll show you how you can craft compelling stories to captivate your audience. We'll help you find the right balance between foundational product design elements and the unique aspects of managing AI products, so you can prioritize wisely. We’ll also explore career considerations for AI PMs. By the end of this book, you will understand the importance of AI integration and be able to explore emerging AI/ML models like Generative AI and LLMs. You’ll discover open-source capabilities and best practices for ideating, building, and deploying AI products across verticals.What you will learnPlan your AI PM roadmap and navigate your career with clarity and confidenceGain a foundational understanding of AI/ML capabilitiesAlign your product strategy, nurture your team, and navigate the ongoing challenges of cost, tech, compliance, and risk managementIdentify pitfalls and green flags for optimal commercializationSeparate hype from reality and identify quick wins for AI enablement and GenAIUnderstand how to develop and manage both native and evolving AI productsBenchmark product success from a holistic perspectiveWho this book is forThis book is for aspiring and experienced product managers, as well as other professionals interested in incorporating AI into their products. Foundational knowledge of AI is expected and reinforced. If you are looking to better understand machine learning principles and data science methodologies, you will benefit from this book, particularly if you’re in a role where the application of AI/ML directly influences marketing outcomes and business strategies.</t>
+  </si>
+  <si>
+    <t>9781835882856</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769303</t>
+  </si>
+  <si>
+    <t>10251239</t>
+  </si>
+  <si>
+    <t>Kapoor, Amita and Chatterjee, Sharmistha</t>
+  </si>
+  <si>
+    <t>Platform and Model Design for Responsible AI: Design and build resilient, private, fair, and transparent machine learning models</t>
+  </si>
+  <si>
+    <t>Craft ethical AI projects with privacy, fairness, and risk assessment features for scalable and distributed systems while maintaining explainability and sustainability Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesLearn risk assessment for machine learning frameworks in a global landscapeDiscover patterns for next-generation AI ecosystems for successful product designMake explainable predictions for privacy and fairness-enabled ML trainingBook DescriptionAI algorithms are ubiquitous and used for tasks, from recruiting to deciding who will get a loan. With such widespread use of AI in the decision-making process, it’s necessary to build an explainable, responsible, transparent, and trustworthy AI-enabled system. With Platform and Model Design for Responsible AI, you’ll be able to make existing black box models transparent. You’ll be able to identify and eliminate bias in your models, deal with uncertainty arising from both data and model limitations, and provide a responsible AI solution. You’ll start by designing ethical models for traditional and deep learning ML models, as well as deploying them in a sustainable production setup. After that, you’ll learn how to set up data pipelines, validate datasets, and set up component microservices in a secure and private way in any cloud-agnostic framework. You’ll then build a fair and private ML model with proper constraints, tune the hyperparameters, and evaluate the model metrics. By the end of this book, you’ll know the best practices to comply with data privacy and ethics laws, in addition to the techniques needed for data anonymization. You’ll be able to develop models with explainability, store them in feature stores, and handle uncertainty in model predictions.What you will learnUnderstand the threats and risks involved in ML modelsDiscover varying levels of risk mitigation strategies and risk tiering toolsApply traditional and deep learning optimization techniques efficientlyBuild auditable and interpretable ML models and feature storesUnderstand the concept of uncertainty and explore model explainability toolsDevelop models for different clouds including AWS, Azure, and GCPExplore ML orchestration tools such as Kubeflow and Vertex AIIncorporate privacy and fairness in ML models from design to deploymentWho this book is forThis book is for experienced machine learning professionals looking to understand the risks and leakages of ML models and frameworks, and learn to develop and use reusable components to reduce effort and cost in setting up and maintaining the AI ecosystem.</t>
+  </si>
+  <si>
+    <t>9781803249773</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251239</t>
+  </si>
+  <si>
+    <t>9955458</t>
+  </si>
+  <si>
+    <t>O’Hara, Kieron</t>
+  </si>
+  <si>
+    <t>Digital Modernity</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Modernity is a social, cultural, or historical descriptor for a certain type of society or set of social arrangements. It is a contentious and disputed term, often understood implicitly. It is a way of describing and classifying highly complex, dynamic, and emergent aggregate social phenomena, and so dramatically simplifies such contexts. However, the language of modernity remains attractive to commentators, academics, and policymakers. In this monograph, the author reviews the literature that characterises what is called digital modernity. Digital modernity narratives focus on the possibilities of the data gathered by an ambient data infrastructure, enabled by ubiquitous devices such as the smartphone, and activities such as social networking and e-commerce. It is characterised by (1) a subjunctive outlook where people’s choices can be anticipated and improved upon, (2) the valorisation of disruptive innovation on demand, and (3) control provided by data analysis within a virtual realm that can be extended and applied to the physical world. The author explored the synergies and tensions between these three aspects as well as the opportunities for and dilemmas posed by misinformation. The author identifies five principles that emerge from the study of relevant texts and business models and concludes by contrasting digital modernity with other theories of the 21st century information society. Narratives of digital modernity are useful because they help explain the development of technology. It matters because many influential people accept, and often generate, the digital modernity narrative. Given digital modernity’s strong association with the Web, it is a central topic for Web Science as the interdisciplinary study of the World Wide Web from the technological, social, and individual points of view.</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>9781638281054</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9955458</t>
+  </si>
+  <si>
+    <t>10804836</t>
+  </si>
+  <si>
+    <t>Zhu, Han and Chen, Zhenzhong and Liu, Shan</t>
+  </si>
+  <si>
+    <t>Information Bottleneck based Self-distillation: Boosting Lightweight Network for Real-world Super-Resolution</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>Most existing single-image super-resolution (SISR) methods focus on addressing predefined uniform degradations, such as bicubic. However, these methods often perform poorly in real-world scenarios due to complicated and varying realistic degradations. In this paper, we propose a novel information bottle-neck-based self-distillation method (IBSD) to boost lightweight networks for real-world image super-resolution. The proposed IBSD leverages the principle of information bottleneck to guide SR networks to learn invariant correlations from low-resolution (LR) to high-resolution (HR) across various degradations, thereby improving their generalization capacity. Specifically, the target super-resolution network (i.e., student) is interpreted as a Markov chain, and the distillation process is carried out through two modules. Mutual information (MI) estimation networks are used to quantify the mutual information between adjacent nodes within the Markov chain. To enhance robustness against blur and noise in real-world scenarios, an auxiliary loss with a progressive soft target is employed to better identify what is effective for reconstruction in the high-frequency domain. Minimizing the mutual information while preserving task-relevant features can help remove information that reflects spurious correlations between specific degradations and reconstructed targets. Experiments conducted on real-world image super-resolution datasets demonstrate that our proposed method can significantly improve the performance of recent lightweight SR models without adding any extra inference complexity, and it outperforms existing self-distillation approaches. Code is publicly available at https://github.com/hanzhu1121/IBSD.</t>
+  </si>
+  <si>
+    <t>Degradation;Superresolution;Mutual information;Image reconstruction;Feature extraction;Correlation;Kernel;Robustness;Overfitting;Transformers;Knowledge distillation;Real-world super-resolution;Information bottleneck principle;Lightweight network;Mutual information estimation</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2024.3519136</t>
+  </si>
+  <si>
+    <t>1558-2205</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Circuits and Systems for Video Technology</t>
+  </si>
+  <si>
+    <t>10769297</t>
+  </si>
+  <si>
+    <t>Nomani, Qamar and Davila, Julie and Khan, Rehman</t>
+  </si>
+  <si>
+    <t>Mastering Cloud Security Posture Management (CSPM): Secure multi-cloud infrastructure across AWS, Azure, and Google Cloud using proven techniques</t>
+  </si>
+  <si>
+    <t>Strengthen your security posture in all aspects of CSPM technology, from security infrastructure design to implementation strategies, automation, and remedial actions using operational best practices across your cloud environmentKey FeaturesChoose the right CSPM tool to rectify cloud security misconfigurations based on organizational requirementsOptimize your security posture with expert techniques for in-depth cloud security insightsImprove your security compliance score by adopting a secure-by-design approach and implementing security automationPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionThis book will help you secure your cloud infrastructure confidently with cloud security posture management (CSPM) through expert guidance that’ll enable you to implement CSPM effectively, ensuring an optimal security posture across multi-cloud infrastructures. The book begins by unraveling the fundamentals of cloud security, debunking myths about the shared responsibility model, and introducing key concepts such as defense-in-depth, the Zero Trust model, and compliance. Next, you’ll explore CSPM's core components, tools, selection criteria, deployment strategies, and environment settings, which will be followed by chapters on onboarding cloud accounts, dashboard customization, cloud assets inventory, configuration risks, and cyber threat hunting. As you progress, you’ll get to grips with operational practices, vulnerability and patch management, compliance benchmarks, and security alerts. You’ll also gain insights into cloud workload protection platforms (CWPPs). The concluding chapters focus on Infrastructure as Code (IaC) scanning, DevSecOps, and workflow automation, providing a thorough understanding of securing multi-cloud environments. By the end of this book, you’ll have honed the skills to make informed decisions and contribute effectively at every level, from strategic planning to day-to-day operations.What you will learnFind out how to deploy and onboard cloud accounts using CSPM toolsUnderstand security posture aspects such as the dashboard, asset inventory, and risksExplore the Kusto Query Language (KQL) and write threat hunting queriesExplore security recommendations and operational best practicesGet to grips with vulnerability, patch, and compliance management, and governanceFamiliarize yourself with security alerts, monitoring, and workload protection best practicesManage IaC scan policies and learn how to handle exceptionsWho this book is forIf you’re a cloud security administrator, security engineer, or DevSecOps engineer, you’ll find this book useful every step of the way—from proof of concept to the secured, automated implementation of CSPM with proper auto-remediation configuration. This book will also help cybersecurity managers, security leads, and cloud security architects looking to explore the decision matrix and key requirements for choosing the right product. Cloud security enthusiasts who want to enhance their knowledge to bolster the security posture of multi-cloud infrastructure will also benefit from this book.</t>
+  </si>
+  <si>
+    <t>9781837630707</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769297</t>
+  </si>
+  <si>
+    <t>10948543</t>
+  </si>
+  <si>
+    <t>Patel, Parth Girish and Dua, Ishneet Kaur and David, Steven</t>
+  </si>
+  <si>
+    <t>Sustainable Cloud Development: Optimize cloud workloads for environmental impact in the GenAI era</t>
+  </si>
+  <si>
+    <t>Reduce your carbon footprint, optimize workloads, and align with organizational environmental goals by leveraging carbon footprint–friendly software design, generative AI, and cost-saving strategiesKey FeaturesDiscover sustainable cloud practices, including carbon footprint analysis, optimization, and securityExplore best practices, insights, and case studies for implementing sustainable solutions like generative AI workloadsLearn cost-saving strategies through efficient resource use and business alignmentPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionWritten by three seasoned AWS solution architects, sustainability mentors, and thought leaders, Sustainable Cloud Development equips cloud professionals with actionable strategies to design, build, and optimize workloads that minimize environmental impact, while maintaining performance and scalability. This book combines practical insights, best practices, and case studies to help you align your cloud operations with global sustainability goals. From foundational concepts such as carbon footprint measurement to advanced techniques such as sustainable software architecture, generative AI lifecycle optimization, and cost-efficient cloud practices, this book covers every aspect of sustainable cloud development. You’ll get to grips with key tools, including AWS Cost Explorer, for analyzing costs and usage over time to right-size deployments; auto scaling for automatically scaling compute resources dynamically based on demand; Amazon Trusted Advisor for reviewing optimization recommendations across critical areas such as cost, performance, and security; and Amazon CloudWatch for detailed monitoring and threshold-based alerting around all resources and applications. This book serves as a practical blueprint for optimizing your cloud workloads for both high performance and a minimal environmental footprint.What you will learnExplore the principles of sustainable cloud computing and application performance analysisDiscover best practices for data lifecycle management, storage optimization, and networking efficiencyUnderstand and analyze the carbon footprint of cloud applicationsImplement sustainable software architecture and coding patternsOptimize the lifecycle and consumption of generative AI modelsAlign cloud services with sustainability goals and global regulationsExplore eco-friendly generative AI practices, including efficient model deploymentWho this book is forThis book is for cloud architects, engineers, DevOps professionals, and IT sustainability specialists who want to align their cloud practices with environmental goals. It also caters to software developers eager to build green, efficient solutions. A basic understanding of cloud services and IT infrastructure is necessary.</t>
+  </si>
+  <si>
+    <t>9781836208402</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10948543</t>
+  </si>
+  <si>
+    <t>10769100</t>
+  </si>
+  <si>
+    <t>Kolosnjaji, Bojan and Xiao, Huang and Xu, Peng and Zarras, Apostolis</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence for Cybersecurity: Develop AI approaches to solve cybersecurity problems in your organization</t>
+  </si>
+  <si>
+    <t>Gain well-rounded knowledge of AI methods in cybersecurity and obtain hands-on experience in implementing them to bring value to your organizationKey FeaturesFamiliarize yourself with AI methods and approaches and see how they fit into cybersecurityLearn how to design solutions in cybersecurity that include AI as a key featureAcquire practical AI skills using step-by-step exercises and code examplesPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionArtificial intelligence offers data analytics methods that enable us to efficiently recognize patterns in large-scale data. These methods can be applied to various cybersecurity problems, from authentication and the detection of various types of cyberattacks in computer networks to the analysis of malicious executables. Written by a machine learning expert, this book introduces you to the data analytics environment in cybersecurity and shows you where AI methods will fit in your cybersecurity projects. The chapters share an in-depth explanation of the AI methods along with tools that can be used to apply these methods, as well as design and implement AI solutions. You’ll also examine various cybersecurity scenarios where AI methods are applicable, including exercises and code examples that’ll help you effectively apply AI to work on cybersecurity challenges. The book also discusses common pitfalls from real-world applications of AI in cybersecurity issues and teaches you how to tackle them. By the end of this book, you’ll be able to not only recognize where AI methods can be applied, but also design and execute efficient solutions using AI methods.What you will learnRecognize AI as a powerful tool for intelligence analysis of cybersecurity dataExplore all the components and workflow of an AI solutionFind out how to design an AI-based solution for cybersecurityDiscover how to test various AI-based cybersecurity solutionsEvaluate your AI solution and describe its advantages to your organizationAvoid common pitfalls and difficulties when implementing AI solutionsWho this book is forThis book is for machine learning practitioners looking to apply their skills to overcome cybersecurity challenges. Cybersecurity workers who want to leverage machine learning methods will also find this book helpful. Fundamental concepts of machine learning and beginner-level knowledge of Python programming are needed to understand the concepts present in this book. Whether you’re a student or an experienced professional, this book offers a unique and valuable learning experience that will enable you to protect your network and data against the ever-evolving threat landscape.</t>
+  </si>
+  <si>
+    <t>9781805123552</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769100</t>
+  </si>
+  <si>
+    <t>10251331</t>
+  </si>
+  <si>
+    <t>Molak, Aleksander and Jaokar, Ajit</t>
+  </si>
+  <si>
+    <t>Causal Inference and Discovery in Python: Unlock the secrets of modern causal machine learning with DoWhy, EconML, PyTorch and more</t>
+  </si>
+  <si>
+    <t>Demystify causal inference and casual discovery by uncovering causal principles and merging them with powerful machine learning algorithms for observational and experimental data Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesExamine Pearlian causal concepts such as structural causal models, interventions, counterfactuals, and moreDiscover modern causal inference techniques for average and heterogenous treatment effect estimationExplore and leverage traditional and modern causal discovery methodsBook DescriptionCausal methods present unique challenges compared to traditional machine learning and statistics. Learning causality can be challenging, but it offers distinct advantages that elude a purely statistical mindset. Causal Inference and Discovery in Python helps you unlock the potential of causality. You’ll start with basic motivations behind causal thinking and a comprehensive introduction to Pearlian causal concepts, such as structural causal models, interventions, counterfactuals, and more. Each concept is accompanied by a theoretical explanation and a set of practical exercises with Python code. Next, you’ll dive into the world of causal effect estimation, consistently progressing towards modern machine learning methods. Step-by-step, you’ll discover Python causal ecosystem and harness the power of cutting-edge algorithms. You’ll further explore the mechanics of how “causes leave traces” and compare the main families of causal discovery algorithms. The final chapter gives you a broad outlook into the future of causal AI where we examine challenges and opportunities and provide you with a comprehensive list of resources to learn more.What you will learnMaster the fundamental concepts of causal inferenceDecipher the mysteries of structural causal modelsUnleash the power of the 4-step causal inference process in PythonExplore advanced uplift modeling techniquesUnlock the secrets of modern causal discovery using PythonUse causal inference for social impact and community benefitWho this book is forThis book is for machine learning engineers, data scientists, and machine learning researchers looking to extend their data science toolkit and explore causal machine learning. It will also help developers familiar with causality who have worked in another technology and want to switch to Python, and data scientists with a history of working with traditional causality who want to learn causal machine learning. It’s also a must-read for tech-savvy entrepreneurs looking to build a competitive edge for their products and go beyond the limitations of traditional machine learning.</t>
+  </si>
+  <si>
+    <t>9781804611739</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251331</t>
+  </si>
+  <si>
+    <t>10949060</t>
+  </si>
+  <si>
+    <t>Anderson, Jarrod and Winter, Jeff</t>
+  </si>
+  <si>
+    <t>The Chief AI Officer's Handbook: Master AI leadership with strategies to innovate, overcome challenges, and drive business growth</t>
+  </si>
+  <si>
+    <t>Empower your leadership with this detailed guide for CAIOs and business leaders to drive innovation, address complex challenges, and implement ethical AI strategiesKey FeaturesExplore practical frameworks for effective AI team building and team managementImplement and Optimize AI Agents and Agentic Systems through design and implementation of AI agents.Gain actionable advice for leveraging AI to drive innovation and strategic growthPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionChief Artificial Intelligence Officers (CAIOs) are now imperative for businesses, enabling organizations to achieve strategic goals and unlock transformative opportunities through the power of AI. By building intelligent systems, training models to drive impactful decisions, and creating innovative applications, they empower organizations to thrive in an AI-driven world. Written by Jarrod Anderson, Chief AI Officer at SYRV.AI, this book bridges the gap between visionary leadership and practical execution. This handbook reimagines AI leadership for today’s fast-paced environment, leveraging predictive, deterministic, generative, and agentic AI to address complex challenges and foster innovation. It provides CAIOs with the strategies to develop transformative AI initiatives, build and lead elite teams, and adopt AI responsibly while maintaining compliance. From shaping impactful solutions to achieving measurable business outcomes, this guide offers a roadmap for making AI your organization’s competitive edge. By the end of this book, you’ll have the knowledge and tools to excel as a Chief AI Officer, driving innovation, strategic growth, and lasting success for your organization.What you will learnDevelop and execute AI strategy as a CAIO, ensuring ethical complianceMaster agile AI project management from ideation to deploymentApply deterministic and probabilistic AI concepts through case studiesDesign and implement AI agents for autonomous system optimizationCreate human-centered AI systems using proven design principlesEnhance AI security through data privacy and model protection measuresWho this book is forThis book is for chief AI officers, business leaders, AI and data science professionals, IT managers, entrepreneurs, consultants, academic leaders, policymakers, and general business professionals. This diverse audience seeks to understand not only the technical intricacies of AI, but also how to leverage AI to solve real-world business problems, drive innovation, and achieve strategic goals.</t>
+  </si>
+  <si>
+    <t>9781836200840</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10949060</t>
+  </si>
+  <si>
+    <t>10769232</t>
+  </si>
+  <si>
+    <t>Gonzalez, Leondra R. and Baltes, Angela and Stubberfield, Aaren</t>
+  </si>
+  <si>
+    <t>Cracking the Data Science Interview: Unlock insider tips from industry experts to master the data science field</t>
+  </si>
+  <si>
+    <t>Rise above the competition and excel in your next interview with this one-stop guide to Python, SQL, version control, statistics, machine learning, and much moreKey FeaturesAcquire highly sought-after skills of the trade, including Python, SQL, statistics, and machine learningGain the confidence to explain complex statistical, machine learning, and deep learning theoryExtend your expertise beyond model development with version control, shell scripting, and model deployment fundamentalsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionThe data science job market is saturated with professionals of all backgrounds, including academics, researchers, bootcampers, and Massive Open Online Course (MOOC) graduates. This poses a challenge for companies seeking the best person to fill their roles. At the heart of this selection process is the data science interview, a crucial juncture that determines the best fit for both the candidate and the company. Cracking the Data Science Interview provides expert guidance on approaching the interview process with full preparation and confidence. Starting with an introduction to the modern data science landscape, you’ll find tips on job hunting, resume writing, and creating a top-notch portfolio. You’ll then advance to topics such as Python, SQL databases, Git, and productivity with shell scripting and Bash. Building on this foundation, you'll delve into the fundamentals of statistics, laying the groundwork for pre-modeling concepts, machine learning, deep learning, and generative AI. The book concludes by offering insights into how best to prepare for the intensive data science interview. By the end of this interview guide, you’ll have gained the confidence, business acumen, and technical skills required to distinguish yourself within this competitive landscape and land your next data science job.What you will learnExplore data science trends, job demands, and potential career pathsSecure interviews with industry-standard resume and portfolio tipsPractice data manipulation with Python and SQLLearn about supervised and unsupervised machine learning modelsMaster deep learning components such as backpropagation and activation functionsEnhance your productivity by implementing code versioning through GitStreamline workflows using shell scripting for increased efficiencyWho this book is forWhether you're a seasoned professional who needs to brush up on technical skills or a beginner looking to enter the dynamic data science industry, this book is for you. To get the most out of this book, basic knowledge of Python, SQL, and statistics is necessary. However, anyone familiar with other analytical languages, such as R, will also find value in this resource as it helps you revisit critical data science concepts like SQL, Git, statistics, and deep learning, guiding you to crack through data science interviews.</t>
+  </si>
+  <si>
+    <t>9781805120193</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769232</t>
+  </si>
+  <si>
+    <t>10377226</t>
+  </si>
+  <si>
+    <t>Fernandez, Pierre and Couairon, Guillaume and Jégou, Hervé and Douze, Matthijs and Furon, Teddy</t>
+  </si>
+  <si>
+    <t>2023 IEEE/CVF International Conference on Computer Vision (ICCV)</t>
+  </si>
+  <si>
+    <t>The Stable Signature: Rooting Watermarks in Latent Diffusion Models</t>
+  </si>
+  <si>
+    <t>22409-22420</t>
+  </si>
+  <si>
+    <t>Generative image modeling enables a wide range of applications but raises ethical concerns about responsible deployment. We introduce an active content tracing method combining image watermarking and Latent Diffusion Models. The goal is for all generated images to conceal an invisible watermark allowing for future detection and/or identification. The method quickly fine-tunes the latent decoder of the image generator, conditioned on a binary signature. A pre-trained watermark extractor recovers the hidden signature from any generated image and a statistical test then determines whether it comes from the generative model. We evaluate the invisibility and robustness of the watermarks on a variety of generation tasks, showing that the Stable Signature is robust to image modifications. For instance, it detects the origin of an image generated from a text prompt, then cropped to keep 10% of the content, with 90+% accuracy at a false positive rate below 10−6.</t>
+  </si>
+  <si>
+    <t>Ethics;Computer vision;Computational modeling;Watermarking;Robustness;Generators;Decoding</t>
+  </si>
+  <si>
+    <t>10.1109/ICCV51070.2023.02053</t>
+  </si>
+  <si>
+    <t>2380-7504</t>
+  </si>
+  <si>
+    <t>8453073</t>
+  </si>
+  <si>
+    <t>van Tonder, Rijnard and Le Goues, Claire</t>
+  </si>
+  <si>
+    <t>2018 IEEE/ACM 40th International Conference on Software Engineering (ICSE)</t>
+  </si>
+  <si>
+    <t>Static Automated Program Repair for Heap Properties</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>151-162</t>
+  </si>
+  <si>
+    <t>Static analysis tools have demonstrated effectiveness at finding bugs in real world code. Such tools are increasingly widely adopted to improve software quality in practice. Automated Program Repair (APR) has the potential to further cut down on the cost of improving software quality. However, there is a disconnect between these effective bug-finding tools and APR. Recent advances in APR rely on test cases, making them inapplicable to newly discovered bugs or bugs difficult to test for deterministically (like memory leaks). Additionally, the quality of patches generated to satisfy a test suite is a key challenge. We address these challenges by adapting advances in practical static analysis and verification techniques to enable a new technique that finds and then accurately fixes real bugs without test cases. We present a new automated program repair technique using Separation Logic. At a high-level, our technique reasons over semantic effects of existing program fragments to fix faults related to general pointer safety properties: resource leaks, memory leaks, and null dereferences. The procedure automatically translates identified fragments into source-level patches, and verifies patch correctness with respect to reported faults. In this work we conduct the largest study of automatically fixing undiscovered bugs in real-world code to date. We demonstrate our approach by correctly fixing 55 bugs, including 11 previously undiscovered bugs, in 11 real-world projects.</t>
+  </si>
+  <si>
+    <t>Computer bugs;Maintenance engineering;Tools;Static analysis;Semantics;Software;Safety;Automated Program Repair;Separation Logic</t>
+  </si>
+  <si>
+    <t>10.1145/3180155.3180250</t>
+  </si>
+  <si>
+    <t>1558-1225</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>10925362</t>
+  </si>
+  <si>
+    <t>Zong, Chen-Chen and Yang, Peng-Hui and Xie, Ming-Kun and Huang, Sheng-Jun</t>
+  </si>
+  <si>
+    <t>A Unified Open Adapter for Open-World Noisy Label Learning: Data-Centric and Learning-Based Insights</t>
+  </si>
+  <si>
+    <t>Noisy label learning (NLL) in open-world scenarios poses a novel challenge due to the presence of noisy data from both known and unknown classes. Most existing methods operate under the closed-set assumption, rendering them vulnerable to open-set noise, which significantly degrades their performance. While some approaches attempt to mitigate the impact of open-set examples, they struggle to learn effective discriminative representations for them, leading to unsatisfactory recognition performance. To address these issues, we propose a unified Open Adapter (OpenAda) that identifies open-set noise from both data-centric and learning-based perspectives, and can be easily integrated into mainstream NLL methods to improve their performance and robustness. Specifically, the data-centric part leverages label clusterability to sequentially identify basic clean and basic open-set examples both with high neighbor agreement. The learning-based part integrates one-vs-all classifiers with a progressive open disambiguation strategy to learn a reliable “inlier vs. outlier” boundary for each class. This enables the model to detect challenging open-set examples that partially overlap in the representation space with closed-set ones. Extensive experiments on synthetic and real-world datasets validate the superiority of our approach. Notably, with minor modifications, DivideMix with OpenAda achieves performance improvements of 9.31% and 18.26% on the open-world CIFAR-80 dataset under 80% symmetric noise and 40% asymmetric noise. The code is available at https://github.com/chenchenzong/OpenAda.</t>
+  </si>
+  <si>
+    <t>Noise;Noise measurement;Training;US Department of Defense;Robustness;Performance gain;Feature extraction;Circuits and systems;Symmetric matrices;Predictive models;Noisy label learning;open-world noise;open adapter;label clusterability</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2025.3550899</t>
+  </si>
+  <si>
+    <t>10819430</t>
+  </si>
+  <si>
+    <t>Yu, Lingyun and Xie, Tian and Liu, Chuanbin and Jin, Guoqing and Ding, Zhiguo and Xie, Hongtao</t>
+  </si>
+  <si>
+    <t>Distilling Multi-level Semantic Cues across Multi-modalities for Face Forgery Detection</t>
+  </si>
+  <si>
+    <t>Existing face forgery detection methods attempt to identify low-level forgery artifacts (e.g., blending boundary, flickering) in spatial-temporal domains or high-level semantic inconsistencies (e.g., abnormal lip movements) between visual-auditory modalities for generalized face forgery detection. However, they still suffer from significant performance degradation when dealing with out-of-domain artifacts, as they only consider single semantic mode inconsistencies, but ignore the complementarity of forgery traces at different levels and different modalities. In this paper, we propose a novel Multi-modal Multi-level Semantic Cues Distillation Detection framework that adopts the teacher-student protocol to focus on both spatial-temporal artifacts and visual-auditory incoherence to capture multi-level semantic cues. Specifically, our framework primarily comprises the Spatial-Temporal Pattern Learning module and the Visual-Auditory Consistency Modeling module. The Spatial-Temporal Pattern Learning module employs a mask-reconstruction strategy, in which the student network learns diverse spatial-temporal patterns from a pixel-wise teacher network to capture low-level forgery artifacts. The Visual-Auditory Consistency Modeling module is designed to enhance the student network’s ability to identify high-level semantic irregularities, with a visual-auditory consistency modeling expert serving as a guide. Furthermore, a novel Real-Similarity loss is proposed to enhance the proximity of real faces in feature space without explicitly penalizing the distance from manipulated faces, which prevents the overfitting in particular manipulation methods and improves the generalization capability. Extensive experiments show that our method substantially improves the generalization and robustness performance. Particularly, our approach outperforms the SOTA detector by 1.4% in generalization performance on DFDC with large domain gaps, and by 2.0% in the robustness evaluation on the FF++ dataset under various extreme settings. Our code is available at https://github.com/TianXie834/M2SD.</t>
+  </si>
+  <si>
+    <t>Forgery;Semantics;Faces;Training;Overfitting;Feature extraction;Detectors;Robustness;Lips;Visualization;face forgery detection;spatial-temporal artifacts;transformer;knowledge distillation;metric learning</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2024.3524602</t>
+  </si>
+  <si>
+    <t>10769394</t>
+  </si>
+  <si>
+    <t>Körbächer, Max and Grabner, Andreas and Lipsig, Hilliary</t>
+  </si>
+  <si>
+    <t>Platform Engineering for Architects: Crafting modern platforms as a product</t>
+  </si>
+  <si>
+    <t>Design and build Internal Developer Platforms (IDPs) with future-oriented design strategies, using the Platform as a Product mindsetKey FeaturesLearn how to design platforms that create value and drive user adoptionBenefit from expert techniques for shifting to a product-centric mindset as an architect and platform teamImplement best practices to understand platform complexity, manage technical debt, and ensure its evolutionPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionThe rapid pace of technological advancements, the shortage of IT talent, and the complexity of modern systems highlight the need for structured guidance in building resilient, user-centric platforms for cloud-native environments. This book empowers platform engineers and architects to implement value-driven internal development platforms. You’ll learn how to identify end users, understand their challenges, and define the purpose of a platform, with a focus on self-service solutions for modern cloud-native software development, delivery, and operations. The book incorporates real-world examples of building platforms within and for the cloud, leveraging the power of Kubernetes. You’ll learn how adopting a product mindset for architecting and building platforms helps foster successful platform engineering teams. This emphasizes early end-user involvement and provides a framework that gives you the flexibility to easily adapt and extend for future use cases. The book also offers insights into building a sustainable platform without accumulating technical debt. By the end of this book, you’ll be able to drive the design, definition, and implementation of platform capabilities as a product that aligns with your organizational requirements and strategy.What you will learnMake informed decisions based on your organization's platform needsIdentify missing platform capabilities and technical debtDevelop a critical user journey through your platform capabilitiesDefine the purpose, principles, and key performance indicators (KPIs) for your platformUtilize relevant data points for making data-driven product decisionsImplement your own platform reference and target architecturesWho this book is forThis book is for platform architects and solutions architects seeking to enhance their skills in designing and building a platform as a product. It also offers valuable insights for decision-makers, platform engineers, and DevOps professionals. While familiarity with cloud-native concepts, CI/CD, and Kubernetes is beneficial, the book builds on these topics to address self-service, cost management, and technical debt. It’s particularly suited to experts tackling the challenge of integrating diverse domains to create effective internal developer platforms with top-notch operational readiness.</t>
+  </si>
+  <si>
+    <t>9781836203582</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769394</t>
+  </si>
+  <si>
+    <t>9250708</t>
+  </si>
+  <si>
+    <t>Zarrinkalam, Fattane and Faralli, Stefano and Piao, Guangyuan and Bagheri, Ebrahim</t>
+  </si>
+  <si>
+    <t>Extracting, Mining and Predicting Users’ Interests from Social Media</t>
+  </si>
+  <si>
+    <t>Mining user interests from user behavioral data is critical for many applications. Based on user interests, service providers like advertisers can significantly reduce service delivery costs by offering the most relevant products to their customers. The challenge of accurately and efficiently identifying user interests has been the subject of increasing attention for several years. With the emergence and growing popularity of social media, many users are extensively engaged in social media applications to express their feelings and views about a wide variety of social events/topics as they happen in real time. The abundance of user generated content on social media provides the opportunity to build models that are able to accurately and effectively extract, mine, and predict users’ interests with the hopes of enabling more effective user engagement, better quality delivery of appropriate services, and higher user satisfaction. While traditional methods for building user profiles relied on AI-based preference elicitation techniques that could have been considered intrusive and undesirable by the users, more recent advances are focused on a non-intrusive yet accurate way of determining users’ interests and preferences. In this monograph, the authors cover five important subjects related to the mining of user interests from social media: (1) the foundations of social user interest modeling, (2) techniques that have been adopted or proposed for mining user interests, (3) different evaluation methodologies and benchmark datasets, (4) different applications that have been taking advantage of user interest mining from social media platforms, and (5) existing challenges, open research questions, and opportunities for further work. The monograph is a valuable resource for those who have familiarity with social media mining and the basics of information retrieval (IR) techniques.</t>
+  </si>
+  <si>
+    <t>9781680837391</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9250708</t>
+  </si>
+  <si>
+    <t>10522558</t>
+  </si>
+  <si>
+    <t>Gazit, Lior and Ghaffari, Meysam and Saxena, Asha</t>
+  </si>
+  <si>
+    <t>Mastering NLP from Foundations to LLMs: Apply advanced rule-based techniques to LLMs and solve real-world business problems using Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhance your NLP proficiency with modern frameworks like LangChain, explore mathematical foundations and code samples, and gain expert insights into current and future trends Key FeaturesLearn how to build Python-driven solutions with a focus on NLP, LLMs, RAGs, and GPTMaster embedding techniques and machine learning principles for real-world applicationsUnderstand the mathematical foundations of NLP and deep learning designsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionDo you want to master Natural Language Processing (NLP) but don’t know where to begin? This book will give you the right head start. Written by leaders in machine learning and NLP, Mastering NLP from Foundations to LLMs provides an in-depth introduction to techniques. Starting with the mathematical foundations of machine learning (ML), you’ll gradually progress to advanced NLP applications such as large language models (LLMs) and AI applications. You’ll get to grips with linear algebra, optimization, probability, and statistics, which are essential for understanding and implementing machine learning and NLP algorithms. You’ll also explore general machine learning techniques and find out how they relate to NLP. Next, you’ll learn how to preprocess text data, explore methods for cleaning and preparing text for analysis, and understand how to do text classification. You’ll get all of this and more along with complete Python code samples. By the end of the book, the advanced topics of LLMs’ theory, design, and applications will be discussed along with the future trends in NLP, which will feature expert opinions. You’ll also get to strengthen your practical skills by working on sample real-world NLP business problems and solutions.What you will learnMaster the mathematical foundations of machine learning and NLP Implement advanced techniques for preprocessing text data and analysis Design ML-NLP systems in PythonModel and classify text using traditional machine learning and deep learning methodsUnderstand the theory and design of LLMs and their implementation for various applications in AIExplore NLP insights, trends, and expert opinions on its future direction and potentialWho this book is forThis book is for deep learning and machine learning researchers, NLP practitioners, ML/NLP educators, and STEM students. Professionals working with text data as part of their projects will also find plenty of useful information in this book. Beginner-level familiarity with machine learning and a basic working knowledge of Python will help you get the best out of this book. </t>
+  </si>
+  <si>
+    <t>9781804616383</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10522558</t>
+  </si>
+  <si>
+    <t>10816376</t>
+  </si>
+  <si>
+    <t>Fang, Yi and Singh, Ashudeep and Tao, Zhiqiang</t>
+  </si>
+  <si>
+    <t>Fairness in Search Systems</t>
+  </si>
+  <si>
+    <t>Search engines play a crucial role in organizing and delivering information to billions of users worldwide. However, these systems often reflect and amplify existing societal biases and stereotypes through their search results and rankings. This concern has prompted researchers to investigate methods for measuring and reducing algorithmic bias, with the goal of developing more equitable search systems. This monograph presents a comprehensive taxonomy of fairness in search systems and surveys the current research landscape. This work systematically examines how bias manifests across key search components, including query interpretation and processing, document representation and indexing, result ranking algorithms, and system evaluation metrics. By critically analyzing the existing literature, persistent challenges and promising research directions in the pursuit of fairer search systems are identified. The aim is to provide a foundation for future work in this rapidly evolving field while highlighting opportunities to create more inclusive and equitable information retrieval technologies.</t>
+  </si>
+  <si>
+    <t>9781638284994</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10816376</t>
+  </si>
+  <si>
+    <t>10415393</t>
+  </si>
+  <si>
+    <t>Zawish, Muhammad and Dharejo, Fayaz Ali and Khowaja, Sunder Ali and Raza, Saleem and Davy, Steven and Dev, Kapal and Bellavista, Paolo</t>
+  </si>
+  <si>
+    <t>AI and 6G Into the Metaverse: Fundamentals, Challenges and Future Research Trends</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>730-778</t>
+  </si>
+  <si>
+    <t>Since Facebook was renamed Meta, a lot of attention, debate, and exploration have intensified about what the Metaverse is, how it works, and the possible ways to exploit it. It is anticipated that Metaverse will be a continuum of rapidly emerging technologies, usecases, capabilities, and experiences that will make it up for the next evolution of the Internet. Several researchers have already surveyed the literature on artificial intelligence (AI) and wireless communications in realizing the Metaverse. However, due to the rapid emergence and continuous evolution of technologies, there is a need for a comprehensive and in-depth survey of the role of AI, 6G, and the nexus of both in realizing the immersive experiences of Metaverse. Therefore, in this survey, we first introduce the background and ongoing progress in augmented reality (AR), virtual reality (VR), mixed reality (MR) and spatial computing, followed by the technical aspects of AI and 6G. Then, we survey the role of AI in the Metaverse by reviewing the state-of-the-art in deep learning, computer vision, and Edge AI to extract the requirements of 6G in Metaverse. Next, we investigate the promising services of B5G/6G towards Metaverse, followed by identifying the role of AI in 6G networks and 6G networks for AI in support of Metaverse applications, and the need for sustainability in Metaverse. Finally, we enlist the existing and potential applications, usecases, and projects to highlight the importance of progress in the Metaverse. Moreover, in order to provide potential research directions to researchers, we underline the challenges, research gaps, and lessons learned identified from the literature review of the aforementioned technologies.</t>
+  </si>
+  <si>
+    <t>6G mobile communication;Surveys;Wireless communication;Computer vision;Telepresence;Metaverse;Artificial intelligence;Metaverse;5G;6G;AI;cloud and edge computing;AR/VR/XR;spatial computing</t>
+  </si>
+  <si>
+    <t>10.1109/OJCOMS.2024.3349465</t>
+  </si>
+  <si>
+    <t>2644-125X</t>
+  </si>
+  <si>
+    <t>IEEE Open Journal of the Communications Society</t>
+  </si>
+  <si>
+    <t>10162693</t>
+  </si>
+  <si>
+    <t>Pandharikar, Andy and Bussler, Frederik</t>
+  </si>
+  <si>
+    <t>AI-Powered Commerce: Building the products and services of the future with Commerce.AI</t>
+  </si>
+  <si>
+    <t>Learn how to use artificial intelligence for product and service innovation, including the diverse use cases of Commerce.AIKey FeaturesLearn how to integrate data and AI in your innovation workflowsUnlock insights into how various industries are using AI for innovationApply your knowledge to real innovation use cases like product strategy and market intelligenceBook DescriptionCommerce.AI is a suite of artificial intelligence (AI) tools, trained on over a trillion data points, to help businesses build next-gen products and services. If you want to be the best business on the block, using AI is a must. Developers and analysts working with AI will be able to put their knowledge to work with this practical guide. You'll begin by learning the core themes of new product and service innovation, including how to identify market opportunities, come up with ideas, and predict trends. With plenty of use cases as reference, you'll learn how to apply AI for innovation, both programmatically and with Commerce.AI. You'll also find out how to analyze product and service data with tools such as GPT-J, Python pandas, Prophet, and TextBlob. As you progress, you'll explore the evolution of commerce in AI, including how top businesses today are using AI. You'll learn how Commerce.AI merges machine learning, product expertise, and big data to help businesses make more accurate decisions. Finally, you'll use the Commerce.AI suite for product ideation and analyzing market trends. By the end of this artificial intelligence book, you'll be able to strategize new product opportunities by using AI, and also have an understanding of how to use Commerce.AI for product ideation, trend analysis, and predictions.What you will learnFind out how machine learning can help you identify new market opportunitiesUnderstand how to use consumer data to create new products and servicesUse state-of-the-art AI frameworks and tools for data analysisLaunch, track, and improve products and services with AIRise above the competition with unparalleled insights from AITurn customer touchpoints into business winsGenerate high-conversion product and service copyWho this book is forThis AI book is for AI developers, data scientists, data product managers, analysts, and consumer insights professionals. The book will guide you through the process of product and service innovation, no matter your pre-existing skillset.</t>
+  </si>
+  <si>
+    <t>9781803234076</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162693</t>
+  </si>
+  <si>
+    <t>10162232</t>
+  </si>
+  <si>
+    <t>Goyal, Deepa and Lane, Kin</t>
+  </si>
+  <si>
+    <t>API Analytics for Product Managers: Understand key API metrics that can help you grow your business</t>
+  </si>
+  <si>
+    <t>Research, strategize, market, and continuously measure the effectiveness of APIs to meet your SaaS business goals with this practical handbookKey FeaturesTransform your APIs into revenue-generating entities by turning them into productsMeet your business needs by improving the way you research, strategize, market, and measure resultsCreate and implement a variety of metrics to promote growthBook DescriptionAPIs are crucial in the modern market as they allow faster innovation. But have you ever considered your APIs as products for revenue generation? API Analytics for Product Managers takes you through the benefits of efficient researching, strategizing, marketing, and continuously measuring the effectiveness of your APIs to help grow both B2B and B2C SaaS companies. Once you've been introduced to the concept of an API as a product, this fast-paced guide will show you how to establish metrics for activation, retention, engagement, and usage of your API products, as well as metrics to measure the reach and effectiveness of documentation—an often-overlooked aspect of development. Of course, it's not all about the product—as any good product manager knows; you need to understand your customers’ needs, expectations, and satisfaction too. Once you've gathered your data, you’ll need to be able to derive actionable insights from it. This is where the book covers the advanced concepts of leading and lagging metrics, removing bias from the metric-setting process, and bringing metrics together to establish long- and short-term goals. By the end of this book, you'll be perfectly placed to apply product management methodologies to the building and scaling of revenue-generating APIs.What you will learnBuild a long-term strategy for an APIExplore the concepts of the API life cycle and API maturityUnderstand APIs from a product management perspectiveCreate support models for your APIs that scale with the productApply user research principles to APIsExplore the metrics of activation, retention, engagement, and churnCluster metrics together to provide contextExamine the consequences of gameable and vanity metricsWho this book is forIf you’re a product manager, engineer, or product executive charged with making the most of APIs for your SaaS business, then this book is for you. Basic knowledge of how APIs work and what they do is essential before you get started with this book, since the book covers the analytical side of measuring their performance to help your business grow.</t>
+  </si>
+  <si>
+    <t>9781803241968</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162232</t>
+  </si>
+  <si>
+    <t>10251193</t>
+  </si>
+  <si>
+    <t>Haba, Duc</t>
+  </si>
+  <si>
+    <t>Data Augmentation with Python: Enhance deep learning accuracy with data augmentation methods for image, text, audio, and tabular data</t>
+  </si>
+  <si>
+    <t>Boost your AI and generative AI accuracy using real-world datasets with over 150 functional object-oriented methods and open source libraries Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesExplore beautiful, customized charts and infographics in full colorWork with fully functional OO code using open source libraries in the Python Notebook for each chapterUnleash the potential of real-world datasets with practical data augmentation techniquesBook DescriptionData is paramount in AI projects, especially for deep learning and generative AI, as forecasting accuracy relies on input datasets being robust. Acquiring additional data through traditional methods can be challenging, expensive, and impractical, and data augmentation offers an economical option to extend the dataset. The book teaches you over 20 geometric, photometric, and random erasing augmentation methods using seven real-world datasets for image classification and segmentation. You’ll also review eight image augmentation open source libraries, write object-oriented programming (OOP) wrapper functions in Python Notebooks, view color image augmentation effects, analyze safe levels and biases, as well as explore fun facts and take on fun challenges. As you advance, you’ll discover over 20 character and word techniques for text augmentation using two real-world datasets and excerpts from four classic books. The chapter on advanced text augmentation uses machine learning to extend the text dataset, such as Transformer, Word2vec, BERT, GPT-2, and others. While chapters on audio and tabular data have real-world data, open source libraries, amazing custom plots, and Python Notebook, along with fun facts and challenges. By the end of this book, you will be proficient in image, text, audio, and tabular data augmentation techniques.What you will learnWrite OOP Python code for image, text, audio, and tabular dataAccess over 150,000 real-world datasets from the Kaggle websiteAnalyze biases and safe parameters for each augmentation methodVisualize data using standard and exotic plots in colorDiscover 32 advanced open source augmentation librariesExplore machine learning models, such as BERT and TransformerMeet Pluto, an imaginary digital coding companionExtend your learning with fun facts and fun challengesWho this book is forThis book is for data scientists and students interested in the AI discipline. Advanced AI or deep learning skills are not required; however, knowledge of Python programming and familiarity with Jupyter Notebooks are essential to understanding the topics covered in this book.</t>
+  </si>
+  <si>
+    <t>9781803235912</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251193</t>
+  </si>
+  <si>
+    <t>10163173</t>
+  </si>
+  <si>
+    <t>Sawarkar, Kunal</t>
+  </si>
+  <si>
+    <t>Deep Learning with PyTorch Lightning: Swiftly build high-performance Artificial Intelligence (AI) models using Python</t>
+  </si>
+  <si>
+    <t>Build, train, and deploy deep learning models quickly and accurately to improve your productivity using PyTorch Lightning WrapperKey FeaturesBecome well-versed with PyTorch Lightning and learn how to implement it in various applicationsSpeed up your research using PyTorch Lightning by creating new loss functions, and architecturesTrain and build new DL applications for images, audio, video, structured and unstructured dataBook DescriptionBuilding and implementing deep learning (DL) is becoming a key skill for those who want to be at the forefront of progress.But with so much information and complex study materials out there, getting started with DL can feel quite overwhelming. Written by an AI thought leader, Deep Learning with PyTorch Lightning helps researchers build their first DL models quickly and easily without getting stuck on the complexities. With its help, you’ll be able to maximize productivity for DL projects while ensuring full flexibility – from model formulation to implementation. Throughout this book, you’ll learn how to configure PyTorch Lightning on a cloud platform, understand the architectural components, and explore how they are configured to build various industry solutions. You’ll build a neural network architecture, deploy an application from scratch, and see how you can expand it based on your specific needs, beyond what the framework can provide. In the later chapters, you’ll also learn how to implement capabilities to build and train various models like Convolutional Neural Nets (CNN), Natural Language Processing (NLP), Time Series, Self-Supervised Learning, Semi-Supervised Learning, Generative Adversarial Network (GAN) using PyTorch Lightning. By the end of this book, you’ll be able to build and deploy DL models with confidence.What you will learnCustomize models that are built for different datasets, model architecturesUnderstand a variety of DL models from image recognition, NLP to time seriesCreate advanced DL models to write poems (Semi-Supervised) or create fake images (GAN)Learn to train on unlabelled images using Self-Supervised Contrastive LearningLearn to use pre-trained models using transfer learning to save computeMake use of out-of-the-box SOTA model architectures using Lightning FlashExplore techniques for model deployment &amp; scoring using ONNX formatRun and tune DL models in a multi-GPU environment using mixed-mode precisionsWho this book is forIf you’re a data scientist curious about deep learning but don't know where to start or feel intimidated by the complexities of large neural networks, then this book is for you. Expert data scientists making the transition from other DL frameworks to PyTorch will also find plenty of useful information in this book, as will researchers interested in using PyTorch Lightning as a reference guide. To get started, you’ll need a solid grasp on Python; the book will teach you the rest</t>
+  </si>
+  <si>
+    <t>9781800569270</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163173</t>
+  </si>
+  <si>
+    <t>9844667</t>
+  </si>
+  <si>
+    <t>Simeone, Osvaldo</t>
+  </si>
+  <si>
+    <t>An Introduction to Quantum Machine Learning for Engineers</t>
+  </si>
+  <si>
+    <t>This monograph is motivated by a number of recent developments that appear to define a possible new role for researchers with an engineering profile. First, there are now several software libraries – such as IBM’s Qiskit, Google’s Cirq, and Xanadu’s PennyLane – that make programming quantum algorithms more accessible, while also providing cloud-based access to actual quantum computers. Second, a new framework is emerging for programming quantum algorithms to be run on current quantum hardware: quantum machine learning. In the current noisy intermediate-scale quantum (NISQ) era, quantum machine learning is emerging as a dominant paradigm to program gate-based quantum computers. In quantum machine learning, the gates of a quantum circuit are parametrized, and the parameters are tuned via classical optimization based on data and on measurements of the outputs of the circuit. Parametrized quantum circuits (PQCs) can efficiently address combinatorial optimization problems, implement probabilistic generative models, and carry out inference (classification and regression). This monograph provides a self-contained introduction to quantum machine learning for an audience of engineers with a background in probability and linear algebra. It first describes the background, concepts, and tools necessary to describe quantum operations and measurements. Then, it covers parametrized quantum circuits, the variational quantum eigensolver, as well as unsupervised and supervised quantum machine learning formulations.</t>
+  </si>
+  <si>
+    <t>9781638280590</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9844667</t>
+  </si>
+  <si>
+    <t>9770481</t>
+  </si>
+  <si>
+    <t>Tekalp, A. Murat</t>
+  </si>
+  <si>
+    <t>Deep Learning for Image/Video Restoration and Super-resolution</t>
+  </si>
+  <si>
+    <t>In this monograph, an overview of recent developments and the state-of-the-art in image/video restoration and super-resolution (SR) using deep learning is presented. Deep learning has made a significant impact, not only on computer vision and natural language processing but also on classical signal processing problems such as image/video restoration/SR and compression. Recent advances in neural architectures led to significant improvements in the performance of learned image/video restoration and SR. An important benefit of data-driven deep learning approaches is that neural models can be optimized for any differentiable loss function, including visual perceptual loss functions, leading to perceptual video restoration and SR, which cannot be easily handled by traditional model-based approaches. The publication starts with a problem statement and a short discussion on traditional vs. data-driven solutions. Thereafter, recent advances in neural architectures are considered, and the loss functions and evaluation criteria for image/video restoration and SR are discussed. Also considered are the learned image restoration and SR, as learning either a mapping from the space of degraded images to ideal images based on the universal approximation theorem, or a generative model that captures the probability distribution of ideal images. Practical problems in applying supervised training to real-life restoration and SR are also included, as well as the solution models. In the section on learned video SR, approaches to exploit temporal correlations in learned video processing are covered, and then the perceptual optimization of the network parameters to obtain natural texture and motion is discussed. A comparative discussion of various approaches concludes the publication.</t>
+  </si>
+  <si>
+    <t>9781680839739</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9770481</t>
+  </si>
+  <si>
+    <t>10559429</t>
+  </si>
+  <si>
+    <t>Jha, Ashish Ranjan</t>
+  </si>
+  <si>
+    <t>Mastering PyTorch: Create and deploy deep learning models from CNNs to multimodal models, LLMs, and beyond</t>
+  </si>
+  <si>
+    <t>Master advanced techniques and algorithms for machine learning with PyTorch using real-world examples Updated for PyTorch 2.x, including integration with Hugging Face, mobile deployment, diffusion models, and graph neural networks Purchase of the print or Kindle book includes a free eBook in PDF formatKey FeaturesUnderstand how to use PyTorch to build advanced neural network modelsGet the best from PyTorch by working with Hugging Face, fastai, PyTorch Lightning, PyTorch Geometric, Flask, and DockerUnlock faster training with multiple GPUs and optimize model deployment using efficient inference frameworksBook DescriptionPyTorch is making it easier than ever before for anyone to build deep learning applications. This PyTorch deep learning book will help you uncover expert techniques to get the most out of your data and build complex neural network models. You’ll build convolutional neural networks for image classification and recurrent neural networks and transformers for sentiment analysis. As you advance, you'll apply deep learning across different domains, such as music, text, and image generation, using generative models, including diffusion models. You'll not only build and train your own deep reinforcement learning models in PyTorch but also learn to optimize model training using multiple CPUs, GPUs, and mixed-precision training. You’ll deploy PyTorch models to production, including mobile devices. Finally, you’ll discover the PyTorch ecosystem and its rich set of libraries. These libraries will add another set of tools to your deep learning toolbelt, teaching you how to use fastai to prototype models and PyTorch Lightning to train models. You’ll discover libraries for AutoML and explainable AI (XAI), create recommendation systems, and build language and vision transformers with Hugging Face. By the end of this book, you'll be able to perform complex deep learning tasks using PyTorch to build smart artificial intelligence models.What you will learnImplement text, vision, and music generation models using PyTorchBuild a deep Q-network (DQN) model in PyTorchDeploy PyTorch models on mobile devices (Android and iOS)Become well versed in rapid prototyping using PyTorch with fastaiPerform neural architecture search effectively using AutoMLEasily interpret machine learning models using CaptumDesign ResNets, LSTMs, and graph neural networks (GNNs)Create language and vision transformer models using Hugging FaceWho this book is forThis deep learning with PyTorch book is for data scientists, machine learning engineers, machine learning researchers, and deep learning practitioners looking to implement advanced deep learning models using PyTorch. This book is ideal for those looking to switch from TensorFlow to PyTorch. Working knowledge of deep learning with Python is required.</t>
+  </si>
+  <si>
+    <t>9781801079969</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10559429</t>
+  </si>
+  <si>
+    <t>10769348</t>
+  </si>
+  <si>
+    <t>Miller, Richard H. and Johnson, Jeff</t>
+  </si>
+  <si>
+    <t>UX for Enterprise ChatGPT Solutions: A practical guide to designing enterprise-grade LLMs</t>
+  </si>
+  <si>
+    <t>Create engaging AI experiences by mastering ChatGPT for business and leveraging user interface design practices, research methods, prompt engineering, the feeding lifecycle, and moreKey FeaturesLearn in-demand design thinking and user research techniques applicable to all conversational AI platformsMeasure the quality and evaluate ChatGPT from a customer’s perspective for optimal user experienceSet up and use your secure private data, documents, and materials to enhance your ChatGPT modelsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionMany enterprises grapple with new technology, often hopping on the bandwagon only to abandon it when challenges emerge. This book is your guide to seamlessly integrating ChatGPT into enterprise solutions with a UX-centered approach. UX for Enterprise ChatGPT Solutions empowers you to master effective use case design and adapt UX guidelines through an engaging learning experience. Discover how to prepare your content for success by tailoring interactions to match your audience’s voice, style, and tone using prompt-engineering and fine-tuning. For UX professionals, this book is the key to anchoring your expertise in this evolving field. Writers, researchers, product managers, and linguists will learn to make insightful design decisions. You’ll explore use cases like ChatGPT-powered chat and recommendation engines, while uncovering the AI magic behind the scenes. The book introduces a and feeding model, enabling you to leverage feedback and monitoring to iterate and refine any Large Language Model solution. Packed with hundreds of tips and tricks, this guide will help you build a continuous improvement cycle suited for AI solutions. By the end, you’ll know how to craft powerful, accurate, responsive, and brand-consistent generative AI experiences, revolutionizing your organization’s use of ChatGPT.What you will learnAlign with user needs by applying design thinking to tailor ChatGPT to meet customer expectationsHarness user research to enhance chatbots and recommendation enginesTrack quality metrics and learn methods to evaluate and monitor ChatGPT's quality and usabilityEstablish and maintain a uniform style and tone with prompt engineering and fine-tuningApply proven heuristics by monitoring and assessing the UX for conversational experiences with trusted methodsRefine continuously by implementing an ongoing process for chatbot and feedingWho this book is forThis book is for user experience designers, product managers, and product owners of business and enterprise ChatGPT solutions who are interested in learning how to design and implement ChatGPT-4 solutions for enterprise needs. You should have a basic-to-intermediate level of understanding in UI/UX design concepts and fundamental knowledge of ChatGPT-4 and its capabilities.</t>
+  </si>
+  <si>
+    <t>9781835463802</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769348</t>
+  </si>
+  <si>
+    <t>9638604</t>
+  </si>
+  <si>
+    <t>Girin, Laurent and Leglaive, Simon and Bie, Xiaoyu and Diard, Julien and Hueber, Thomas and Alameda-Pineda, Xavier</t>
+  </si>
+  <si>
+    <t>Dynamical Variational Autoencoders: A Comprehensive Review</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Variational autoencoders (VAEs) are powerful deep generative models widely used to represent high-dimensional complex data through a low-dimensional latent space learned in an unsupervised manner. In this monograph the authors introduce and discuss a general class of models, called dynamical variational autoencoders (DVAEs), which extend VAEs to model temporal vector sequences. In doing so the authors provide: • a formal definition of the general class of DVAEs • a detailed and complete technical description of seven DVAE models • a rapid overview of other DVAE models presented in the recent literature • discussion of the recent developments in DVAEs in relation to the history and technical background of the classical models DVAEs are built on • a quantitative benchmark of the selected DVAE models • a discussion to put the DVAE class of models into perspective This monograph is a comprehensive review of the current state-of-the-art in DVAEs. It gives the reader an accessible summary of the technical aspects of the different DVAE models, their connections with classical models, their cross-connections, and their unification in the DVAE class in a concise, easy-to-read book. The authors have put considerable effort into unifying the terminology and notation used across the various models which all students, researchers and practitioners working in machine learning will find an invaluable resource.</t>
+  </si>
+  <si>
+    <t>9781680839135</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9638604</t>
+  </si>
+  <si>
+    <t>10473694</t>
+  </si>
+  <si>
+    <t>Ou, Zhijian</t>
+  </si>
+  <si>
+    <t>Energy-Based Models with Applications to Speech and Language Processing</t>
+  </si>
+  <si>
+    <t>Energy-Based Models (EBMs) are an important class of probabilistic models, also known as random fields and undirected graphical models. EBMs are un-normalized and thus radically different from other popular self-normalized probabilistic models such as hidden Markov models (HMMs), autoregressive models, generative adversarial nets (GANs) and variational auto-encoders (VAEs). Over the past years, EBMs have attracted increasing interest not only from the core machine learning community, but also from application domains such as speech, vision, natural language processing (NLP) and so on, due to significant theoretical and algorithmic progress. The sequential nature of speech and language also presents special challenges and needs a different treatment from processing fix-dimensional data (e.g., images). Therefore, the purpose of this monograph is to present a systematic introduction to energy-based models, including both algorithmic progress and applications in speech and language processing. First, the basics of EBMs are introduced, including classic models, recent models parameterized by neural networks, sampling methods, and various learning methods from the classic learning algorithms to the most advanced ones. Then, the application of EBMs in three different scenarios is presented, i.e., for modeling marginal, conditional and joint distributions, respectively. 1) EBMs for sequential data with applications in language modeling, where the main focus is on the marginal distribution of a sequence itself; 2) EBMs for modeling conditional distributions of target sequences given observation sequences, with applications in speech recognition, sequence labeling and text generation; 3) EBMs for modeling joint distributions of both sequences of observations and targets, and their applications in semi-supervised learning and calibrated natural language understanding. Lastly, several open-source toolkits are introduced to help readers get familiar with the techniques for developing and applying energy-based models.</t>
+  </si>
+  <si>
+    <t>9781638283072</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10473694</t>
+  </si>
+  <si>
+    <t>10162595</t>
+  </si>
+  <si>
+    <t>Kapoor, Amita and Gulli, Antonio and Pal, Sujit and Chollet, François</t>
+  </si>
+  <si>
+    <t>Deep Learning with TensorFlow and Keras: Build and deploy supervised, unsupervised, deep, and reinforcement learning models</t>
+  </si>
+  <si>
+    <t>Build cutting edge machine and deep learning systems for the lab, production, and mobile devices. Purchase of the print or Kindle book includes a free eBook in PDF format.Key FeaturesUnderstand the fundamentals of deep learning and machine learning through clear explanations and extensive code samplesImplement graph neural networks, transformers using Hugging Face and TensorFlow Hub, and joint and contrastive learningLearn cutting-edge machine and deep learning techniquesBook DescriptionDeep Learning with TensorFlow and Keras teaches you neural networks and deep learning techniques using TensorFlow (TF) and Keras. You'll learn how to write deep learning applications in the most powerful, popular, and scalable machine learning stack available. TensorFlow 2.x focuses on simplicity and ease of use, with updates like eager execution, intuitive higher-level APIs based on Keras, and flexible model building on any platform. This book uses the latest TF 2.0 features and libraries to present an overview of supervised and unsupervised machine learning models and provides a comprehensive analysis of deep learning and reinforcement learning models using practical examples for the cloud, mobile, and large production environments. This book also shows you how to create neural networks with TensorFlow, runs through popular algorithms (regression, convolutional neural networks (CNNs), transformers, generative adversarial networks (GANs), recurrent neural networks (RNNs), natural language processing (NLP), and graph neural networks (GNNs)), covers working example apps, and then dives into TF in production, TF mobile, and TensorFlow with AutoML.What you will learnLearn how to use the popular GNNs with TensorFlow to carry out graph mining tasksDiscover the world of transformers, from pretraining to fine-tuning to evaluating themApply self-supervised learning to natural language processing, computer vision, and audio signal processingCombine probabilistic and deep learning models using TensorFlow ProbabilityTrain your models on the cloud and put TF to work in real environmentsBuild machine learning and deep learning systems with TensorFlow 2.x and the Keras APIWho this book is forThis hands-on machine learning book is for Python developers and data scientists who want to build machine learning and deep learning systems with TensorFlow. This book gives you the theory and practice required to use Keras, TensorFlow, and AutoML to build machine learning systems. Some machine learning knowledge would be useful. We don’t assume TF knowledge.</t>
+  </si>
+  <si>
+    <t>9781803245713</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162595</t>
+  </si>
+  <si>
+    <t>10769378</t>
+  </si>
+  <si>
+    <t>White, M. T.</t>
+  </si>
+  <si>
+    <t>PLCs for Beginners: An introductory guide to building robust PLC programs with Structured Text</t>
+  </si>
+  <si>
+    <t>Unleash the power of PLCs by understanding and applying Structured Text, programming logic, and technologies like ChatGPT and much moreKey FeaturesBuild a solid foundation of Structured Text by understanding its syntax, features, and applicationsLearn how to apply programming logic and design by taking a design-first approach to PLC programmingIntegrate advanced concepts and technologies such as cybersecurity and generative AI with PLCsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionWith the rise of smart factories and advanced technology, the demand for PLC programmers with expertise beyond ladder logic is surging. Written by M.T. White, a seasoned DevOps engineer and adjunct CIS instructor, this guide offers insights from the author’s extensive experience in PLC and HMI programming across industries. This book introduces a fresh approach to PLC programming, preparing you for future automation challenges through computer science and text-based programming. Starting with the basic components of PLCs and their integration with other modules, this book gives you a clear understanding of system functionality and helps you master PLC program execution by learning about flow and essential components for effective programming. You'll understand program design with pseudocode and flowcharts, vital for planning programs, and cover Boolean logic intricacies, harnessing logical functions and truth tables for precise control statements. The book gives you a comprehensive grasp of Structured Text, its syntax and features crucial for efficient programming. The book also focuses on advanced topics like cybersecurity in PLC systems and leveraging generative AI (GenAI), such as ChatGPT, to enhance productivity. By the end of this book, you’ll be able to design real-world projects using pseudocode and flowcharts, and implement those designs in Structured Text.What you will learnImplement PLC programs in Structured textExperiment with common functions in Structured TextControl the flow of a PLC program with loop and conditional statementsDesign a PLC program with pseudocode and flowchartsImplement common sorting algorithms such as bubble sort and insertion sort, and understand concepts such as Big OUnderstand the basics of cybersecurity to protect PLC-based systemsLeverage ChatGPT for PLC programmingGet to grips with troubleshooting hardware and fixing common problemsWho this book is forThis book is for automation engineering students and individuals who are aspiring to be software, electrical, mechanical, or automation engineers with an interest in reshaping the automation industry.</t>
+  </si>
+  <si>
+    <t>9781801814348</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769378</t>
+  </si>
+  <si>
+    <t>10948547</t>
+  </si>
+  <si>
+    <t>Ramaswami, Yoni and Williamson, Dael and Govaere, Jan</t>
+  </si>
+  <si>
+    <t>Time Series Analysis with Spark: A practical guide to processing, modeling, and forecasting time series with Apache Spark</t>
+  </si>
+  <si>
+    <t>Master the fundamentals of time series analysis with Apache Spark and Databricks and uncover actionable insights at scaleKey FeaturesQuickly get started with your first models and explore the potential of Generative AILearn how to use Apache Spark and Databricks for scalable time series solutionsEstablish best practices to ensure success from development to production and beyondPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionWritten by Databricks Senior Solutions Architect Yoni Ramaswami, whose expertise in Data and AI has shaped innovative digital transformations across industries, this comprehensive guide bridges foundational concepts of time series analysis with the Spark framework and Databricks, preparing you to tackle real-world challenges with confidence. From preparing and processing large-scale time series datasets to building reliable models, this book offers practical techniques that scale effortlessly for big data environments. You’ll explore advanced topics such as scaling your analyses, deploying time series models into production, Generative AI, and leveraging Spark's latest features for cutting-edge applications across industries. Packed with hands-on examples and industry-relevant use cases, this guide is perfect for data engineers, ML engineers, data scientists, and analysts looking to enhance their expertise in handling large-scale time series data. By the end of this book, you’ll have mastered the skills to design and deploy robust, scalable time series models tailored to your unique project needs—qualifying you to excel in the rapidly evolving world of big data analytics.What you will learnUnderstand the core concepts and architectures of Apache SparkClean and organize time series dataChoose the most suitable modeling approach for your use caseGain expertise in building and training a variety of time series modelsExplore ways to leverage Apache Spark and Databricks to scale your modelsDeploy time series models in productionIntegrate your time series solutions with big data tools for enhanced analyticsLeverage GenAI to enhance predictions and uncover patternsWho this book is forIf you are a data engineer, ML engineer, data scientist, or analyst looking to enhance your skills in time series analysis with Apache Spark and Databricks, this book is for you. Whether you’re new to time series or an experienced practitioner, this guide provides valuable insights and techniques to improve your data processing capabilities. A basic understanding of Apache Spark is helpful, but no prior experience with time series analysis is required.</t>
+  </si>
+  <si>
+    <t>9781803247175</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10948547</t>
+  </si>
+  <si>
+    <t>9051780</t>
+  </si>
+  <si>
+    <t>Kingma, Diederik P. and Welling, Max</t>
+  </si>
+  <si>
+    <t>An Introduction to Variational Autoencoders</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>In this monograph, the authors present an introduction to the framework of variational autoencoders (VAEs) that provides a principled method for jointly learning deep latent-variable models and corresponding inference models using stochastic gradient descent. The framework has a wide array of applications from generative modeling, semi-supervised learning to representation learning. The authors expand earlier work and provide the reader with the fine detail on the important topics giving deep insight into the subject for the expert and student alike. Written in a survey-like nature the text serves as a review for those wishing to quickly deepen their knowledge of the topic. An Introduction to Variational Autoencoders provides a quick summary for the reader of a topic that has become an important tool in modern-day deep learning techniques.</t>
+  </si>
+  <si>
+    <t>9781680836233</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9051780</t>
+  </si>
+  <si>
+    <t>10320223</t>
+  </si>
+  <si>
+    <t>INBOOK</t>
+  </si>
+  <si>
+    <t>Minoli, Daniel and Occhiogrosso, Benedict</t>
+  </si>
+  <si>
+    <t>AI Applications to Communications and Information Technologies: The Role of Ultra Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>Front Matter</t>
+  </si>
+  <si>
+    <t>i-xiv</t>
+  </si>
+  <si>
+    <t>The prelims comprise: &lt;list style="bulleted"&gt; &lt;listItem&gt;Half&amp;#x2010;Title Page&lt;/listItem&gt; &lt;listItem&gt;IEEE Press Editorial Board&lt;/listItem&gt; &lt;listItem&gt;Title Page&lt;/listItem&gt; &lt;listItem&gt;Copyright Page&lt;/listItem&gt; &lt;listItem&gt;Table of Contents&lt;/listItem&gt; &lt;listItem&gt;About the Authors&lt;/listItem&gt; &lt;listItem&gt;Preface&lt;/listItem&gt; &lt;/list&gt;</t>
+  </si>
+  <si>
+    <t>10.1002/9781394190034.fmatter</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>9781394190027</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10320223</t>
+  </si>
+  <si>
+    <t>10418122</t>
+  </si>
+  <si>
+    <t>Gezimati, Mavis and Singh, Ghanshyam</t>
+  </si>
+  <si>
+    <t>Terahertz Data Extraction and Analysis Based on Deep Learning Techniques for Emerging Applications</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>21174-21198</t>
+  </si>
+  <si>
+    <t>Following the recent progress in the development of Terahertz (THz) generation and detection, THz technology is being widely used to characterize test sample properties in various applications including nondestructive testing, security inspection and medical applications. In this paper, we have presented a broad review of the recent usage of artificial intelligence (AI) particularly, deep learning techniques in various THz sensing, imaging, and spectroscopic applications with emphasis on their implementation for medical imaging of cancerous cells. Initially, the fundamentals principles and techniques for THz generation and detection, imaging and spectroscopy are introduced. Subsequently, a brief overview of AI – machine learning and deep learning techniques is summarized, and their performance is compared. Further, the usage of deep learning algorithms in various THz applications is reported, with focus on metamaterials design and classification, detection, reconstruction, segmentation, parameter extraction and denoising tasks. Moreover, we also report the metrics used to evaluate the performance of deep learning models and finally, the existing research challenges in the application of deep learning in THz cancer imaging applications are identified and possible solutions are suggested through emerging trends. With the continuous increase of acquired THz data – sensing, spectral and imaging, artificial intelligence has emerged as a dominant paradigm for embedded data extraction, understanding, perception, decision making and analysis. Towards this end, the integration of state-of-the-art machine learning techniques such as deep learning with THz applications enable detailed computational and theoretical analysis for better validation and verification than modelling techniques that precede the era of machine learning. The study will facilitate the large-scale clinical applications of deep learning enabled THz imaging systems for the development of smart and connected next generation healthcare systems as well as provide a roadmap for future research direction.</t>
+  </si>
+  <si>
+    <t>Deep learning;Imaging;Machine learning;Sensors;Artificial intelligence;Task analysis;Support vector machines;Terahertz materials;Artificial intelligence;deep learning;terahertz technology</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2024.3360930</t>
+  </si>
+  <si>
+    <t>10838587</t>
+  </si>
+  <si>
+    <t>Tan, Zhuoran and Parambath, Shameem Puthiya and Anagnostopoulos, Christos and Singer, Jeremy and Marnerides, Angelos K.</t>
+  </si>
+  <si>
+    <t>Advanced Persistent Threats Based on Supply Chain Vulnerabilities: Challenges, Solutions, and Future Directions</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>6371-6395</t>
+  </si>
+  <si>
+    <t>Due to the ever increasing interdependency across a variety of diverse software and hardware components in information and communications technology (ICT) provisioning, supply chain vulnerabilities (SCVs) targeting such dependencies have evolved as a primary choice for malicious actors to stealthy and complex cyber-attacks. The current modus operandi in the cyber threat spectrum is solely correlated with advanced persistent threats (APTs) that have shown to be prevalent across diversified attacks underpinning cyberwarfare and cybercrime. Hence, defense against such threats is undoubtedly considered as a high priority on a global scale. Nonetheless, the reliance on third-party supply chain software and device across diverse ICT ecosystems, combined with the current defense mechanisms’ inability to identify specific compromised entry points, results in an increased risk of APTs. This survey explores the state-of-the-art to stratify and showcase the properties of supply chain-based APTs, elaborate on reported risks from such APTs, and expand on existing defense methods. This study connects academic research with industry practices to highlight a new and growing problem. It examines supply chain compromises, offers unique insight into how these exploitations occur, and equips cybersecurity practitioners with the knowledge required to design next-generation APT defense mechanisms.</t>
+  </si>
+  <si>
+    <t>Supply chains;Security;Malware;Surveys;Reconnaissance;Payloads;Systematic literature review;Internet of Things;Weapons;Vectors;Advanced persistent threats (APTs);classification;defense methods;supply chain attack (SCA)</t>
+  </si>
+  <si>
+    <t>10.1109/JIOT.2025.3528744</t>
+  </si>
+  <si>
+    <t>2327-4662</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>IEEE Internet of Things Journal</t>
+  </si>
+  <si>
+    <t>8555414</t>
+  </si>
+  <si>
+    <t>Höök, Kristina and Friedman, Ken and Stolterman, Erik</t>
+  </si>
+  <si>
+    <t>Designing with the Body: Somaesthetic Interaction Design</t>
+  </si>
+  <si>
+    <t>5 Soma Design Theory</t>
+  </si>
+  <si>
+    <t>117-142</t>
+  </si>
+  <si>
+    <t>As you look at the title of this chapter, you might wonder why I waited until now—halfway through the book—to offer a coherent theory of soma design. The answer is quite simple: Because soma design is based so heavily on experiences and somatic feelings, I felt it was necessary to give you, the reader, a sense of what such designs actually feel like—how they work, what makes them unique, and how they came about. Articulating a theory of design in words requires a certain distanced, intellectual approach, and yet I am arguing for designs that recognize the soma as the unity of mind and body, intellect and experience. I hope that by now, you have an intuitive sense of what soma designs might look and feel like, which will make my discussion here of soma design theory more meaningful.</t>
+  </si>
+  <si>
+    <t>Art;Buildings;Shape;Navigation;Probes;Architecture</t>
+  </si>
+  <si>
+    <t>MIT Press</t>
+  </si>
+  <si>
+    <t>9780262348324</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8555414</t>
+  </si>
+  <si>
+    <t>9996362</t>
+  </si>
+  <si>
+    <t>Hamza, Ameer and Javed, Abdul Rehman Rehman and Iqbal, Farkhund and Kryvinska, Natalia and Almadhor, Ahmad S. and Jalil, Zunera and Borghol, Rouba</t>
+  </si>
+  <si>
+    <t>Deepfake Audio Detection via MFCC Features Using Machine Learning</t>
+  </si>
+  <si>
+    <t>134018-134028</t>
+  </si>
+  <si>
+    <t>Deepfake content is created or altered synthetically using artificial intelligence (AI) approaches to appear real. It can include synthesizing audio, video, images, and text. Deepfakes may now produce natural-looking content, making them harder to identify. Much progress has been achieved in identifying video deepfakes in recent years; nevertheless, most investigations in detecting audio deepfakes have employed the ASVSpoof or AVSpoof dataset and various machine learning, deep learning, and deep learning algorithms. This research uses machine and deep learning-based approaches to identify deepfake audio. Mel-frequency cepstral coefficients (MFCCs) technique is used to acquire the most useful information from the audio. We choose the Fake-or-Real dataset, which is the most recent benchmark dataset. The dataset was created with a text-to-speech model and is divided into four sub-datasets: for-rece, for-2-sec, for-norm and for-original. These datasets are classified into sub-datasets mentioned above according to audio length and bit rate. The experimental results show that the support vector machine (SVM) outperformed the other machine learning (ML) models in terms of accuracy on for-rece and for-2-sec datasets, while the gradient boosting model performed very well using for-norm dataset. The VGG-16 model produced highly encouraging results when applied to the for-original dataset. The VGG-16 model outperforms other state-of-the-art approaches.</t>
+  </si>
+  <si>
+    <t>Deepfakes;Deep learning;Speech synthesis;Training data;Feature extraction;Machine learning algorithms;Data models;Acoustics;Deepfakes;deepfake audio;synthetic audio;machine learning;acoustic data</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2022.3231480</t>
+  </si>
+  <si>
+    <t>9853506</t>
+  </si>
+  <si>
+    <t>Roy, Soumen and Pradhan, Jitesh and Kumar, Abhinav and Adhikary, Dibya Ranjan Das and Roy, Utpal and Sinha, Devadatta and Pal, Rajat Kumar</t>
+  </si>
+  <si>
+    <t>A Systematic Literature Review on Latest Keystroke Dynamics Based Models</t>
+  </si>
+  <si>
+    <t>92192-92236</t>
+  </si>
+  <si>
+    <t>The purpose of this study is to conduct a comprehensive evaluation and analysis of the most recent studies on the implications of keystroke dynamics (KD) patterns in user authentication, identification, and the determination of useful information. Another aim is to provide an extensive and up-to-date survey of the recent literature and potential research directions to understand the present state-of-the-art methodologies in this particular domain that are expected to be beneficial for the KD research community. From January 1st, 2017 to March 13th, 2022, the popular six electronic databases have been searched using a search criterion (“keystroke dynamics” OR “typing pattern”) AND (“authentication” OR “verification” OR “identification”). With this criterion, a total of nine thousand three hundred forty-eight results, including duplicates, were produced. However, one thousand five hundred forty-seven articles have been chosen after removing duplicates and preliminary screening. Due to insufficient information, only one hundred twenty-seven high-quality quantitative research articles have been included in the article selection process. We compared and summarised several factors with multiple tables to comprehend the various methodologies, experimental settings, and findings. In this study, we have identified six unique KD-based designs and presented the status of findings toward an effective solution in authentication, identification, and prediction. We have also discovered considerable heterogeneity across studies in each KD-based design for desktops and smartphones separately. Finally, this paper found a few open research challenges and provided some indications for a deeper understanding of the issues and further study.</t>
+  </si>
+  <si>
+    <t>Authentication;Biometrics (access control);Passwords;Behavioral sciences;Security;Knowledge based systems;Keystroke dynamics;Authentication;Identification of persons ;Behavioural biometrics;computer security;keystroke dynamics;trait prediction;typing patterns;user authentication;user identification</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2022.3197756</t>
+  </si>
+  <si>
+    <t>10703137</t>
+  </si>
+  <si>
+    <t>Podrecca, Matteo and Culot, Giovanna and Tavassoli, Sam and Orzes, Guido</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence for Climate Change: A Patent Analysis in the Manufacturing Sector</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>15005-15024</t>
+  </si>
+  <si>
+    <t>This study analyzes the current state of artificial intelligence (AI) technologies for addressing and mitigating climate change in the manufacturing sector and provides an outlook on future developments. The research is grounded in the concept of general-purpose technologies, motivated by a still limited understanding of innovation patterns for this application context. To this end, we focus on global patenting activity between 2011 and 2023 (5919 granted patents classified for “mitigation or adaptation against climate change” in the “production or processing of goods”). We examined time trends, applicant characteristics, and underlying technologies. A topic modeling analysis was performed to identify emerging themes from the unstructured textual data of the patent abstracts. This allowed the identification of six AI application domains. For each of them, we built a network analysis and ran growth trends and forecasting models. Our results show that patenting activities are mostly oriented toward improving the efficiency and reliability of manufacturing processes in five out of six identified domains (“predictive analytics,” “material sorting,” “defect detection,” “advanced robotics,” and “scheduling”). Instead, AI within the “resource optimization” domain relates to energy management, showing an interplay with other climate-related technologies. Our results also highlight interdependent innovations peculiar to each domain around core AI technologies. Forecasts show that the more specific technologies are within domains, the longer it will take for them to mature. From a practical standpoint, the study sheds light on the role of AI within the broader cleantech innovation landscape and urges policymakers to consider synergies. Managers can find information to define technology portfolios and alliances considering technological coevolution.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence;Climate change;Manufacturing;Patents;Market research;Meteorology;Analytical models;Sustainable development;Research and development;Artificial intelligence (AI);climate change;patent analysis;sustainability;technology foresight</t>
+  </si>
+  <si>
+    <t>10.1109/TEM.2024.3469370</t>
+  </si>
+  <si>
+    <t>1558-0040</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Engineering Management</t>
+  </si>
+  <si>
+    <t>10373900</t>
+  </si>
+  <si>
+    <t>Ali, Mansoor and Naeem, Faisal and Kaddoum, Georges and Hossain, Ekram</t>
+  </si>
+  <si>
+    <t>Metaverse Communications, Networking, Security, and Applications: Research Issues, State-of-the-Art, and Future Directions</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1238-1278</t>
+  </si>
+  <si>
+    <t>Metaverse is an evolving orchestrator of the next-generation Internet architecture that produces an immersive and self-adapting virtual world in which humans perform activities similar to those in the real world, such as playing sports, doing work, and socializing. It is becoming a reality and is driven by ever-evolving advanced technologies such as extended reality, artificial intelligence, and blockchain. In this context, Metaverse will play an essential role in developing smart cities, which becomes more evident in the post-COVID-19-pandemic metropolitan setting. However, the new paradigm imposes new challenges, such as developing novel privacy and security threats that can emerge in the digital Metaverse ecosystem. Moreover, it requires the convergence of several media types with the capability to quickly process massive amounts of data to keep the residents safe and well-informed, which can raise issues related to scalability and interoperability. In light of this, this research study aims to review the literature on the state of the art of integrating the Metaverse architecture concepts in smart cities. First, this paper presents the theoretical architecture of Metaverse and discusses international companies’ interest in this emerging technology. It also examines the notion of Metaverse relevant to virtual reality, identifies the prevalent threats, and determines the importance of communication infrastructure in information gathering for efficient Metaverse operation. Next, the notion of blockchain technologies is discussed regarding privacy preservation and how it can provide tamper-proof content sharing among Metaverse users. Finally, the application of distributed Metaverse for social good is highlighted. Most importantly, the paper explores the reflections of this cutting-edge technology on the smart city, talks about the role and impact of the Metaverse in the production of urban policies, and eventually identifies the research gaps and the future research directions in this domain.</t>
+  </si>
+  <si>
+    <t>Metaverse;Smart cities;Tutorials;Surveys;Avatars;Artificial intelligence;X reality;Metaverse;smart city;networking;security;blockchain</t>
+  </si>
+  <si>
+    <t>10.1109/COMST.2023.3347172</t>
+  </si>
+  <si>
+    <t>1553-877X</t>
+  </si>
+  <si>
+    <t>Secondquarter</t>
+  </si>
+  <si>
+    <t>IEEE Communications Surveys &amp; Tutorials</t>
+  </si>
+  <si>
+    <t>10623386</t>
+  </si>
+  <si>
+    <t>Tariq, Asadullah and Serhani, Mohamed Adel and Sallabi, Farag M. and Barka, Ezedin S. and Qayyum, Tariq and Khater, Heba M. and Shuaib, Khaled A.</t>
+  </si>
+  <si>
+    <t>Trustworthy Federated Learning: A Comprehensive Review, Architecture, Key Challenges, and Future Research Prospects</t>
+  </si>
+  <si>
+    <t>4920-4998</t>
+  </si>
+  <si>
+    <t>Federated Learning (FL) emerged as a significant advancement in the field of Artificial Intelligence (AI), enabling collaborative model training across distributed devices while maintaining data privacy. As the importance of FL and its application in various areas increased, addressing trustworthiness issues in its various aspects became crucial. In this survey, we provided a comprehensive overview of the state-of-the-art research on Trustworthy FL, exploring existing solutions and key foundations relevant to Trustworthiness in FL. There has been significant growth in the literature on trustworthy centralized Machine Learning (ML) and Deep Learning (DL). However, there is still a need for more focused efforts toward identifying trustworthiness pillars and evaluation metrics in FL. In this paper, we proposed a taxonomy encompassing five main classifications for Trustworthy FL, including Interpretability and Explainability, Transparency, Privacy and Robustness, Fairness, and Accountability. Each category represents a dimension of trust and is further broken down into different sub-categories. Moreover, we addressed trustworthiness in a Decentralized FL (DFL) setting. Communication efficiency is essential for ensuring Trustworthy FL. This paper also highlights the significance of communication efficiency within various Trustworthy FL pillars and investigates existing research on communication-efficient techniques across these pillars. Our survey comprehensively addresses trustworthiness challenges across all aspects within the Trustworthy FL settings. We also proposed a comprehensive architecture for Trustworthy FL, detailing the fundamental principles underlying the concept, and provided an in-depth analysis of trust assessment mechanisms. In conclusion, we identified key research challenges related to every aspect of Trustworthy FL and suggested future research directions. This comprehensive survey served as a valuable resource for researchers and practitioners working on the development and implementation of Trustworthy FL systems, contributing to a more secure and reliable AI landscape.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence;Data models;Training;Privacy;Surveys;Data privacy;Security;Federated learning;AI;trust;privacy;fairness;transparency;interpretability;accountability;explainability;communication efficiency;intelligent communications and networks</t>
+  </si>
+  <si>
+    <t>10.1109/OJCOMS.2024.3438264</t>
+  </si>
+  <si>
+    <t>10949835</t>
+  </si>
+  <si>
+    <t>Dantas, Victor and Huntingford, Chris</t>
+  </si>
+  <si>
+    <t>The Power Platform Playbook for Digital Transformation: Implement strategy, automation, and AI for scalable digital transformation</t>
+  </si>
+  <si>
+    <t>Revolutionize your business operations with Microsoft Power Platform to automate workflows, drive innovation, and scale digital transformation in your organization with GenAI, AI agents, and intelligent automationKey FeaturesLearn how to build scalable, low-code solutions with Power Apps, Power Automate, Power BI, and Copilot StudioDrive digital transformation through AI-powered automation and data-driven insights while ensuring securityBoost efficiency by streamlining operations and automating workflows with intelligent toolsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionWritten by Victor Dantas, a five-time Microsoft MVP, and Chris Huntingford, MVP, Microsoft Certified Trainer, and FastTrack Recognized Solution Architect, this book distills the collective wisdom of two global thought leaders at the forefront of technological innovation. The Power Platform Playbook for Digital Transformation is your guide to strategizing, implementing, and scaling digital transformation using Power Apps, Power Automate, Power BI, Power Pages, and Copilot Studio. It equips you with tools to streamline operations, enhance decision-making, and scale automation without deep coding expertise. Unlike technical manuals that focus only on implementation, this book takes a holistic approach, combining strategy and execution. You’ll learn how to build enterprise-grade applications, automate repetitive tasks, and integrate Power Platform with Microsoft 365, Dynamics 365, and third-party services. Real-world case studies, best practices, and step-by-step guidance equip you to implement governance, security, and compliance while ensuring long-term success. Whether you’re a business leader driving transformation, an IT professional managing enterprise automation, or a business analyst optimizing processes, this book provides a clear roadmap to leveraging Power Platform for scalable, AI-enhanced digital innovation.What you will learnDesign and deploy end-to-end business solutions using Power Platform's low-code capabilitiesAutomate processes and eliminate inefficiencies with low-code/no-code automationImplement Power Platform governance, security, and compliance best practices for enterprise successIntegrate Power Platform with Microsoft 365, Dynamics 365, and third-party applicationsDevelop a strategy for digital transformation and change management with real-world use casesLeverage AI-powered tools to optimize business workflows and enhance user experienceWho this book is forThis book is for business leaders, IT professionals, and analysts looking to streamline operations, automate workflows, and drive digital transformation with Microsoft Power Platform. Ideal for decision-makers shaping automation strategies, IT teams managing adoption, and analysts optimizing processes, it requires basic knowledge of business processes, Power Apps, Power Automate, and Power BI. No coding experience is necessary, but familiarity with cloud services and enterprise systems is beneficial.</t>
+  </si>
+  <si>
+    <t>9781805124320</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10949835</t>
+  </si>
+  <si>
+    <t>10769418</t>
+  </si>
+  <si>
+    <t>Rehim, Rejah and Mohan, Manindar and Ongers, Grant</t>
+  </si>
+  <si>
+    <t>Offensive Security Using Python: A hands-on guide to offensive tactics and threat mitigation using practical strategies</t>
+  </si>
+  <si>
+    <t>Unlock Python's hacking potential and discover the art of exploiting vulnerabilities in the world of offensive cybersecurityKey FeaturesGet in-depth knowledge of Python's role in offensive security, from fundamentals through to advanced techniquesDiscover the realm of cybersecurity with Python and exploit vulnerabilities effectivelyAutomate complex security tasks with Python, using third-party tools and custom solutionsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionOffensive Security Using Python is your go-to manual for mastering the quick-paced field of offensive security. This book is packed with valuable insights, real-world examples, and hands-on activities to help you leverage Python to navigate the complicated world of web security, exploit vulnerabilities, and automate challenging security tasks. From detecting vulnerabilities to exploiting them with cutting-edge Python techniques, you’ll gain practical insights into web security, along with guidance on how to use automation to improve the accuracy and effectiveness of your security activities. You’ll also learn how to design personalized security automation tools. While offensive security is a great way to stay ahead of emerging threats, defensive security plays an equal role in protecting organizations from cyberattacks. In this book, you’ll get to grips with Python secure coding techniques to improve your ability to recognize dangers quickly and take appropriate action. As you progress, you’ll be well on your way to handling the contemporary challenges in the field of cybersecurity using Python, as well as protecting your digital environment from growing attacks. By the end of this book, you’ll have a solid understanding of sophisticated offensive security methods and be able to stay ahead in the constantly evolving cybersecurity space.What you will learnFamiliarize yourself with advanced Python techniques tailored to security professionals' needsUnderstand how to exploit web vulnerabilities using PythonEnhance cloud infrastructure security by utilizing Python to fortify infrastructure as code (IaC) practicesBuild automated security pipelines using Python and third-party toolsDevelop custom security automation tools to streamline your workflowImplement secure coding practices with Python to boost your applicationsDiscover Python-based threat detection and incident response techniquesWho this book is forThis book is for a diverse audience interested in cybersecurity and offensive security. Whether you're an experienced Python developer looking to enhance offensive security skills, an ethical hacker, a penetration tester eager to learn advanced Python techniques, or a cybersecurity enthusiast exploring Python's potential in vulnerability analysis, you'll find valuable insights. If you have a solid foundation in Python programming language and are eager to understand cybersecurity intricacies, this book will help you get started on the right foot.</t>
+  </si>
+  <si>
+    <t>9781835460634</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769418</t>
+  </si>
+  <si>
+    <t>10879480</t>
+  </si>
+  <si>
+    <t>Prabowo, Sidik and Putrada, Aji Gautama and Oktaviani, Ikke Dian and Abdurohman, Maman and Janssen, Marijn and Nuha, Hilal Hudan and Sutikno, Sarwono</t>
+  </si>
+  <si>
+    <t>Privacy-Preserving Tools and Technologies: Government Adoption and Challenges</t>
+  </si>
+  <si>
+    <t>33904-33934</t>
+  </si>
+  <si>
+    <t>Understanding the landscape of privacy protection in governmental systems is crucial for ensuring the trustworthiness of public services and safeguarding citizens’ sensitive data from breaches or misuse. Systematic mapping and synthesis of previous research can help identify existing privacy-preserving techniques, assess their effectiveness, and highlight areas for improvement, offering valuable insights for policymakers and practitioners. We aim to conduct a systematic literature review (SLR) of privacy-preserving tools and technologies, focusing on their adoption and governments’ challenges. This study also uncovers emerging trends and future research directions, contributing to developing more robust privacy strategies tailored to government needs.Given its extensive reach and government-centric methodology, this evaluation distinguishes itself from previous research. Our work methodically synthesizes privacy-preserving tools and technologies from the distinct perspective of government roles, in contrast to previous assessments that concentrate narrowly on certain technologies or areas. Our findings offer a synthesis of the government’s diverse roles in privacy preservation—regulator, enforcer, user, and service provider—and address existing concerns and key privacy-related technologies. Finally, we identify significant research opportunities, such as improving privacy-preserving mechanisms to strengthen the integrity of public services and mitigate the risks of data breaches and misuse.</t>
+  </si>
+  <si>
+    <t>Privacy;Government;Data privacy;Surveys;Systematic literature review;Protection;Blockchains;Taxonomy;Systematics;Usability;Privacy;regulation;privacy-preserving mechanisms;government;systematic literature study</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2025.3540878</t>
+  </si>
+  <si>
+    <t>10285086</t>
+  </si>
+  <si>
+    <t>Wang, Zhi Qiang and El Saddik, Abdulmotaleb</t>
+  </si>
+  <si>
+    <t>DTITD: An Intelligent Insider Threat Detection Framework Based on Digital Twin and Self-Attention Based Deep Learning Models</t>
+  </si>
+  <si>
+    <t>114013-114030</t>
+  </si>
+  <si>
+    <t>Recent statistics and studies show that the loss generated by insider threats is much higher than that generated by external attacks. More and more organizations are investing in or purchasing insider threat detection systems to prevent insider risks. However, the accurate and timely detection of insider threats faces significant challenges. In this study, we proposed an intelligent insider threat detection framework based on Digital Twins and self-attentions based deep learning models. First, this paper introduces insider threats and the challenges in detecting them. Then this paper presents recent related works on solving insider threat detection problems and their limitations. Next, we propose our solutions to address these challenges: building an innovative intelligent insider threat detection framework based on Digital Twin (DT) and self-attention based deep learning models, performing insight analysis of users’ behavior and entities, adopting contextual word embedding techniques using Bidirectional Encoder Representations from Transformers (BERT) model and sentence embedding technique using Generative Pre-trained Transformer 2 (GPT-2) model to perform data augmentation to overcome significant data imbalance, and adopting temporal semantic representation of users’ behaviors to build user behavior time sequences. Subsequently, this study built self-attention-based deep learning models to quickly detect insider threats. This study proposes a simplified transformer model named DistilledTrans and applies the original transformer model, DistilledTrans, BERT + final layer, Robustly Optimized BERT Approach (RoBERTa) + final layer, and a hybrid method combining pre-trained (BERT, RoBERTa) with a Convolutional Neural Network (CNN) or Long Short-term Memory (LSTM) network model to detect insider threats. Finally, this paper presents experimental results on a dense dataset CERT r4.2 and augmented sporadic dataset CERT r6.2, evaluates their performance, and performs a comparison analysis with state-of-the-art models. Promising experimental results show that 1) contextual word embedding insert and substitution predicted by the BERT model, and context embedding sentences predicted by the GPT-2 model are effective data augmentation approaches to address high data imbalance; 2) DistilledTrans trained with sporadic dataset CERT r6.2 augmented by the contextual embedding sentence method predicted by GPT-2, outperforms the state-of-the-art models in terms of all evaluation metrics, including accuracy, precision, recall, F1-score, and Area Under the ROC Curve (AUC). Additionally, its structure is much simpler, and thus training time and computing cost are much less than those of recent models; 3) when trained with the dense dataset CERT r4.2, pre-trained models BERT plus a final layer or RoBERTa plus a final layer can achieve significantly higher performance than the current models with a very little sacrifice of precision. However, complex hybrid methods may not be required.</t>
+  </si>
+  <si>
+    <t>Context modeling;Computational modeling;Data models;Behavioral sciences;Transformers;Organizations;Threat assessment;Deep learning;Digital twins;Deep learning;Data augmentation;Digital twin;cybersecurity;insider threat;deep learning;transformer;BERT;RoBERTa;GPT-2;data augmentation;artificial intelligence;machine learning;UEBA</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2023.3324371</t>
+  </si>
+  <si>
+    <t>10162796</t>
+  </si>
+  <si>
+    <t>Jafari, Roy</t>
+  </si>
+  <si>
+    <t>Hands-On Data Preprocessing in Python: Learn how to effectively prepare data for successful data analytics</t>
+  </si>
+  <si>
+    <t>Get your raw data cleaned up and ready for processing to design better data analytic solutionsKey FeaturesDevelop the skills to perform data cleaning, data integration, data reduction, and data transformationMake the most of your raw data with powerful data transformation and massaging techniquesPerform thorough data cleaning, including dealing with missing values and outliersBook DescriptionHands-On Data Preprocessing is a primer on the best data cleaning and preprocessing techniques, written by an expert who’s developed college-level courses on data preprocessing and related subjects. With this book, you’ll be equipped with the optimum data preprocessing techniques from multiple perspectives, ensuring that you get the best possible insights from your data. You'll learn about different technical and analytical aspects of data preprocessing – data collection, data cleaning, data integration, data reduction, and data transformation – and get to grips with implementing them using the open source Python programming environment. The hands-on examples and easy-to-follow chapters will help you gain a comprehensive articulation of data preprocessing, its whys and hows, and identify opportunities where data analytics could lead to more effective decision making. As you progress through the chapters, you’ll also understand the role of data management systems and technologies for effective analytics and how to use APIs to pull data. By the end of this Python data preprocessing book, you'll be able to use Python to read, manipulate, and analyze data; perform data cleaning, integration, reduction, and transformation techniques, and handle outliers or missing values to effectively prepare data for analytic tools.What you will learnUse Python to perform analytics functions on your dataUnderstand the role of databases and how to effectively pull data from databasesPerform data preprocessing steps defined by your analytics goalsRecognize and resolve data integration challengesIdentify the need for data reduction and execute itDetect opportunities to improve analytics with data transformationWho this book is forThis book is for junior and senior data analysts, business intelligence professionals, engineering undergraduates, and data enthusiasts looking to perform preprocessing and data cleaning on large amounts of data. You don’t need any prior experience with data preprocessing to get started with this book. However, basic programming skills, such as working with variables, conditionals, and loops, along with beginner-level knowledge of Python and simple analytics experience, are a prerequisite.</t>
+  </si>
+  <si>
+    <t>9781801079952</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162796</t>
+  </si>
+  <si>
+    <t>8641476</t>
+  </si>
+  <si>
+    <t>Peyré, Gabriel and Cuturi, Marco</t>
+  </si>
+  <si>
+    <t>Computational Optimal Transport: With Applications to Data Science</t>
+  </si>
+  <si>
+    <t>The goal of Optimal Transport (OT) is to define geometric tools that are useful to compare probability distributions. Their use dates back to 1781. Recent years have witnessed a new revolution in the spread of OT, thanks to the emergence of approximate solvers that can scale to sizes and dimensions that are relevant to data sciences. Thanks to this newfound scalability, OT is being increasingly used to unlock various problems in imaging sciences (such as color or texture processing), computer vision and graphics (for shape manipulation) or machine learning (for regression, classification and density fitting). This monograph reviews OT with a bias toward numerical methods and their applications in data sciences, and sheds lights on the theoretical properties of OT that make it particularly useful for some of these applications. Computational Optimal Transport presents an overview of the main theoretical insights that support the practical effectiveness of OT before explaining how to turn these insights into fast computational schemes. Written for readers at all levels, the authors provide descriptions of foundational theory at two-levels. Generally accessible to all readers, more advanced readers can read the specially identified more general mathematical expositions of optimal transport tailored for discrete measures. Furthermore, several chapters deal with the interplay between continuous and discrete measures, and are thus targeting a more mathematically-inclined audience. This monograph will be a valuable reference for researchers and students wishing to get a thorough understanding of Computational Optimal Transport, a mathematical gem at the interface of probability, analysis and optimization.</t>
+  </si>
+  <si>
+    <t>10.1561/2200000073</t>
+  </si>
+  <si>
+    <t>9781680835519</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8641476</t>
+  </si>
+  <si>
+    <t>10882925</t>
+  </si>
+  <si>
+    <t>Seyedsalehi, Shirin and Bigdeli, Amin and Arabzadeh, Negar and AlMousawi, Batool and Marshall, Zack and Zihayat, Morteza and Bagheri, Ebrahim</t>
+  </si>
+  <si>
+    <t>Understanding and Mitigating Gender Bias in Information Retrieval Systems</t>
+  </si>
+  <si>
+    <t>Gender bias is a pervasive issue that continues to influence various aspects of society, including the outcomes of information retrieval (IR) systems. As these systems become increasingly integral to accessing and navigating the vast amounts of information available today, the need to understand and mitigate gender bias within them is paramount. This monograph provides a comprehensive examination of the origins, manifestations, and consequences of gender bias in IR systems, as well as the current methodologies employed to address these biases. Theoretical frameworks surrounding gender and its representation in artificial intelligence (AI) systems are explored, particularly focusing on how traditional gender binaries are perpetuated and reinforced through data and algorithmic processes. Metrics and methodologies used to identify and measure gender bias within IR systems are then analyzed, offering a detailed evaluation of existing approaches and their limitations. Subsequent sections address the sources of gender bias, including biased input queries, retrieval methods, and gold standard datasets. Various data-driven and method-level debiasing strategies are presented, including techniques for debiasing neural embeddings and algorithmic approaches aimed at reducing bias in IR system outputs. The monograph concludes with a discussion of the challenges and limitations faced by current debiasing efforts and provides insights into future research directions that could lead to more equitable and inclusive IR systems. This monograph serves as a valuable resource for researchers, practitioners, and students in the fields of information retrieval, artificial intelligence, and data science, providing the knowledge and tools needed to address gender bias and contribute to the development of fair and unbiased information systems.</t>
+  </si>
+  <si>
+    <t>9781638285199</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10882925</t>
+  </si>
+  <si>
+    <t>10130507</t>
+  </si>
+  <si>
+    <t>Bruch, Sebastian and Lucchese, Claudio and Nardini, Franco Maria</t>
+  </si>
+  <si>
+    <t>Efficient and Effective Tree-based and Neural Learning to Rank</t>
+  </si>
+  <si>
+    <t>Information retrieval researchers develop algorithmic solutions to hard problems and insist on a proper, multifaceted evaluation of ideas. As we move towards even more complex deep learning models in a wide range of applications, questions on efficiency once again resurface with renewed urgency. Efficiency is no longer limited to time and space but has found new, challenging dimensions that stretch to resource-, sample- and energy-efficiency with ramifications for researchers, users, and the environment. This monograph takes a step towards promoting the study of efficiency in the era of neural information retrieval by offering a comprehensive survey of the literature on efficiency and effectiveness in ranking and retrieval. It is inspired by the parallels that exist between the challenges in neural network-based ranking solutions and their predecessors, decision forest-based learning-to-rank models, and the connections between the solutions the literature to date has to offer. By understanding the fundamentals underpinning these algorithmic and data structure solutions one can better identify future directions and more efficiently determine the merits of ideas.</t>
+  </si>
+  <si>
+    <t>9781638281993</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10130507</t>
+  </si>
+  <si>
+    <t>10769246</t>
+  </si>
+  <si>
+    <t>Guilmette, Aaron and Miles, Steve and Tender, Peter De</t>
+  </si>
+  <si>
+    <t>Microsoft Azure AI Fundamentals AI-900 Exam Guide: Gain proficiency in Azure AI and machine learning concepts and services to excel in the AI-900 exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get ready to pass the certification exam on your first attempt by gaining actionable insights into AI concepts, ML techniques, and Azure AI services covered in the latest AI-900 exam syllabus from two industry experts Key FeaturesDiscover Azure AI services, including computer vision, Auto ML, NLP, and OpenAIExplore AI use cases, such as image identification, chatbots, and moreWork through 145 practice questions under chapter-end self-assessments and mock examsPurchase of this book unlocks access to web-based exam prep resources, including mock exams, flashcards, and exam tipsBook DescriptionThe AI-900 exam helps you take your first step into an AI-shaped future. Regardless of your technical background, this book will help you test your understanding of the key AI-related topics and tools used to develop AI solutions in Azure cloud. This exam guide focuses on AI workloads, including natural language processing (NLP) and large language models (LLMs). You’ll explore Microsoft’s responsible AI principles like safety and accountability. Then, you’ll cover the basics of machine learning (ML), including classification and deep learning, and learn how to use training and validation datasets with Azure ML. Using Azure AI Vision, face detection, and Video Indexer services, you’ll get up to speed with computer vision-related topics like image classification, object detection, and facial detection. Later chapters cover NLP features such as key phrase extraction, sentiment analysis, and speech processing using Azure AI Language, speech, and translator services. The book also guides you through identifying GenAI models and leveraging Azure OpenAI Service for content generation. At the end of each chapter, you’ll find chapter review questions with answers, provided as an online resource. By the end of this exam guide, you’ll be able to work with AI solutions in Azure and pass the AI-900 exam using the online exam prep resources.What you will learnDiscover various types of artificial intelligence (AI)workloads and services in AzureCover Microsoft's guiding principles for responsible AI development and useUnderstand the fundamental principles of how AI and machine learning workExplore how AI models can recognize content in images and documentsGain insights into the features and use cases for natural language processingExplore the capabilities of generative AI servicesWho this book is forWhether you're a cloud engineer, software developer, an aspiring data scientist, or simply interested in learning AI/ML concepts and capabilities on Azure, this book is for you. The book also serves as a foundation for those looking to attempt more advanced AI and data science-related certification exams (e.g. Microsoft Certified: Azure AI Engineer Associate). Although no experience in data science and software engineering is required, basic knowledge of cloud concepts and client-server applications is assumed. </t>
+  </si>
+  <si>
+    <t>9781835885673</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769246</t>
+  </si>
+  <si>
+    <t>9828000</t>
+  </si>
+  <si>
+    <t>Ekstrand, Michael D. and Das, Anubrata and Burke, Robin and Diaz, Fernando</t>
+  </si>
+  <si>
+    <t>Fairness in Information Access Systems</t>
+  </si>
+  <si>
+    <t>Recommendation, information retrieval, and other information access systems pose unique challenges for investigating and applying the fairness and non-discrimination concepts that have been developed for studying other machine learning systems. While fair information access shares many commonalities with fair classification, there are important differences such as the multistakeholder nature of information access applications, the rank-based problem setting, the centrality of personalization in many cases, and the role of user response. These all complicate the problem of identifying precisely what types and operationalizations of fairness may be relevant. In this monograph, the authors present a taxonomy of the various dimensions of fair information access and survey the literature to date on this new and rapidly-growing topic. They preface this with brief introductions to information access and algorithmic fairness to facilitate the use of this work by scholars who wish to study their intersection. The authors conclude with several open problems in fair information access and present suggestions for how to approach research in this space.</t>
+  </si>
+  <si>
+    <t>9781638280415</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9828000</t>
+  </si>
+  <si>
+    <t>9419664</t>
+  </si>
+  <si>
+    <t>Stanković, Ljubiša and Mandic, Danilo P. and Daković, Miloš and Brajović, Miloš and Scalzo, Bruno and Li, Shengxi and Constantinides, Anthony G.</t>
+  </si>
+  <si>
+    <t>Data Analytics on Graphs Part III: Machine Learning on Graphs, from Graph Topology to Applications</t>
+  </si>
+  <si>
+    <t>Modern data analytics applications on graphs often operate on domains where graph topology is not known a priori, and hence its determination becomes part of the problem definition, rather than serving as prior knowledge which aids the problem solution. Part III of this monograph starts by a comprehensive account of ways to learn the pertinent graph topology, ranging from the simplest case where the physics of the problem already suggest a possible graph structure, through to general cases where the graph structure is to be learned from the data observed on a graph. A particular emphasis is placed on the use of standard “relationship measures” in this context, including the correlation and precision matrices, together with the ways to combine these with the available prior knowledge and structural conditions, such as the smoothness of the graph signals or sparsity of graph connections. Next, for learning sparse graphs (that is, graphs with a small number of edges), the utility of the least absolute shrinkage and selection operator, known as LASSO is addressed, along with its graph specific variant, the graphical LASSO. For completeness, both variants of LASSO are derived in an intuitive way, starting from basic principles. An in-depth elaboration of the graph topology learning paradigm is provided through examples on physically well defined graphs, such as electric circuits, linear heat transfer, social and computer networks, and springmass systems. We also review main trends in graph neural networks (GNN) and graph convolutional networks (GCN) from the perspective of graph signal filtering. Particular insight is given to the role of diffusion processes over graphs, to show that GCNs can be understood from the graph diffusion perspective. Given the largely heuristic nature of the existing GCNs, their treatment through graph diffusion processes may also serve as a basis for new designs of GCNs. Tensor representation of lattice-structured graphs is next considered, and it is shown that tensors (multidimensional data arrays) can be treated a special class of graph signals, whereby the graph vertices reside on a high-dimensional regular lattice structure. The concept of graph tensor networks then provides a unifying framework for learning on irregular domains. This part of monograph concludes with an in-dept account of emerging applications in financial data processing and underground transportation network modeling. By means of portfolio cuts of an asset graph, we show how domain knowledge can be meaningfully incorporated into investment analysis. In the underground transportation example, we demonstrate how graph theory can be used to identify those stations in the London underground network which have the greatest influence on the functionality of the traffic, and proceed, in an innovative way, to assess the impact of a station closure on service levels across the city.</t>
+  </si>
+  <si>
+    <t>9781680839807</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9419664</t>
+  </si>
+  <si>
+    <t>10769252</t>
+  </si>
+  <si>
+    <t>III, Francis X. Govers and Namuduri, Dr. Kamesh</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence for Robotics: Build intelligent robots using ROS 2, Python, OpenCV, and AI/ML techniques for real-world tasks</t>
+  </si>
+  <si>
+    <t>Let an AI and robotics expert help you apply AI, systems engineering, and ML concepts to create smart robots capable of interacting with their environment and users, making decisions, and navigating autonomouslyKey FeaturesGain a holistic understanding of robot design, systems engineering, and task analysisImplement AI/ML techniques to detect and manipulate objects and navigate robots using landmarksIntegrate voice and natural language interactions to create a digital assistant and artificial personality for your robotPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionUnlock the potential of your robots by enhancing their perception with cutting-edge artificial intelligence and machine learning techniques. From neural networks to computer vision, this second edition of the book equips you with the latest tools, new and expanded topics such as object recognition and creating artificial personality, and practical use cases to create truly smart robots. Starting with robotics basics, robot architecture, control systems, and decision-making theory, this book presents systems-engineering methods to design problem-solving robots with single-board computers. You'll explore object recognition using YOLO and genetic algorithms to teach your robot to identify and pick up objects, leverage natural language processing to give your robot a voice, and master neural networks to classify and separate objects and navigate autonomously, before advancing to guiding your robot arms using reinforcement learning and genetic algorithms. The book also covers path planning and goal-oriented programming to prioritize your robot's tasks, showing you how to connect all software using Python and ROS 2 for a seamless experience. By the end of this book, you'll have learned how to transform your robot into a helpful assistant with NLP and give it an artificial personality, ready to tackle real-world tasks and even crack jokes.What you will learnGet started with robotics and AI essentialsUnderstand path planning, decision trees, and search algorithms to enhance your robotExplore object recognition using neural networks and supervised learning techniquesEmploy genetic algorithms to enable your robot arm to manipulate objectsTeach your robot to listen using Natural Language Processing through an expert systemProgram your robot in how to avoid obstacles and retrieve objects with machine learning and computer visionApply simulation techniques to give your robot an artificial personalityWho this book is forThis book is for practicing robotics engineers and enthusiasts aiming to advance their skills by applying AI and ML techniques. Students and researchers looking for practical guidance for solving specific problems or approaching a difficult robot design will find this book insightful. Proficiency in Python programming, familiarity with electronics and wiring, single board computers, Linux-based command-line interface (CLI), and knowledge of AI/ML concepts are required to get started with this book.</t>
+  </si>
+  <si>
+    <t>9781805124399</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769252</t>
+  </si>
+  <si>
+    <t>10453491</t>
+  </si>
+  <si>
+    <t>Dong, Xuanyi and Kedziora, David Jacob and Musial, Katarzyna and Gabrys, Bogdan</t>
+  </si>
+  <si>
+    <t>Automated Deep Learning: Neural Architecture Search Is Not the End</t>
+  </si>
+  <si>
+    <t>Deep learning (DL) has proven to be a highly effective approach for developing models in diverse contexts, including visual perception, speech recognition, and machine translation. Automated deep learning (AutoDL) endeavors to minimize the need for human involvement and is best known for its achievements in neural architecture search (NAS). In this monograph, the authors examine research efforts into automation across the entirety of an archetypal DL workflow. In so doing, they propose a comprehensive set of ten criteria by which to assess existing work in both individual publications and broader research areas, namely novelty, solution quality, efficiency, stability, interpretability, reproducibility, engineering quality, scalability, generalizability, and eco-friendliness. Aimed at students and researchers, this monograph provides an evaluative overview of AutoDL in the early 2020s, identifying where future opportunities for progress may exist.</t>
+  </si>
+  <si>
+    <t>9781638283195</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10453491</t>
+  </si>
+  <si>
+    <t>9228848</t>
+  </si>
+  <si>
+    <t>Reinanda, Ridho and Meij, Edgar and de Rijke, Maarten</t>
+  </si>
+  <si>
+    <t>Knowledge Graphs: An Information Retrieval Perspective</t>
+  </si>
+  <si>
+    <t>The aim of this survey is to bridge two important components of modern information access: information retrieval (IR) and knowledge graphs (KGs). Modern IR systems can benefit from information available in KGs in multiple ways, independent of whether the KGs are publicly available or proprietary ones. The authors provide an overview of the literature on KGs in the context of IR and the components required when building IR systems that leverage KGs. As an understanding of the intersection of IR and KGs is beneficial to many researchers and practitioners, they consider prior work from two complementary angles: leveraging KGs for information retrieval and enriching KGs using IR techniques. They summarize research work, group related approaches, and discuss challenges shared across tasks at the interface of IR and KGs. In Knowledge Graphs: An Information Retrieval Perspective, the authors present an extensive overview of tasks related to KGs from an IR perspective, provide a thorough review for each task, and present discussions on common issues that are shared among the tasks. They discuss common issues that appear across the tasks that consider and identify future directions for addressing them. They also provide pointers to datasets and other resources that should be useful for both newcomers and experienced researchers in the area.</t>
+  </si>
+  <si>
+    <t>9781680837292</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9228848</t>
+  </si>
+  <si>
+    <t>10706754</t>
+  </si>
+  <si>
+    <t>Taylor, Gabrielle and Jiang, Wenting and Qin, Xiao and Gupta, Ashish</t>
+  </si>
+  <si>
+    <t>Misinformation Detection: A Survey of AI Techniques and Research Opportunities</t>
+  </si>
+  <si>
+    <t>Misinformation Detection: A Survey of AI Techniques and Research Opportunities highlights the evolution of techniques within misinformation detection. This monograph provides an overview of the types of misinformation, classification strategies, strengths and weaknesses, and potential solutions for open issues. This comprehensive survey is helpful for future research as a resource for successful solutions and possible ideas. The authors first present background information including search strategies in Sections 1 and 2 and identify the types of misinformation in Section 3. The monograph then elaborates on the methods and compares the existing successful techniques from various perspectives in Section 4. Section 5 provides tools and datasets for misinformation detection. Section 6 reviews the challenges and open issues of misinformation and makes suggestions on how one can address those challenges. The monograph concludes in Section 7 with final thoughts on the areas of misinformation detection and an overall analysis of this field.</t>
+  </si>
+  <si>
+    <t>9781638284178</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10706754</t>
+  </si>
+  <si>
+    <t>9868317</t>
+  </si>
+  <si>
+    <t>Postma, Dees B.W. and van Delden, Robby W. and Koekoek, Jeroen H. and Walinga, Wytse W. and van Hilvoorde, Ivo M. and van Beijnum, Bert Jan F. and Salim, Fahim A. and Reidsma, Dennis</t>
+  </si>
+  <si>
+    <t>A Design Space of Sports Interaction Technology</t>
+  </si>
+  <si>
+    <t>This monograph introduces a new, systematic taxonomy of Sports Interaction Technology (Sports ITech) that defines a design space of existing and future work in this domain. The authors put the taxonomy in a context of sport science and practice, target outcomes of sports, the underlying factors that influence them, and the role that sports technology plays in supporting sports science and practice. They build on the existing taxonomies and a vast body of literature from multiple domains of HCI, technology, sports science, and related work in Sports ITech, and complement it with identified gaps in the literature. This taxonomy is meant to be used by designers of Sports ITech. It will help better highlight and position existing work as well as provide input and inspiration for the design and deployment of such technology. It offers a description of a design space suitable to support designers, technologists, and sports people with a mindset to design, deploy, and adapt Sports ITech. The authors present this work as a call to action to bring HCI and the sports sciences closer together in the new field of Sports Interaction Technology, and aim to set a shared agenda for future developments. A Design Space of Sports Interaction Technology is a complete guide to navigate the literature from the many underlying disciplines of Sports ITech.</t>
+  </si>
+  <si>
+    <t>9781638280651</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9868317</t>
+  </si>
+  <si>
+    <t>10162493</t>
+  </si>
+  <si>
+    <t>Knickerbocker, David</t>
+  </si>
+  <si>
+    <t>Network Science with Python: Explore the networks around us using network science, social network analysis, and machine learning</t>
+  </si>
+  <si>
+    <t>Discover the use of graph networks to develop a new approach to data science using theoretical and practical methods with this expert guide using Python, printed in colorKey FeaturesCreate networks using data points and informationLearn to visualize and analyze networks to better understand communitiesExplore the use of network data in both - supervised and unsupervised machine learning projectsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionNetwork analysis is often taught with tiny or toy data sets, leaving you with a limited scope of learning and practical usage. Network Science with Python helps you extract relevant data, draw conclusions and build networks using industry-standard – practical data sets. You’ll begin by learning the basics of natural language processing, network science, and social network analysis, then move on to programmatically building and analyzing networks. You’ll get a hands-on understanding of the data source, data extraction, interaction with it, and drawing insights from it. This is a hands-on book with theory grounding, specific technical, and mathematical details for future reference. As you progress, you’ll learn to construct and clean networks, conduct network analysis, egocentric network analysis, community detection, and use network data with machine learning. You’ll also explore network analysis concepts, from basics to an advanced level. By the end of the book, you’ll be able to identify network data and use it to extract unconventional insights to comprehend the complex world around you.What you will learnExplore NLP, network science, and social network analysisApply the tech stack used for NLP, network science, and analysisExtract insights from NLP and network dataGenerate personalized NLP and network projectsAuthenticate and scrape tweets, connections, the web, and data streamsDiscover the use of network data in machine learning projectsWho this book is forNetwork Science with Python demonstrates how programming and social science can be combined to find new insights. Data scientists, NLP engineers, software engineers, social scientists, and data science students will find this book useful. An intermediate level of Python programming is a prerequisite. Readers from both – social science and programming backgrounds will find a new perspective and add a feather to their hat.</t>
+  </si>
+  <si>
+    <t>9781801075213</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162493</t>
+  </si>
+  <si>
+    <t>10026676</t>
+  </si>
+  <si>
+    <t>Wu, Lingfei and Chen, Yu and Shen, Kai and Guo, Xiaojie and Gao, Hanning and Li, Shucheng and Pei, Jian and Long, Bo</t>
+  </si>
+  <si>
+    <t>Graph Neural Networks for Natural Language Processing: A Survey</t>
+  </si>
+  <si>
+    <t>Deep learning has become the dominant approach in addressing various tasks in Natural Language Processing (NLP). Although text inputs are typically represented as a sequence of tokens, there is a rich variety of NLP problems that can be best expressed with a graph structure. As a result, there is a surge of interest in developing new deep learning techniques on graphs for a large number of NLP tasks. In this monograph, the authors present a comprehensive overview on Graph Neural Networks (GNNs) for Natural Language Processing. They propose a new taxonomy of GNNs for NLP, which systematically organizes existing research of GNNs for NLP along three axes: graph construction, graph representation learning, and graph based encoder-decoder models. They further introduce a large number of NLP applications that exploits the power of GNNs and summarize the corresponding benchmark datasets, evaluation metrics, and open-source codes. Finally, they discuss various outstanding challenges for making the full use of GNNs for NLP as well as future research directions. This is the first comprehensive overview of Graph Neural Networks for Natural Language Processing. It provides students and researchers with a concise and accessible resource to quickly get up to speed with an important area of machine learning research.</t>
+  </si>
+  <si>
+    <t>9781638281436</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10026676</t>
+  </si>
+  <si>
+    <t>10251289</t>
+  </si>
+  <si>
+    <t>Aggarwal, Shalabh</t>
+  </si>
+  <si>
+    <t>Flask Framework Cookbook: Enhance your Flask skills with advanced techniques and build dynamic, responsive web applications</t>
+  </si>
+  <si>
+    <t>Design and deploy robust state-of-the-art web applications using Flask 2.x and Python 3 frameworks and libraries for streamlined development and optimal performance Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesA practical and rich companion guide for web developers, offering real-world situations and use cases to learn FlaskGet the most out of the powerful Flask framework while preserving the flexibility of your design choicesWrite cleaner, testable, and maintainable code with the help of sample appsBook DescriptionDiscover what makes Flask, the lightweight Python web framework, popular, as you delve into its modular design that enables the development of scalable web apps. With this practical guide, you'll explore modern solutions, recommended design patterns, and best practices for Flask web development. Updated to the latest version of Flask and Python, this third edition of the Flask Framework Cookbook moves away from the outdated libraries, updates content to incorporate new coding patterns, and introduces recipes for the latest tools. You'll explore different ways to integrate with GPT to build AI-ready Flask applications. The book starts with an exploration of Flask application configurations and then guides you through working with templates and understanding the ORM and view layers. You’ll also be able to write an admin interface and get to grips with testing using the factory pattern, debugging, and logging errors. Then you’ll discover different ways of using Flask to create, deploy, and manage microservices using AWS, GCP, and Kubernetes. Finally, you’ll gain insights into various deployment and post-deployment techniques for platforms such as Apache, Tornado, and Datadog. By the end of this book, you'll have acquired the knowledge necessary to write Flask applications that cater to a wide range of use cases in the best possible way and scale them using standard industry practices.What you will learnExplore advanced templating and data modeling techniquesDiscover effective debugging, logging, and error-handling techniques in FlaskWork with different types of databases, including RDBMS and NoSQLIntegrate Flask with different technologies such as Redis, Sentry, and DatadogDeploy and package Flask applications with Docker and KubernetesIntegrate GPT with your Flask application to build future-ready platformsImplement continuous integration and continuous deployment (CI/CD) to ensure efficient and consistent updates to your Flask web applicationsWho this book is forIf you are a web developer seeking to expand your knowledge of developing scalable and production-ready applications in Flask, this is the book for you. It is also highly valuable if you are already aware of Flask's major extensions and want to leverage them for better application development. This book will come handy as a quick reference for specific topic on Flask, its popular extensions, or specific use cases. It assumes basic Python programming experience, as well as familiarity with web development and related terminology.</t>
+  </si>
+  <si>
+    <t>9781804610008</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251289</t>
+  </si>
+  <si>
+    <t>10162146</t>
+  </si>
+  <si>
+    <t>Irvine, Daniel and Searls, Justin</t>
+  </si>
+  <si>
+    <t>Mastering React Test-Driven Development: Build simple and maintainable web apps with React, Redux, and GraphQL</t>
+  </si>
+  <si>
+    <t>Learn test-driven and behavior-driven development techniques that will give you greater confidence when building React applicationsKey FeaturesExplore the TDD process, how it works, and why it will help you write maintainable React appsDevelop a component testing framework from scratch, which will help you understand the mechanics of good unit testingReduce complexity by using unit tests and end-to-end acceptance tests to drive the design of your appsBook DescriptionTest-driven development (TDD) is a programming workflow that helps you build your apps by specifying behavior as automated tests. The TDD workflow future-proofs apps so that they can be modified without fear of breaking existing functionality. Another benefit of TDD is that it helps software development teams communicate their intentions more clearly, by way of test specifications. This book teaches you how to apply TDD when building React apps. You’ll create a sample app using the same React libraries and tools that professional React developers use, such as Jest, React Router, Redux, Relay (GraphQL), Cucumber, and Puppeteer. The TDD workflow is supported by various testing techniques and patterns, which are useful even if you’re not following the TDD process. This book covers these techniques by walking you through the creation of a component test framework. You’ll learn automated testing theory which will help you work with any of the test libraries that are in standard usage today, such as React Testing Library. This second edition has been revised with a stronger focus on concise code examples and has been fully updated for React 18. By the end of this TDD book, you’ll be able to use React, Redux, and GraphQL to develop robust web apps.What you will learnBuild test-driven applications using React 18 and JestUnderstand techniques and patterns for writing great automated testsUse test doubles and mocks effectivelyTest-drive browser APIs, including the Fetch API and the WebSocket APIIntegrate with libraries such as React Router, Redux, and Relay (GraphQL)Use Cucumber.js and Puppeteer to build Behaviour- Driven Development (BDD) style tests for your applicationsBuild and test async Redux code using redux-saga and expect-reduxWho this book is forThis book is for frontend developers who are looking to improve their testing practices and increase the quality and maintainability of their applications. To make the most of this book, you’ll need knowledge of the JavaScript programming language.</t>
+  </si>
+  <si>
+    <t>9781803230559</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162146</t>
+  </si>
+  <si>
+    <t>10162156</t>
+  </si>
+  <si>
+    <t>Masís, Serg</t>
+  </si>
+  <si>
+    <t>Interpretable Machine Learning with Python: Learn to build interpretable high-performance models with hands-on real-world examples</t>
+  </si>
+  <si>
+    <t>A deep and detailed dive into the key aspects and challenges of machine learning interpretability, complete with the know-how on how to overcome and leverage them to build fairer, safer, and more reliable modelsKey FeaturesLearn how to extract easy-to-understand insights from any machine learning modelBecome well-versed with interpretability techniques to build fairer, safer, and more reliable modelsMitigate risks in AI systems before they have broader implications by learning how to debug black-box modelsBook DescriptionDo you want to gain a deeper understanding of your models and better mitigate poor prediction risks associated with machine learning interpretation? If so, then Interpretable Machine Learning with Python deserves a place on your bookshelf. We’ll be starting off with the fundamentals of interpretability, its relevance in business, and exploring its key aspects and challenges. As you progress through the chapters, you'll then focus on how white-box models work, compare them to black-box and glass-box models, and examine their trade-off. You’ll also get you up to speed with a vast array of interpretation methods, also known as Explainable AI (XAI) methods, and how to apply them to different use cases, be it for classification or regression, for tabular, time-series, image or text. In addition to the step-by-step code, this book will also help you interpret model outcomes using examples. You’ll get hands-on with tuning models and training data for interpretability by reducing complexity, mitigating bias, placing guardrails, and enhancing reliability. The methods you’ll explore here range from state-of-the-art feature selection and dataset debiasing methods to monotonic constraints and adversarial retraining. By the end of this book, you'll be able to understand ML models better and enhance them through interpretability tuning. What you will learnRecognize the importance of interpretability in businessStudy models that are intrinsically interpretable such as linear models, decision trees, and Naïve BayesBecome well-versed in interpreting models with model-agnostic methodsVisualize how an image classifier works and what it learnsUnderstand how to mitigate the influence of bias in datasetsDiscover how to make models more reliable with adversarial robustnessUse monotonic constraints to make fairer and safer modelsWho this book is forThis book is primarily written for data scientists, machine learning developers, and data stewards who find themselves under increasing pressures to explain the workings of AI systems, their impacts on decision making, and how they identify and manage bias. It’s also a useful resource for self-taught ML enthusiasts and beginners who want to go deeper into the subject matter, though a solid grasp on the Python programming language and ML fundamentals is needed to follow along.</t>
+  </si>
+  <si>
+    <t>9781800206571</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162156</t>
+  </si>
+  <si>
+    <t>10163610</t>
+  </si>
+  <si>
+    <t>Ganguly, Srinjoy and Cambier, Thomas</t>
+  </si>
+  <si>
+    <t>Quantum Computing with Silq Programming: Get up and running with quantum computing with the simplicity of this new high-level programming language</t>
+  </si>
+  <si>
+    <t>Learn the mathematics behind quantum computing and explore the high-level quantum language Silq to take your quantum programming skills to the next levelKey FeaturesHarness the potential of quantum computers more effectively using SilqLearn how to solve core problems that you may face while writing quantum programsExplore useful quantum applications such as cryptography and quantum machine learningBook DescriptionQuantum computing is a growing field, with many research projects focusing on programming quantum computers in the most efficient way possible. One of the biggest challenges faced with existing languages is that they work on low-level circuit model details and are not able to represent quantum programs accurately. Developed by researchers at ETH Zurich after analyzing languages including Q# and Qiskit, Silq is a high-level programming language that can be viewed as the C++ of quantum computers! Quantum Computing with Silq Programming helps you explore Silq and its intuitive and simple syntax to enable you to describe complex tasks with less code. This book will help you get to grips with the constructs of the Silq and show you how to write quantum programs with it. You’ll learn how to use Silq to program quantum algorithms to solve existing and complex tasks. Using quantum algorithms, you’ll also gain practical experience in useful applications such as quantum error correction, cryptography, and quantum machine learning. Finally, you’ll discover how to optimize the programming of quantum computers with the simple Silq. By the end of this Silq book, you’ll have mastered the features of Silq and be able to build efficient quantum applications independently.What you will learnIdentify the challenges that researchers face in quantum programmingUnderstand quantum computing concepts and learn how to make quantum circuitsExplore Silq programming constructs and use them to create quantum programsUse Silq to code quantum algorithms such as Grover's and Simon’sDiscover the practicalities of quantum error correction with SilqExplore useful applications such as quantum machine learning in a practical wayWho this book is forThis Silq quantum computing book is for students, researchers, and scientists looking to learn quantum computing techniques and software development. Quantum computing enthusiasts who want to explore this futuristic technology will also find this book useful. Beginner-level knowledge of any programming language as well as mathematical topics such as linear algebra, probability, complex numbers, and statistics is required.</t>
+  </si>
+  <si>
+    <t>9781800561212</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163610</t>
+  </si>
+  <si>
+    <t>10522534</t>
+  </si>
+  <si>
+    <t>Cerqueira, Vitor and Roque, Luís</t>
+  </si>
+  <si>
+    <t>Deep Learning for Time Series Cookbook: Use PyTorch and Python recipes for forecasting, classification, and anomaly detection</t>
+  </si>
+  <si>
+    <t>Learn how to deal with time series data and how to model it using deep learning and take your skills to the next level by mastering PyTorch using different Python recipesKey FeaturesLearn the fundamentals of time series analysis and how to model time series data using deep learningExplore the world of deep learning with PyTorch and build advanced deep neural networksGain expertise in tackling time series problems, from forecasting future trends to classifying patterns and anomaly detectionPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionMost organizations exhibit a time-dependent structure in their processes, including fields such as finance. By leveraging time series analysis and forecasting, these organizations can make informed decisions and optimize their performance. Accurate forecasts help reduce uncertainty and enable better planning of operations. Unlike traditional approaches to forecasting, deep learning can process large amounts of data and help derive complex patterns. Despite its increasing relevance, getting the most out of deep learning requires significant technical expertise. This book guides you through applying deep learning to time series data with the help of easy-to-follow code recipes. You’ll cover time series problems, such as forecasting, anomaly detection, and classification. This deep learning book will also show you how to solve these problems using different deep neural network architectures, including convolutional neural networks (CNNs) or transformers. As you progress, you’ll use PyTorch, a popular deep learning framework based on Python to build production-ready prediction solutions. By the end of this book, you'll have learned how to solve different time series tasks with deep learning using the PyTorch ecosystem.What you will learnGrasp the core of time series analysis and unleash its power using PythonUnderstand PyTorch and how to use it to build deep learning modelsDiscover how to transform a time series for training transformersUnderstand how to deal with various time series characteristicsTackle forecasting problems, involving univariate or multivariate dataMaster time series classification with residual and convolutional neural networksGet up to speed with solving time series anomaly detection problems using autoencoders and generative adversarial networks (GANs)Who this book is forIf you’re a machine learning enthusiast or someone who wants to learn more about building forecasting applications using deep learning, this book is for you. Basic knowledge of Python programming and machine learning is required to get the most out of this book.</t>
+  </si>
+  <si>
+    <t>9781805122739</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10522534</t>
+  </si>
+  <si>
+    <t>10769350</t>
+  </si>
+  <si>
+    <t>Hoyle, David</t>
+  </si>
+  <si>
+    <t>15 Math Concepts Every Data Scientist Should Know: Understand and learn how to apply the math behind data science algorithms</t>
+  </si>
+  <si>
+    <t>Create more effective and powerful data science solutions by learning when, where, and how to apply key math principles that drive most data science algorithmsKey FeaturesUnderstand key data science algorithms with Python-based examplesIncrease the impact of your data science solutions by learning how to apply existing algorithmsTake your data science solutions to the next level by learning how to create new algorithmsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionData science combines the power of data with the rigor of scientific methodology, with mathematics providing the tools and frameworks for analysis, algorithm development, and deriving insights. As machine learning algorithms become increasingly complex, a solid grounding in math is crucial for data scientists. David Hoyle, with over 30 years of experience in statistical and mathematical modeling, brings unparalleled industrial expertise to this book, drawing from his work in building predictive models for the world's largest retailers. Encompassing 15 crucial concepts, this book covers a spectrum of mathematical techniques to help you understand a vast range of data science algorithms and applications. Starting with essential foundational concepts, such as random variables and probability distributions, you’ll learn why data varies, and explore matrices and linear algebra to transform that data. Building upon this foundation, the book spans general intermediate concepts, such as model complexity and network analysis, as well as advanced concepts such as kernel-based learning and information theory. Each concept is illustrated with Python code snippets demonstrating their practical application to solve problems. By the end of the book, you’ll have the confidence to apply key mathematical concepts to your data science challenges.What you will learnMaster foundational concepts that underpin all data science applicationsUse advanced techniques to elevate your data science proficiencyApply data science concepts to solve real-world data science challengesImplement the NumPy, SciPy, and scikit-learn concepts in PythonBuild predictive machine learning models with mathematical conceptsGain expertise in Bayesian non-parametric methods for advanced probabilistic modelingAcquire mathematical skills tailored for time-series and network data typesWho this book is forThis book is for data scientists, machine learning engineers, and data analysts who already use data science tools and libraries but want to learn more about the underlying math. Whether you’re looking to build upon the math you already know, or need insights into when and how to adopt tools and libraries to your data science problem, this book is for you. Organized into essential, general, and selected concepts, this book is for both practitioners just starting out on their data science journey and experienced data scientists.</t>
+  </si>
+  <si>
+    <t>9781837631940</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769350</t>
+  </si>
+  <si>
+    <t>10251349</t>
+  </si>
+  <si>
+    <t>Labonne, Maxime</t>
+  </si>
+  <si>
+    <t>Hands-On Graph Neural Networks Using Python: Practical techniques and architectures for building powerful graph and deep learning apps with PyTorch</t>
+  </si>
+  <si>
+    <t>Design robust graph neural networks with PyTorch Geometric by combining graph theory and neural networks with the latest developments and apps Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesImplement state-of-the-art graph neural network architectures in PythonCreate your own graph datasets from tabular dataBuild powerful traffic forecasting, recommender systems, and anomaly detection applicationsBook DescriptionGraph neural networks are a highly effective tool for analyzing data that can be represented as a graph, such as social networks, chemical compounds, or transportation networks. The past few years have seen an explosion in the use of graph neural networks, with their application ranging from natural language processing and computer vision to recommendation systems and drug discovery. Hands-On Graph Neural Networks Using Python begins with the fundamentals of graph theory and shows you how to create graph datasets from tabular data. As you advance, you’ll explore major graph neural network architectures and learn essential concepts such as graph convolution, self-attention, link prediction, and heterogeneous graphs. Finally, the book proposes applications to solve real-life problems, enabling you to build a professional portfolio. The code is readily available online and can be easily adapted to other datasets and apps. By the end of this book, you’ll have learned to create graph datasets, implement graph neural networks using Python and PyTorch Geometric, and apply them to solve real-world problems, along with building and training graph neural network models for node and graph classification, link prediction, and much more.What you will learnUnderstand the fundamental concepts of graph neural networksImplement graph neural networks using Python and PyTorch GeometricClassify nodes, graphs, and edges using millions of samplesPredict and generate realistic graph topologiesCombine heterogeneous sources to improve performanceForecast future events using topological informationApply graph neural networks to solve real-world problemsWho this book is forThis book is for machine learning practitioners and data scientists interested in learning about graph neural networks and their applications, as well as students looking for a comprehensive reference on this rapidly growing field. Whether you’re new to graph neural networks or looking to take your knowledge to the next level, this book has something for you. Basic knowledge of machine learning and Python programming will help you get the most out of this book.</t>
+  </si>
+  <si>
+    <t>9781804610701</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251349</t>
+  </si>
+  <si>
+    <t>10803994</t>
+  </si>
+  <si>
+    <t>Bergmann, Benedikt and Durow, Scott</t>
+  </si>
+  <si>
+    <t>​Application Lifecycle Management on Microsoft Power Platform: A comprehensive guide to managing the deployment of your solutions</t>
+  </si>
+  <si>
+    <t>Implement modern DevOps techniques in the Power Platform to boost business and maker productivityKey FeaturesDemystify ALM concepts and how they apply to Microsoft Power Platform Application Lifecycle Management on Microsoft Power PlatformDefine the best strategy for possible solutions, source code, and environmentsAutomate build and deployment tasks using Azure DevOps and GitHubPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionManaging Power Platform solutions manually can be challenging and time-consuming, as is application lifecycle management (ALM), which encompasses governance, development, and maintenance. This book provides comprehensive coverage of ALM, addressing planning, development, testing, deployment, and maintenance. Drawing on his extensive experience as a Power Platform consultant and Microsoft MVP, Benedikt Bergmann simplifies complex topics, making them accessible and easy to grasp. From planning and designing applications to deploying and maintaining them, this book provides step-by-step instructions, best practices, and real-world examples to effectively manage the entire application lifecycle. You’ll gain insights into optimizing Power Platform's toolbox, including Power Apps, Power Automate, Power Pages, and Power Virtual Agents, for seamless collaboration, agile development, and rapid application delivery. You’ll also implement best practices for version control, code management, and collaboration using the Microsoft Power Platform. By the end of this book, you’ll be equipped with the knowledge and skills to effectively manage the entire application lifecycle, accelerate development cycles, and deliver exceptional solutions with the Microsoft Power Platform.What you will learnUnderstand the importance of ALM in the context of Microsoft Power PlatformLeverage the Power Platform CLI to streamline ALM practicesDevelop a comprehensive strategy for managing Power Platform environmentsExplore techniques for defining robust Dataverse solutions for scalability and performanceApply ALM concepts to Microsoft Power PlatformUse Managed Pipelines in managed Power Platform environmentsImplement a source-code-centric approach with Azure DevOps Pipelines and GitHub ActionsWho this book is forIf you are involved in managing the deployment of Microsoft Power Platform solutions, whether as a solution architect, developer, functional consultant, or DevOps specialist, this book is for you. Familiarity with Power Platform is recommended.</t>
+  </si>
+  <si>
+    <t>9781835460894</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10803994</t>
+  </si>
+  <si>
+    <t>10162459</t>
+  </si>
+  <si>
+    <t>Lewinson, Eryk</t>
+  </si>
+  <si>
+    <t>Python for Finance Cookbook: Over 80 powerful recipes for effective financial data analysis</t>
+  </si>
+  <si>
+    <t>Use modern Python libraries such as pandas, NumPy, and scikit-learn and popular machine learning and deep learning methods to solve financial modeling problems Purchase of the print or Kindle book includes a free eBook in the PDF formatKey FeaturesExplore unique recipes for financial data processing and analysis with PythonApply classical and machine learning approaches to financial time series analysisCalculate various technical analysis indicators and backtest trading strategiesBook DescriptionPython is one of the most popular programming languages in the financial industry, with a huge collection of accompanying libraries. In this new edition of the Python for Finance Cookbook, you will explore classical quantitative finance approaches to data modeling, such as GARCH, CAPM, factor models, as well as modern machine learning and deep learning solutions. You will use popular Python libraries that, in a few lines of code, provide the means to quickly process, analyze, and draw conclusions from financial data. In this new edition, more emphasis was put on exploratory data analysis to help you visualize and better understand financial data. While doing so, you will also learn how to use Streamlit to create elegant, interactive web applications to present the results of technical analyses. Using the recipes in this book, you will become proficient in financial data analysis, be it for personal or professional projects. You will also understand which potential issues to expect with such analyses and, more importantly, how to overcome them.What you will learnPreprocess, analyze, and visualize financial dataExplore time series modeling with statistical (exponential smoothing, ARIMA) and machine learning modelsUncover advanced time series forecasting algorithms such as Meta’s ProphetUse Monte Carlo simulations for derivatives valuation and risk assessmentExplore volatility modeling using univariate and multivariate GARCH modelsInvestigate various approaches to asset allocationLearn how to approach ML-projects using an example of default predictionExplore modern deep learning models such as Google’s TabNet, Amazon’s DeepAR and NeuralProphetWho this book is forThis book is intended for financial analysts, data analysts and scientists, and Python developers with a familiarity with financial concepts. You’ll learn how to correctly use advanced approaches for analysis, avoid potential pitfalls and common mistakes, and reach correct conclusions for a broad range of finance problems. Working knowledge of the Python programming language (particularly libraries such as pandas and NumPy) is necessary.</t>
+  </si>
+  <si>
+    <t>9781803238838</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162459</t>
+  </si>
+  <si>
+    <t>10163516</t>
+  </si>
+  <si>
+    <t>Bansal, Ashish</t>
+  </si>
+  <si>
+    <t>Advanced Natural Language Processing with TensorFlow 2: Build effective real-world NLP applications using NER, RNNs, seq2seq models, Transformers, and more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-stop solution for NLP practitioners, ML developers, and data scientists to build effective NLP systems that can perform real-world complicated tasksKey FeaturesApply deep learning algorithms and techniques such as BiLSTMS, CRFs, BPE and more using TensorFlow 2Explore applications like text generation, summarization, weakly supervised labelling and moreRead cutting edge material with seminal papers provided in the GitHub repository with full working codeBook DescriptionRecently, there have been tremendous advances in NLP, and we are now moving from research labs into practical applications. This book comes with a perfect blend of both the theoretical and practical aspects of trending and complex NLP techniques. The book is focused on innovative applications in the field of NLP, language generation, and dialogue systems. It helps you apply the concepts of pre-processing text using techniques such as tokenization, parts of speech tagging, and lemmatization using popular libraries such as Stanford NLP and SpaCy. You will build Named Entity Recognition (NER) from scratch using Conditional Random Fields and Viterbi Decoding on top of RNNs. The book covers key emerging areas such as generating text for use in sentence completion and text summarization, bridging images and text by generating captions for images, and managing dialogue aspects of chatbots. You will learn how to apply transfer learning and fine-tuning using TensorFlow 2. Further, it covers practical techniques that can simplify the labelling of textual data. The book also has a working code that is adaptable to your use cases for each tech piece. By the end of the book, you will have an advanced knowledge of the tools, techniques and deep learning architecture used to solve complex NLP problems. What you will learnGrasp important pre-steps in building NLP applications like POS taggingUse transfer and weakly supervised learning using libraries like SnorkelDo sentiment analysis using BERTApply encoder-decoder NN architectures and beam search for summarizing textsUse Transformer models with attention to bring images and text togetherBuild apps that generate captions and answer questions about images using custom TransformersUse advanced TensorFlow techniques like learning rate annealing, custom layers, and custom loss functions to build the latest DeepNLP modelsWho this book is forThis is not an introductory book and assumes the reader is familiar with basics of NLP and has fundamental Python skills, as well as basic knowledge of machine learning and undergraduate-level calculus and linear algebra. The readers who can benefit the most from this book include intermediate ML developers who are familiar with the basics of supervised learning and deep learning techniques and professionals who already use TensorFlow/Python for purposes such as data science, ML, research, analysis, etc. </t>
+  </si>
+  <si>
+    <t>9781800201057</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163516</t>
+  </si>
+  <si>
+    <t>10163520</t>
+  </si>
+  <si>
+    <t>Mullennex, Lauren and Bachmeier, Nate and Rao, Jay</t>
+  </si>
+  <si>
+    <t>Computer Vision on AWS: Build and deploy real-world CV solutions with Amazon Rekognition, Lookout for Vision, and SageMaker</t>
+  </si>
+  <si>
+    <t>Develop scalable computer vision solutions for real-world business problems and discover scaling, cost reduction, security, and bias mitigation best practices with AWS AI/ML services Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesLearn how to quickly deploy and automate end-to-end CV pipelines on AWSImplement design principles to mitigate bias and scale production of CV workloadsWork with code examples to master CV concepts using AWS AI/ML servicesBook DescriptionComputer vision (CV) is a field of artificial intelligence that helps transform visual data into actionable insights to solve a wide range of business challenges. This book provides prescriptive guidance to anyone looking to learn how to approach CV problems for quickly building and deploying production-ready models. You’ll begin by exploring the applications of CV and the features of Amazon Rekognition and Amazon Lookout for Vision. The book will then walk you through real-world use cases such as identity verification, real-time video analysis, content moderation, and detecting manufacturing defects that’ll enable you to understand how to implement AWS AI/ML services. As you make progress, you'll also use Amazon SageMaker for data annotation, training, and deploying CV models. In the concluding chapters, you'll work with practical code examples, and discover best practices and design principles for scaling, reducing cost, improving the security posture, and mitigating bias of CV workloads. By the end of this AWS book, you'll be able to accelerate your business outcomes by building and implementing CV into your production environments with the help of AWS AI/ML services.What you will learnApply CV across industries, including e-commerce, logistics, and mediaBuild custom image classifiers with Amazon Rekognition Custom LabelsCreate automated end-to-end CV workflows on AWSDetect product defects on edge devices using Amazon Lookout for VisionBuild, deploy, and monitor CV models using Amazon SageMakerDiscover best practices for designing and evaluating CV workloadsDevelop an AI governance strategy across the entire machine learning life cycleWho this book is forIf you are a machine learning engineer or data scientist looking to discover best practices and learn how to build comprehensive CV solutions on AWS, this book is for you. Knowledge of AWS basics is required to grasp the concepts covered in this book more effectively. A solid understanding of machine learning concepts and the Python programming language will also be beneficial.</t>
+  </si>
+  <si>
+    <t>9781803248202</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10163520</t>
+  </si>
+  <si>
+    <t>10769325</t>
+  </si>
+  <si>
+    <t>Dow, Colin</t>
+  </si>
+  <si>
+    <t>Internet of Things Programming Projects: Build exciting IoT projects using Raspberry Pi 5, Raspberry Pi Pico, and Python</t>
+  </si>
+  <si>
+    <t>Unleash the potential of IoT by creating weather indicators, information displays, alarm systems, and a vision recognition-enabled robot carKey FeaturesGet to grips with the Raspberry Pi ecosystem and its role in IoT developmentIntegrate cutting-edge technologies such as MQTT, LoRa, and ROS for advanced IoT applicationsAchieve superior control in your robot car with vision recognition and the power of ROSPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionRenowned for its versatility, affordability, and active community support, Raspberry Pi is at the forefront of IoT development. Unlock the vast potential of Raspberry Pi and Raspberry Pi Pico by learning how to develop practical projects with this updated edition of Internet of Things Programming Projects. Written by an expert programmer who’s worked for some of Canada’s largest companies, this book starts with foundational concepts and practical exercises such as building a basic weather indicator, and gradually progressed toward more complex projects. You’ll get to grips with coding nuances and web service integrations that will help you create a sophisticated IoT robot car equipped with motor control, wireless communication, and sensor amalgamation. The book also explores LoRa technology, a game-changer for long-range, low-power communication in your projects, and delves into robot car development by implementing the Robot Operating System (ROS) for advanced control and coordination. Through clear, step-by-step instructions and insightful explanations, you’ll gain the skills and confidence to develop innovative IoT solutions for real-world applications. By the end of the book, you’ll have mastered the intricacies of IoT programming, from harnessing Raspberry Pi's capabilities to seamlessly integrating external components.What you will learnIntegrate web services into projects for real-time data display and analysisIntegrate sensors, motors, and displays to build smart IoT devicesBuild a weather indicator using servo motors and LEDsCreate an autonomous IoT robot car capable of performing tasksDevelop a home security system with real-time alerts and SMS notificationsExplore LoRa and LoRaWAN for remote environmental monitoringWho this book is forThis book is for beginners as well as experienced programmers, IoT developers, and Raspberry Pi enthusiasts. With just basic knowledge of IoT, you can dive right in and explore the projects with ease.</t>
+  </si>
+  <si>
+    <t>9781835088685</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769325</t>
+  </si>
+  <si>
+    <t>10251263</t>
+  </si>
+  <si>
+    <t>Sayfan, Gigi and Ibryam, Bilgin</t>
+  </si>
+  <si>
+    <t>Mastering Kubernetes: Dive into Kubernetes and learn how to create and operate world-class cloud-native systems</t>
+  </si>
+  <si>
+    <t>Go beyond the basics of Kubernetes and explore more advanced concepts, including Kubernetes in production, governance, serverless computing, and service meshes. Purchase of the print or Kindle book includes a free eBook in PDF format.Key FeaturesMaster Kubernetes architecture and design to build, deploy, and secure large-scale distributed systemsLearn advanced concepts like autoscaling, multi-cluster management, serverless computing, service meshes and policy enginesExplore Kubernetes 1.25 and its rich ecosystem of tools like Kubectl, Krew, K9s, Lens, and HelmBook DescriptionThe fourth edition of the bestseller Mastering Kubernetes includes the most recent tools and code to enable you to learn the latest features of Kubernetes 1.25. This book contains a thorough exploration of complex concepts and best practices to help you master the skills of designing and deploying large-scale distributed systems on Kubernetes clusters. You’ll learn how to run complex stateless and stateful microservices on Kubernetes, including advanced features such as horizontal pod autoscaling, rolling updates, resource quotas, and persistent storage backends. In addition, you’ll understand how to utilize serverless computing and service meshes. Further, two new chapters have been added. “Governing Kubernetes” covers the problem of policy management, how admission control addresses it, and how policy engines provide a powerful governance solution. “Running Kubernetes in Production” shows you what it takes to run Kubernetes at scale across multiple cloud providers, multiple geographical regions, and multiple clusters, and it also explains how to handle topics such as upgrades, capacity planning, dealing with cloud provider limits/quotas, and cost management. By the end of this Kubernetes book, you’ll have a strong understanding of, and hands-on experience with, a wide range of Kubernetes capabilities.What you will learnLearn how to govern Kubernetes using policy enginesLearn what it takes to run Kubernetes in production and at scaleBuild and run stateful applications and complex microservicesMaster Kubernetes networking with services, Ingress objects, load balancers, and service meshesAchieve high availability for your Kubernetes clustersImprove Kubernetes observability with tools such as Prometheus, Grafana, and JaegerExtend Kubernetes with the Kubernetes API, plugins, and webhooksWho this book is forIf you're a system administrator or cloud developer who wants to become comfortable with Kubernetes and would like to master its advanced features, then this book is for you. Sofware and DevOps engineers with a working knowledge of Kubernetes, as well as technical managers of Kubernetes-based systems, will also find this book useful. Those deciding on whether to migrate to Kubernetes and are curious about its inner workings will find plenty of answers here as well. Basic familiarity with networking concepts will prove beneficial.</t>
+  </si>
+  <si>
+    <t>9781804614754</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251263</t>
+  </si>
+  <si>
+    <t>10769370</t>
+  </si>
+  <si>
+    <t>Zhu (Shudong Zhu), Andrew and Fisher, Matthew</t>
+  </si>
+  <si>
+    <t>Using Stable Diffusion with Python: Leverage Python to control and automate high-quality AI image generation using Stable Diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master AI image generation by leveraging GenAI tools and techniques such as diffusers, LoRA, textual inversion, ControlNet, and prompt design in this hands-on guide, with key images printed in colorKey FeaturesMaster the art of generating stunning AI artwork with the help of expert guidance and ready-to-run Python codeGet instant access to emerging extensions and open-source modelsLeverage the power of community-shared models and LoRA to produce high-quality images that captivate audiencesPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionStable Diffusion is a game-changing AI tool that enables you to create stunning images with code. The author, a seasoned Microsoft applied data scientist and contributor to the Hugging Face Diffusers library, leverages his 15+ years of experience to help you master Stable Diffusion by understanding the underlying concepts and techniques. You’ll be introduced to Stable Diffusion, grasp the theory behind diffusion models, set up your environment, and generate your first image using diffusers. You'll optimize performance, leverage custom models, and integrate community-shared resources like LoRAs, textual inversion, and ControlNet to enhance your creations. Covering techniques such as face restoration, image upscaling, and image restoration, you’ll focus on unlocking prompt limitations, scheduled prompt parsing, and weighted prompts to create a fully customized and industry-level Stable Diffusion app. This book also looks into real-world applications in medical imaging, remote sensing, and photo enhancement. Finally, you'll gain insights into extracting generation data, ensuring data persistence, and leveraging AI models like BLIP for image description extraction. By the end of this book, you'll be able to use Python to generate and edit images and leverage solutions to build Stable Diffusion apps for your business and users.What you will learnExplore core concepts and applications of Stable Diffusion and set up your environment for successRefine performance, manage VRAM usage, and leverage community-driven resources like LoRAs and textual inversionHarness the power of ControlNet, IP-Adapter, and other methodologies to generate images with unprecedented control and qualityExplore developments in Stable Diffusion such as video generation using AnimateDiffWrite effective prompts and leverage LLMs to automate the processDiscover how to train a Stable Diffusion LoRA from scratchWho this book is forIf you're looking to gain control over AI image generation, particularly through the diffusion model, this book is for you. Moreover, data scientists, ML engineers, researchers, and Python application developers seeking to create AI image generation applications based on the Stable Diffusion framework can benefit from the insights provided in the book. </t>
+  </si>
+  <si>
+    <t>9781835084311</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769370</t>
+  </si>
+  <si>
+    <t>10162976</t>
+  </si>
+  <si>
+    <t>Potgieter, Trenton and Dahlberg, Jonathan</t>
+  </si>
+  <si>
+    <t>Automated Machine Learning on AWS: Fast-track the development of your production-ready machine learning applications the AWS way</t>
+  </si>
+  <si>
+    <t>Automate the process of building, training, and deploying machine learning applications to production with AWS solutions such as SageMaker Autopilot, AutoGluon, Step Functions, Amazon Managed Workflows for Apache Airflow, and moreKey FeaturesExplore the various AWS services that make automated machine learning easierRecognize the role of DevOps and MLOps methodologies in pipeline automationGet acquainted with additional AWS services such as Step Functions, MWAA, and more to overcome automation challengesBook DescriptionAWS provides a wide range of solutions to help automate a machine learning workflow with just a few lines of code. With this practical book, you'll learn how to automate a machine learning pipeline using the various AWS services. Automated Machine Learning on AWS begins with a quick overview of what the machine learning pipeline/process looks like and highlights the typical challenges that you may face when building a pipeline. Throughout the book, you'll become well versed with various AWS solutions such as Amazon SageMaker Autopilot, AutoGluon, and AWS Step Functions to automate an end-to-end ML process with the help of hands-on examples. The book will show you how to build, monitor, and execute a CI/CD pipeline for the ML process and how the various CI/CD services within AWS can be applied to a use case with the Cloud Development Kit (CDK). You'll understand what a data-centric ML process is by working with the Amazon Managed Services for Apache Airflow and then build a managed Airflow environment. You'll also cover the key success criteria for an MLSDLC implementation and the process of creating a self-mutating CI/CD pipeline using AWS CDK from the perspective of the platform engineering team. By the end of this AWS book, you'll be able to effectively automate a complete machine learning pipeline and deploy it to production.What you will learnEmploy SageMaker Autopilot and Amazon SageMaker SDK to automate the machine learning processUnderstand how to use AutoGluon to automate complicated model building tasksUse the AWS CDK to codify the machine learning processCreate, deploy, and rebuild a CI/CD pipeline on AWSBuild an ML workflow using AWS Step Functions and the Data Science SDKLeverage the Amazon SageMaker Feature Store to automate the machine learning software development life cycle (MLSDLC)Discover how to use Amazon MWAA for a data-centric ML processWho this book is forThis book is for the novice as well as experienced machine learning practitioners looking to automate the process of building, training, and deploying machine learning-based solutions into production, using both purpose-built and other AWS services. A basic understanding of the end-to-end machine learning process and concepts, Python programming, and AWS is necessary to make the most out of this book.</t>
+  </si>
+  <si>
+    <t>9781801814522</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162976</t>
+  </si>
+  <si>
+    <t>10803940</t>
+  </si>
+  <si>
+    <t>Das, Subhajit</t>
+  </si>
+  <si>
+    <t>Causal Inference in R: Decipher complex relationships with advanced R techniques for data-driven decision-making</t>
+  </si>
+  <si>
+    <t>Master the fundamentals to advanced techniques of causal inference through a practical, hands-on approach with extensive R code examples and real-world applicationsKey FeaturesExplore causal analysis with hands-on R tutorials and real-world examplesGrasp complex statistical methods by taking a detailed, easy-to-follow approachEquip yourself with actionable insights and strategies for making data-driven decisionsPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionDetermining causality in data is difficult due to confounding factors. Written by an applied scientist specializing in causal inference with over a decade of experience, Causal Inference in R provides the tools and methods you need to accurately establish causal relationships, improving data-driven decision-making. This book helps you get to grips with foundational concepts, offering a clear understanding of causal models and their relevance in data analysis. You’ll progress through chapters that blend theory with hands-on examples, illustrating how to apply advanced statistical methods to real-world scenarios. You’ll discover techniques for establishing causality, from classic approaches to contemporary methods, such as propensity score matching and instrumental variables. Each chapter is enriched with detailed case studies and R code snippets, enabling you to implement concepts immediately. Beyond technical skills, this book also emphasizes critical thinking in data analysis to empower you to make informed, data-driven decisions. The chapters enable you to harness the power of causal inference in R to uncover deeper insights from data. By the end of this book, you’ll be able to confidently establish causal relationships and make data-driven decisions with precision.What you will learnGet a solid understanding of the fundamental concepts and applications of causal inferenceUtilize R to construct and interpret causal modelsApply techniques for robust causal analysis in real-world dataImplement advanced causal inference methods, such as instrumental variables and propensity score matchingDevelop the ability to apply graphical models for causal analysisIdentify and address common challenges and pitfalls in controlled experiments for effective causal analysisBecome proficient in the practical application of doubly robust estimation using RWho this book is forThis book is for data practitioners, statisticians, and researchers keen on enhancing their skills in causal inference using R, as well as individuals who aspire to make data-driven decisions in complex scenarios. It serves as a valuable resource for both beginners and experienced professionals in data analysis, public policy, economics, and social sciences. Academics and students looking to deepen their understanding of causal models and their practical implementation will also find it highly beneficial.</t>
+  </si>
+  <si>
+    <t>9781803238166</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10803940</t>
+  </si>
+  <si>
+    <t>10162587</t>
+  </si>
+  <si>
+    <t>M, Mona and Rangarajan, Premkumar and Simon, Julien</t>
+  </si>
+  <si>
+    <t>Natural Language Processing with AWS AI Services: Derive strategic insights from unstructured data with Amazon Textract and Amazon Comprehend</t>
+  </si>
+  <si>
+    <t>Work through interesting real-life business use cases to uncover valuable insights from unstructured text using AWS AI servicesKey FeaturesGet to grips with AWS AI services for NLP and find out how to use them to gain strategic insightsRun Python code to use Amazon Textract and Amazon Comprehend to accelerate business outcomesUnderstand how you can integrate human-in-the-loop for custom NLP use cases with Amazon A2IBook DescriptionNatural language processing (NLP) uses machine learning to extract information from unstructured data. This book will help you to move quickly from business questions to high-performance models in production. To start with, you'll understand the importance of NLP in today’s business applications and learn the features of Amazon Comprehend and Amazon Textract to build NLP models using Python and Jupyter Notebooks. The book then shows you how to integrate AI in applications for accelerating business outcomes with just a few lines of code. Throughout the book, you'll cover use cases such as smart text search, setting up compliance and controls when processing confidential documents, real-time text analytics, and much more to understand various NLP scenarios. You'll deploy and monitor scalable NLP models in production for real-time and batch requirements. As you advance, you'll explore strategies for including humans in the loop for different purposes in a document processing workflow. Moreover, you'll learn best practices for auto-scaling your NLP inference for enterprise traffic. Whether you're new to ML or an experienced practitioner, by the end of this NLP book, you'll have the confidence to use AWS AI services to build powerful NLP applications.What you will learnAutomate various NLP workflows on AWS to accelerate business outcomesUse Amazon Textract for text, tables, and handwriting recognition from images and PDF filesGain insights from unstructured text in the form of sentiment analysis, topic modeling, and more using Amazon ComprehendSet up end-to-end document processing pipelines to understand the role of humans in the loopDevelop NLP-based intelligent search solutions with just a few lines of codeCreate both real-time and batch document processing pipelines using PythonWho this book is forIf you're an NLP developer or data scientist looking to get started with AWS AI services to implement various NLP scenarios quickly, this book is for you. It will show you how easy it is to integrate AI in applications with just a few lines of code. A basic understanding of machine learning (ML) concepts is necessary to understand the concepts covered. Experience with Jupyter notebooks and Python will be helpful.</t>
+  </si>
+  <si>
+    <t>9781801815482</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162587</t>
+  </si>
+  <si>
+    <t>10162340</t>
+  </si>
+  <si>
+    <t>Rothman, Denis and Gulli, Antonio</t>
+  </si>
+  <si>
+    <t>Transformers for Natural Language Processing: Build, train, and fine-tune deep neural network architectures for NLP with Python, Hugging Face, and OpenAI's GPT-3, ChatGPT, and GPT-4</t>
+  </si>
+  <si>
+    <t>OpenAI’s GPT-3, ChatGPT, GPT-4 and Hugging Face transformers for language tasks in one book. Get a taste of the future of transformers, including computer vision tasks and code writing and assistance. Purchase of the print or Kindle book includes a free eBook in PDF formatKey FeaturesImprove your productivity with OpenAI’s ChatGPT and GPT-4 from prompt engineering to creating and analyzing machine learning modelsPretrain a BERT-based model from scratch using Hugging FaceFine-tune powerful transformer models, including OpenAI's GPT-3, to learn the logic of your dataBook DescriptionTransformers are...well...transforming the world of AI. There are many platforms and models out there, but which ones best suit your needs? Transformers for Natural Language Processing, 2nd Edition, guides you through the world of transformers, highlighting the strengths of different models and platforms, while teaching you the problem-solving skills you need to tackle model weaknesses. You'll use Hugging Face to pretrain a RoBERTa model from scratch, from building the dataset to defining the data collator to training the model. If you're looking to fine-tune a pretrained model, including GPT-3, then Transformers for Natural Language Processing, 2nd Edition, shows you how with step-by-step guides. The book investigates machine translations, speech-to-text, text-to-speech, question-answering, and many more NLP tasks. It provides techniques to solve hard language problems and may even help with fake news anxiety (read chapter 13 for more details). You'll see how cutting-edge platforms, such as OpenAI, have taken transformers beyond language into computer vision tasks and code creation using DALL-E 2, ChatGPT, and GPT-4. By the end of this book, you'll know how transformers work and how to implement them and resolve issues like an AI detective.What you will learnDiscover new techniques to investigate complex language problemsCompare and contrast the results of GPT-3 against T5, GPT-2, and BERT-based transformersCarry out sentiment analysis, text summarization, casual speech analysis, machine translations, and more using TensorFlow, PyTorch, and GPT-3Find out how ViT and CLIP label images (including blurry ones!) and create images from a sentence using DALL-ELearn the mechanics of advanced prompt engineering for ChatGPT and GPT-4Who this book is forIf you want to learn about and apply transformers to your natural language (and image) data, this book is for you. You'll need a good understanding of Python and deep learning and a basic understanding of NLP to benefit most from this book. Many platforms covered in this book provide interactive user interfaces, which allow readers with a general interest in NLP and AI to follow several chapters. And don't worry if you get stuck or have questions; this book gives you direct access to our AI/ML community to help guide you on your transformers journey!</t>
+  </si>
+  <si>
+    <t>9781803243481</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162340</t>
+  </si>
+  <si>
+    <t>10162804</t>
+  </si>
+  <si>
+    <t>Simon, Julien</t>
+  </si>
+  <si>
+    <t>Learn Amazon SageMaker: A guide to building, training, and deploying machine learning models for developers and data scientists</t>
+  </si>
+  <si>
+    <t>Swiftly build and deploy machine learning models without managing infrastructure and boost productivity using the latest Amazon SageMaker capabilities such as Studio, Autopilot, Data Wrangler, Pipelines, and Feature StoreKey FeaturesBuild, train, and deploy machine learning models quickly using Amazon SageMakerOptimize the accuracy, cost, and fairness of your modelsCreate and automate end-to-end machine learning workflows on Amazon Web Services (AWS)Book DescriptionAmazon SageMaker enables you to quickly build, train, and deploy machine learning models at scale without managing any infrastructure. It helps you focus on the machine learning problem at hand and deploy high-quality models by eliminating the heavy lifting typically involved in each step of the ML process. This second edition will help data scientists and ML developers to explore new features such as SageMaker Data Wrangler, Pipelines, Clarify, Feature Store, and much more. You'll start by learning how to use various capabilities of SageMaker as a single toolset to solve ML challenges and progress to cover features such as AutoML, built-in algorithms and frameworks, and writing your own code and algorithms to build ML models. The book will then show you how to integrate Amazon SageMaker with popular deep learning libraries, such as TensorFlow and PyTorch, to extend the capabilities of existing models. You'll also see how automating your workflows can help you get to production faster with minimum effort and at a lower cost. Finally, you'll explore SageMaker Debugger and SageMaker Model Monitor to detect quality issues in training and production. By the end of this Amazon book, you'll be able to use Amazon SageMaker on the full spectrum of ML workflows, from experimentation, training, and monitoring to scaling, deployment, and automation.What you will learnBecome well-versed with data annotation and preparation techniquesUse AutoML features to build and train machine learning models with AutoPilotCreate models using built-in algorithms and frameworks and your own codeTrain computer vision and natural language processing (NLP) models using real-world examplesCover training techniques for scaling, model optimization, model debugging, and cost optimizationAutomate deployment tasks in a variety of configurations using SDK and several automation toolsWho this book is forThis book is for software engineers, machine learning developers, data scientists, and AWS users who are new to using Amazon SageMaker and want to build high-quality machine learning models without worrying about infrastructure. Knowledge of AWS basics is required to grasp the concepts covered in this book more effectively. A solid understanding of machine learning concepts and the Python programming language will also be beneficial.</t>
+  </si>
+  <si>
+    <t>9781801814157</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162804</t>
+  </si>
+  <si>
+    <t>10818433</t>
+  </si>
+  <si>
+    <t>Phạm, Trâm Ngọc and González, Gonzalo Herreros and Khan, Viquar and Nofal, Huda</t>
+  </si>
+  <si>
+    <t>Data Engineering with AWS Cookbook: A recipe-based approach to help you tackle data engineering problems with AWS services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master AWS data engineering services and techniques for orchestrating pipelines, building layers, and managing migrationsKey FeaturesGet up to speed with the different AWS technologies for data engineeringLearn the different aspects and considerations of building data lakes, such as security, storage, and operationsGet hands on with key AWS services such as Glue, EMR, Redshift, QuickSight, and Athena for practical learningPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionPerforming data engineering with Amazon Web Services (AWS) combines AWS's scalable infrastructure with robust data processing tools, enabling efficient data pipelines and analytics workflows. This comprehensive guide to AWS data engineering will teach you all you need to know about data lake management, pipeline orchestration, and serving layer construction. Through clear explanations and hands-on exercises, you’ll master essential AWS services such as Glue, EMR, Redshift, QuickSight, and Athena. Additionally, you’ll explore various data platform topics such as data governance, data quality, DevOps, CI/CD, planning and performing data migration, and creating Infrastructure as Code. As you progress, you will gain insights into how to enrich your platform and use various AWS cloud services such as AWS EventBridge, AWS DataZone, and AWS SCT and DMS to solve data platform challenges. Each recipe in this book is tailored to a daily challenge that a data engineer team faces while building a cloud platform. By the end of this book, you will be well-versed in AWS data engineering and have gained proficiency in key AWS services and data processing techniques. You will develop the necessary skills to tackle large-scale data challenges with confidence.What you will learnDefine your centralized data lake solution, and secure and operate it at scaleIdentify the most suitable AWS solution for your specific needsBuild data pipelines using multiple ETL technologiesDiscover how to handle data orchestration and governanceExplore how to build a high-performing data serving layerDelve into DevOps and data quality best practicesMigrate your data from on-premises to AWSWho this book is forIf you're involved in designing, building, or overseeing data solutions on AWS, this book provides proven strategies for addressing challenges in large-scale data environments. Data engineers as well as big data professionals looking to enhance their understanding of AWS features for optimizing their workflow, even if they're new to the platform, will find value. Basic familiarity with AWS security (users and roles) and command shell is recommended. </t>
+  </si>
+  <si>
+    <t>9781805126850</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10818433</t>
+  </si>
+  <si>
+    <t>10769380</t>
+  </si>
+  <si>
+    <t>Jr., Dr. Edward Lavieri</t>
+  </si>
+  <si>
+    <t>High Performance with Java: Discover strategies and best practices to develop high performance Java applications</t>
+  </si>
+  <si>
+    <t>Take your Java programming skills to the next level and learn to overcome real-world challenges to optimize application performanceKey FeaturesLeverage key features of the Java Virtual Machine to maximize runtime performanceUnlock optimization strategies to effectively manage objects and memory useApply your knowledge to utilize frameworks and libraries ripe for increasing program performancePurchase of the print or Kindle book includes a free PDF eBookBook DescriptionBuilding high performance into your applications is key to creating an optimal user experience, although it is not the only consideration for the performant nature of your apps. High performance applications can lead to cost-effective resource utilization, especially when scalability and cloud computing are involved. They can also provide highly reliable systems that are easier to maintain. High Performance with Java begins by helping you explore the Java Virtual Machine (JVM) and understand how to push it to its limits to further optimize your programs. You’ll take a hands-on approach to go through memory optimization strategies, input/output operations, concurrency, networking, as well as frameworks and libraries focused on performance. You’ll also learn key strategies and best practices by using industry-relevant examples to architect scalable and resource-efficient applications. The concluding chapters provide valuable insights on optimizing your Java code when interacting with databases and show you how to leverage artificial intelligence (AI) for high performance Java applications. By the end of this book, you’ll grasp the importance of developing high performance Java applications and gain practical experience in implementing key strategies to help ensure your Java applications perform optimally.What you will learnExplore optimization strategies for garbage collection and the JIT compilerDiscover best practices when using data structures for high performanceTest and compare various approaches to using loopsUnderstand how and when to use object poolingDiscern the difference between low-performance and high-performance algorithmsUncover strategies for object creation and immutability to improve performanceGain hands-on experience in avoiding memory leaksWho this book is forThis book is for developers, software engineers, and software architects looking to take their Java skills to the next level. Aimed at individuals with a string grasp of Java fundamentals, this book is a practical guide to helping you write high-performing applications.</t>
+  </si>
+  <si>
+    <t>9781835462553</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769380</t>
+  </si>
+  <si>
+    <t>10251169</t>
+  </si>
+  <si>
+    <t>Acampora, Paolo</t>
+  </si>
+  <si>
+    <t>Python Scripting in Blender: Extend the power of Blender using Python to create objects, animations, and effective add-ons</t>
+  </si>
+  <si>
+    <t>Learn how to use Python scripts in Blender 3.3 to automate tasks, optimize your workflow, think like a 3D programmer, and start creating your tools quickly Purchase of the print or Kindle book includes a free PDF eBookKey FeaturesDiscover ready-to-go scripts that provide a clear solution to your problemsFind out how to automate repetitive tasks in an efficient wayExtend Blender’s actions and user interface with your codeBook DescriptionBlender, a powerful open source 3D software, can be extended and powered up using the Python programming language. This book teaches you how to automate laborious operations using scripts, and expand the set of available commands, graphic interfaces, tools, and event responses, which will enable you to add custom features to meet your needs and bring your creative ideas to life. The book begins by covering essential Python concepts and showing you how to create a basic add-on. You’ll then gain a solid understanding of the entities that affect the look of Blender’s objects such as modifiers, constraints, and materials. As you advance, you’ll get to grips with the animation system in Blender and learn how to set up its behavior using Python. The examples, tools, patterns, and best practices present throughout the book will familiarize you with the Python API and build your knowledge base, along with enabling you to produce valuable code that empowers the users and is ready for publishing or production. By the end of this book, you’ll be able to successfully design add-ons that integrate seamlessly with the software and its ecosystem.What you will learnUnderstand the principles of 3D and programming, and learn how they operate in BlenderBuild engaging and navigation-friendly user interfaces that integrate with the native look and feelRespect coding guidelines and deliver readable and compliant code without the loss of originalityPackage your extensions into a complete add-on, ready for installation and distributionCreate interactive tools with a direct response to the user’s actionCode comfortably and safely using version controlWho this book is forThis book is for Blender users who want to expand their skills and learn scripting, technical directors looking to automate laborious tasks, and professionals and hobbyists who want to learn more about the Python architecture underlying the Blender interface. Prior experience with Blender is a prerequisite, along with a basic understanding of the Python syntax—however, the book does provide quick explanations to bridge potential gaps in your background knowledge.</t>
+  </si>
+  <si>
+    <t>9781803243276</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251169</t>
+  </si>
+  <si>
+    <t>10681490</t>
+  </si>
+  <si>
+    <t>Cai, Honghua and Pan, Jiahui and Xiao, Qiuyi and Jin, Jiarui and Li, Yuanqing and Xie, Qiuyou</t>
+  </si>
+  <si>
+    <t>Decoding Musical Neural Activity in Patients With Disorders of Consciousness Through Self-Supervised Contrastive Domain Generalization</t>
+  </si>
+  <si>
+    <t>1-18</t>
+  </si>
+  <si>
+    <t>Identifying the brain responses of patients with disorders of consciousness (DOCs), which include comas, vegetative states (VSs, also called unresponsive wakefulness syndrome (UWS)) and minimally conscious states (MCSs), based on electroencephalography (EEG) has important clinical diagnosis implications. However, due to impaired motor and cognitive abilities, patients with DOCs may not be able to express their feelings and their brain responses to different stimuli, making it difficult to correctly label data. EEG classification algorithms trained with these data cannot make reliable classifications and predictions for clinical diagnosis purposes. To identify the brain responses produced for different types of stimuli in patients with DOCs, we proposed a self-supervised contrastive domain generalization framework (SSCDG) for cross-subject EEG classification. The model was first trained with healthy-subject EEG data induced by different stimuli to learn their corresponding unsupervised representations. Then, we used these representations to train a classifier to predict the emotional states of patients with DOCs under the corresponding stimuli. SSCDG was first evaluated on the SEED dataset, and it achieved an accuracy of 87.6%, which was 1.1% higher than that of the state-of-the-art (SOTA) approaches. Moreover, the SSCDG method was utilized to categorize EEG data acquired from seventeen DOC patients, including eleven in a UWS state and six in an MCS state, with seven patients demonstrating notable accuracy in three-class EEG classification tasks. The SSCDG results indicated that the seven patients with DOCs may have shown classifiable EEG responses to the presented stimuli.</t>
+  </si>
+  <si>
+    <t>Electroencephalography;Brain modeling;Data models;Motors;Transfer learning;Training;Music;Cross-subject EEG classification;disorder of consciousness;domain generalization;self-supervised contrastive learning</t>
+  </si>
+  <si>
+    <t>10.1109/TAFFC.2024.3462603</t>
+  </si>
+  <si>
+    <t>1949-3045</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Affective Computing</t>
+  </si>
+  <si>
+    <t>10888461</t>
+  </si>
+  <si>
+    <t>Evans, Zach and Parker, Julian D. and Carr, CJ and Zukowski, Zack and Taylor, Josiah and Pons, Jordi</t>
+  </si>
+  <si>
+    <t>Stable Audio Open</t>
+  </si>
+  <si>
+    <t>Open generative models are vitally important for the community, allowing for fine-tunes and serving as baselines when presenting new models. However, most current text-to-audio models are private and not accessible for artists and researchers to build upon. Here we describe the architecture and training process of a new open-weights text-to-audio model trained with Creative Commons data. Our evaluation shows that the model’s performance is competitive with the state-of-the-art across various metrics. Notably, the reported FDopenl3 results (measuring the realism of the generations) showcase its potential for high-quality stereo sound synthesis at 44.1kHz.</t>
+  </si>
+  <si>
+    <t>Training;Measurement;Autoencoders;Data transparency;Signal processing;Data models;Acoustics;Speech processing;Stable Audio Open;Latent Diffusion;Audio</t>
+  </si>
+  <si>
+    <t>10.1109/ICASSP49660.2025.10888461</t>
+  </si>
+  <si>
+    <t>10489870</t>
+  </si>
+  <si>
+    <t>Cousins, Stephen</t>
+  </si>
+  <si>
+    <t>The rapid rise of AI art: Has humanity unwittingly entered a radical new era of art and artistic expression? That's the suggestion being circulated in creative communities and online forums as a new breed of powerful artificial intelligence emerges from the shadows</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>GENERATIVE AI art has exploded onto the scene over the past few months through advanced online platforms like DALL-E2, Midjourney and Stable Diffusion, which enable anyone with access to a smartphone or PC to create highly polished art by typing in simple text instructions.</t>
+  </si>
+  <si>
+    <t>10.1049/et.2023.0208</t>
+  </si>
+  <si>
+    <t>1750-9637</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Technology</t>
+  </si>
+  <si>
+    <t>10540581</t>
+  </si>
+  <si>
+    <t>Shah, Siddhant Bikram and Thapa, Surendrabikram and Acharya, Ashish and Rauniyar, Kritesh and Poudel, Sweta and Jain, Sandesh and Masood, Anum and Naseem, Usman</t>
+  </si>
+  <si>
+    <t>Navigating the Web of Disinformation and Misinformation: Large Language Models as Double-Edged Swords</t>
+  </si>
+  <si>
+    <t>This paper explores the dual role of Large Language Models (LLMs) in the context of online misinformation and disinformation. In today’s digital landscape, where the internet and social media facilitate the rapid dissemination of information, discerning between accurate content and falsified information presents a formidable challenge. Misinformation, often arising unintentionally, and disinformation, crafted deliberately, are at the forefront of this challenge. LLMs such as OpenAI’s GPT-4, equipped with advanced language generation abilities, present a double-edged sword in this scenario. While they hold promise in combating misinformation by fact-checking and detecting LLM-generated text, their ability to generate realistic, contextually relevant text also poses risks for creating and propagating misinformation. Further, LLMs are plagued with many problems such as biases, knowledge cutoffs, and hallucinations, which may further perpetuate misinformation and disinformation. The paper outlines historical developments in misinformation detection and how it affects social media consumption, especially among youth, and introduces LLMs and their applications in various domains. It then critically analyzes the potential of LLMs to generate and counter misinformation and disinformation in sensitive topics such as healthcare, COVID-19, and political agendas. Further, it discusses mitigation strategies, ethical considerations, and regulatory measures, summarizing previous methods and proposing future research direction toward leveraging the benefits of LLMs while minimizing misuse risks. The paper concludes by acknowledging LLMs as powerful tools with significant implications in both spreading and combating misinformation in the digital age.</t>
+  </si>
+  <si>
+    <t>Fake news;Information integrity;Social networking (online);Navigation;Market research;Feature extraction;Neural networks;Large language models;Social sciences;Large Language Models;Disinformation;Computational Social Sciences;ChatGPT;Hallucinations in LLMs</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2024.3406644</t>
+  </si>
+  <si>
+    <t>10304299</t>
+  </si>
+  <si>
+    <t>Cabric, Florent and Bjarnadóttir, Margrét Vilborg and Ling, Meng and Rafnsdóttir, Guðbjörg Linda and Isenberg, Petra</t>
+  </si>
+  <si>
+    <t>Eleven Years of Gender Data Visualization: A Step Towards More Inclusive Gender Representation</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>316-326</t>
+  </si>
+  <si>
+    <t>We present an analysis of the representation of gender as a data dimension in data visualizations and propose a set of considerations around visual variables and annotations for gender-related data. Gender is a common demographic dimension of data collected from study or survey participants, passengers, or customers, as well as across academic studies, especially in certain disciplines like sociology. Our work contributes to multiple ongoing discussions on the ethical implications of data visualizations. By choosing specific data, visual variables, and text labels, visualization designers may, inadvertently or not, perpetuate stereotypes and biases. Here, our goal is to start an evolving discussion on how to represent data on gender in data visualizations and raise awareness of the subtleties of choosing visual variables and words in gender visualizations. In order to ground this discussion, we collected and coded gender visualizations and their captions from five different scientific communities (Biology, Politics, Social Studies, Visualisation, and Human-Computer Interaction), in addition to images from Tableau Public and the Information Is Beautiful awards showcase. Overall we found that representation types are community-specific, color hue is the dominant visual channel for gender data, and nonconforming gender is under-represented. We end our paper with a discussion of considerations for gender visualization derived from our coding and the literature and recommendations for large data collection bodies. A free copy of this paper and all supplemental materials are available at https://osf.io/v9ams/.</t>
+  </si>
+  <si>
+    <t>Data visualization;Visualization;Surveys;Image color analysis;Behavioral sciences;Ethics;Biology;Visualization;gender;visual gender representation;ethics</t>
+  </si>
+  <si>
+    <t>10.1109/TVCG.2023.3327369</t>
+  </si>
+  <si>
+    <t>1941-0506</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Visualization and Computer Graphics</t>
+  </si>
+  <si>
+    <t>9444794</t>
+  </si>
+  <si>
+    <t>Fan, Deng-Ping and Ji, Ge-Peng and Cheng, Ming-Ming and Shao, Ling</t>
+  </si>
+  <si>
+    <t>Concealed Object Detection</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>6024-6042</t>
+  </si>
+  <si>
+    <t>We present the first systematic study on concealed object detection (COD), which aims to identify objects that are visually embedded in their background. The high intrinsic similarities between the concealed objects and their background make COD far more challenging than traditional object detection/segmentation. To better understand this task, we collect a large-scale dataset, called COD10K, which consists of 10,000 images covering concealed objects in diverse real-world scenarios from 78 object categories. Further, we provide rich annotations including object categories, object boundaries, challenging attributes, object-level labels, and instance-level annotations. Our COD10K is the largest COD dataset to date, with the richest annotations, which enables comprehensive concealed object understanding and can even be used to help progress several other vision tasks, such as detection, segmentation, classification etc. Motivated by how animals hunt in the wild, we also design a simple but strong baseline for COD, termed the Search Identification Network (SINet). Without any bells and whistles, SINet outperforms twelve cutting-edge baselines on all datasets tested, making them robust, general architectures that could serve as catalysts for future research in COD. Finally, we provide some interesting findings, and highlight several potential applications and future directions. To spark research in this new field, our code, dataset, and online demo are available at our project page: http://mmcheng.net/cod.</t>
+  </si>
+  <si>
+    <t>Object detection;Annotations;Task analysis;Image segmentation;Benchmark testing;Animals;Art;Concealed object detection;camouflaged object detection;COD;dataset;benchmark</t>
+  </si>
+  <si>
+    <t>10.1109/TPAMI.2021.3085766</t>
+  </si>
+  <si>
+    <t>1939-3539</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Pattern Analysis and Machine Intelligence</t>
+  </si>
+  <si>
+    <t>10130818</t>
+  </si>
+  <si>
+    <t>Cortiñas-Lorenzo, Karina and Lacey, Gerard</t>
+  </si>
+  <si>
+    <t>Toward Explainable Affective Computing: A Review</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>13101-13121</t>
+  </si>
+  <si>
+    <t>Affective computing has an unprecedented potential to change the way humans interact with technology. While the last decades have witnessed vast progress in the field, multimodal affective computing systems are generally black box by design. As affective systems start to be deployed in real-world scenarios, such as education or healthcare, a shift of focus toward improved transparency and interpretability is needed. In this context, how do we explain the output of affective computing models? and how to do so without limiting predictive performance? In this article, we review affective computing work from an explainable AI (XAI) perspective, collecting and synthesizing relevant papers into three major XAI approaches: premodel (applied before training), in-model (applied during training), and postmodel (applied after training). We present and discuss the most fundamental challenges in the field, namely, how to relate explanations back to multimodal and time-dependent data, how to integrate context and inductive biases into explanations using mechanisms such as attention, generative modeling, or graph-based methods, and how to capture intramodal and cross-modal interactions in post hoc explanations. While explainable affective computing is still nascent, existing methods are promising, contributing not only toward improved transparency but, in many cases, surpassing state-of-the-art results. Based on these findings, we explore directions for future research and discuss the importance of data-driven XAI and explanation goals, and explainee needs definition, as well as causability or the extent to which a given method leads to human understanding.</t>
+  </si>
+  <si>
+    <t>Affective computing;Training;Data models;Computational modeling;Task analysis;Terminology;Predictive models;Affective computing;explainable AI (XAI);multimodal machine learning;review</t>
+  </si>
+  <si>
+    <t>10.1109/TNNLS.2023.3270027</t>
+  </si>
+  <si>
+    <t>2162-2388</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Neural Networks and Learning Systems</t>
   </si>
 </sst>
 </file>
@@ -448,7 +2614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +2628,3266 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>129</v>
+      </c>
+      <c r="R14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>137</v>
+      </c>
+      <c r="R15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="P18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>158</v>
+      </c>
+      <c r="R18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="P19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>164</v>
+      </c>
+      <c r="R19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>170</v>
+      </c>
+      <c r="R20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="P21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>176</v>
+      </c>
+      <c r="R21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>182</v>
+      </c>
+      <c r="R22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="s">
+        <v>192</v>
+      </c>
+      <c r="N23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="s">
+        <v>202</v>
+      </c>
+      <c r="N24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="s">
+        <v>146</v>
+      </c>
+      <c r="O25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="s">
+        <v>146</v>
+      </c>
+      <c r="O26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="P27" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>220</v>
+      </c>
+      <c r="R27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" t="s">
+        <v>224</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+      <c r="P28" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>226</v>
+      </c>
+      <c r="R28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="P29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>232</v>
+      </c>
+      <c r="R29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>237</v>
+      </c>
+      <c r="P30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>238</v>
+      </c>
+      <c r="R30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" t="s">
+        <v>244</v>
+      </c>
+      <c r="J31" t="s">
+        <v>245</v>
+      </c>
+      <c r="K31" t="s">
+        <v>246</v>
+      </c>
+      <c r="L31" t="s">
+        <v>247</v>
+      </c>
+      <c r="M31" t="s">
+        <v>248</v>
+      </c>
+      <c r="O31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" t="s">
+        <v>253</v>
+      </c>
+      <c r="P32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>254</v>
+      </c>
+      <c r="R32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+      <c r="P33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>260</v>
+      </c>
+      <c r="R33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" t="s">
+        <v>265</v>
+      </c>
+      <c r="P34" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>266</v>
+      </c>
+      <c r="R34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="P35" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>272</v>
+      </c>
+      <c r="R35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" t="s">
+        <v>134</v>
+      </c>
+      <c r="J36" t="s">
+        <v>277</v>
+      </c>
+      <c r="P36" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>278</v>
+      </c>
+      <c r="R36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="P37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>284</v>
+      </c>
+      <c r="R37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" t="s">
+        <v>288</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>289</v>
+      </c>
+      <c r="P38" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>290</v>
+      </c>
+      <c r="R38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>293</v>
+      </c>
+      <c r="D39" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>295</v>
+      </c>
+      <c r="P39" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>296</v>
+      </c>
+      <c r="R39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D40" t="s">
+        <v>300</v>
+      </c>
+      <c r="F40" t="s">
+        <v>301</v>
+      </c>
+      <c r="J40" t="s">
+        <v>302</v>
+      </c>
+      <c r="P40" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>303</v>
+      </c>
+      <c r="R40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>305</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" t="s">
+        <v>307</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="P41" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>309</v>
+      </c>
+      <c r="R41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" t="s">
+        <v>314</v>
+      </c>
+      <c r="P42" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>315</v>
+      </c>
+      <c r="R42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>317</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" t="s">
+        <v>319</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="P43" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>321</v>
+      </c>
+      <c r="R43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" t="s">
+        <v>325</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" t="s">
+        <v>326</v>
+      </c>
+      <c r="P44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>327</v>
+      </c>
+      <c r="R44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>330</v>
+      </c>
+      <c r="D45" t="s">
+        <v>331</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="J45" t="s">
+        <v>333</v>
+      </c>
+      <c r="P45" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>334</v>
+      </c>
+      <c r="R45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>336</v>
+      </c>
+      <c r="B46" t="s">
+        <v>337</v>
+      </c>
+      <c r="C46" t="s">
+        <v>338</v>
+      </c>
+      <c r="D46" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" t="s">
+        <v>340</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" t="s">
+        <v>342</v>
+      </c>
+      <c r="L46" t="s">
+        <v>343</v>
+      </c>
+      <c r="P46" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>345</v>
+      </c>
+      <c r="R46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>347</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>348</v>
+      </c>
+      <c r="E47" t="s">
+        <v>349</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>350</v>
+      </c>
+      <c r="I47" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s">
+        <v>353</v>
+      </c>
+      <c r="L47" t="s">
+        <v>354</v>
+      </c>
+      <c r="M47" t="s">
+        <v>89</v>
+      </c>
+      <c r="O47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>355</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>356</v>
+      </c>
+      <c r="E48" t="s">
+        <v>357</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>350</v>
+      </c>
+      <c r="H48" t="s">
+        <v>358</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" t="s">
+        <v>360</v>
+      </c>
+      <c r="K48" t="s">
+        <v>361</v>
+      </c>
+      <c r="L48" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" t="s">
+        <v>363</v>
+      </c>
+      <c r="N48" t="s">
+        <v>364</v>
+      </c>
+      <c r="O48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" t="s">
+        <v>337</v>
+      </c>
+      <c r="C49" t="s">
+        <v>367</v>
+      </c>
+      <c r="D49" t="s">
+        <v>368</v>
+      </c>
+      <c r="E49" t="s">
+        <v>369</v>
+      </c>
+      <c r="F49" t="s">
+        <v>197</v>
+      </c>
+      <c r="I49" t="s">
+        <v>370</v>
+      </c>
+      <c r="J49" t="s">
+        <v>371</v>
+      </c>
+      <c r="K49" t="s">
+        <v>372</v>
+      </c>
+      <c r="P49" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>374</v>
+      </c>
+      <c r="R49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>376</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>377</v>
+      </c>
+      <c r="E50" t="s">
+        <v>378</v>
+      </c>
+      <c r="F50" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" t="s">
+        <v>379</v>
+      </c>
+      <c r="J50" t="s">
+        <v>380</v>
+      </c>
+      <c r="K50" t="s">
+        <v>381</v>
+      </c>
+      <c r="L50" t="s">
+        <v>382</v>
+      </c>
+      <c r="M50" t="s">
+        <v>89</v>
+      </c>
+      <c r="O50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>383</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" t="s">
+        <v>385</v>
+      </c>
+      <c r="F51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s">
+        <v>386</v>
+      </c>
+      <c r="J51" t="s">
+        <v>387</v>
+      </c>
+      <c r="K51" t="s">
+        <v>388</v>
+      </c>
+      <c r="L51" t="s">
+        <v>389</v>
+      </c>
+      <c r="M51" t="s">
+        <v>89</v>
+      </c>
+      <c r="O51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E52" t="s">
+        <v>392</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>393</v>
+      </c>
+      <c r="I52" t="s">
+        <v>394</v>
+      </c>
+      <c r="J52" t="s">
+        <v>395</v>
+      </c>
+      <c r="K52" t="s">
+        <v>396</v>
+      </c>
+      <c r="L52" t="s">
+        <v>397</v>
+      </c>
+      <c r="M52" t="s">
+        <v>398</v>
+      </c>
+      <c r="O52" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>400</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E53" t="s">
+        <v>402</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>403</v>
+      </c>
+      <c r="H53" t="s">
+        <v>404</v>
+      </c>
+      <c r="I53" t="s">
+        <v>405</v>
+      </c>
+      <c r="J53" t="s">
+        <v>406</v>
+      </c>
+      <c r="K53" t="s">
+        <v>407</v>
+      </c>
+      <c r="L53" t="s">
+        <v>408</v>
+      </c>
+      <c r="M53" t="s">
+        <v>409</v>
+      </c>
+      <c r="N53" t="s">
+        <v>410</v>
+      </c>
+      <c r="O53" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>412</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>413</v>
+      </c>
+      <c r="E54" t="s">
+        <v>414</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>243</v>
+      </c>
+      <c r="I54" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" t="s">
+        <v>416</v>
+      </c>
+      <c r="K54" t="s">
+        <v>417</v>
+      </c>
+      <c r="L54" t="s">
+        <v>418</v>
+      </c>
+      <c r="M54" t="s">
+        <v>248</v>
+      </c>
+      <c r="O54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>419</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>420</v>
+      </c>
+      <c r="D55" t="s">
+        <v>421</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" t="s">
+        <v>422</v>
+      </c>
+      <c r="P55" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>423</v>
+      </c>
+      <c r="R55" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>425</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>426</v>
+      </c>
+      <c r="D56" t="s">
+        <v>427</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" t="s">
+        <v>428</v>
+      </c>
+      <c r="P56" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>429</v>
+      </c>
+      <c r="R56" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>431</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>432</v>
+      </c>
+      <c r="E57" t="s">
+        <v>433</v>
+      </c>
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>108</v>
+      </c>
+      <c r="I57" t="s">
+        <v>434</v>
+      </c>
+      <c r="J57" t="s">
+        <v>435</v>
+      </c>
+      <c r="K57" t="s">
+        <v>436</v>
+      </c>
+      <c r="L57" t="s">
+        <v>437</v>
+      </c>
+      <c r="M57" t="s">
+        <v>89</v>
+      </c>
+      <c r="O57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>438</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>439</v>
+      </c>
+      <c r="E58" t="s">
+        <v>440</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" t="s">
+        <v>441</v>
+      </c>
+      <c r="J58" t="s">
+        <v>442</v>
+      </c>
+      <c r="K58" t="s">
+        <v>443</v>
+      </c>
+      <c r="L58" t="s">
+        <v>444</v>
+      </c>
+      <c r="M58" t="s">
+        <v>89</v>
+      </c>
+      <c r="O58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>445</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>446</v>
+      </c>
+      <c r="D59" t="s">
+        <v>447</v>
+      </c>
+      <c r="F59" t="s">
+        <v>134</v>
+      </c>
+      <c r="J59" t="s">
+        <v>448</v>
+      </c>
+      <c r="P59" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>449</v>
+      </c>
+      <c r="R59" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>451</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>452</v>
+      </c>
+      <c r="D60" t="s">
+        <v>453</v>
+      </c>
+      <c r="F60" t="s">
+        <v>332</v>
+      </c>
+      <c r="J60" t="s">
+        <v>454</v>
+      </c>
+      <c r="L60" t="s">
+        <v>455</v>
+      </c>
+      <c r="P60" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>456</v>
+      </c>
+      <c r="R60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>458</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>459</v>
+      </c>
+      <c r="D61" t="s">
+        <v>460</v>
+      </c>
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" t="s">
+        <v>461</v>
+      </c>
+      <c r="P61" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>462</v>
+      </c>
+      <c r="R61" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>464</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>465</v>
+      </c>
+      <c r="D62" t="s">
+        <v>466</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" t="s">
+        <v>467</v>
+      </c>
+      <c r="P62" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>468</v>
+      </c>
+      <c r="R62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>470</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>471</v>
+      </c>
+      <c r="D63" t="s">
+        <v>472</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" t="s">
+        <v>473</v>
+      </c>
+      <c r="P63" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>474</v>
+      </c>
+      <c r="R63" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>476</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>477</v>
+      </c>
+      <c r="D64" t="s">
+        <v>478</v>
+      </c>
+      <c r="F64" t="s">
+        <v>134</v>
+      </c>
+      <c r="J64" t="s">
+        <v>479</v>
+      </c>
+      <c r="P64" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>480</v>
+      </c>
+      <c r="R64" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>482</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>483</v>
+      </c>
+      <c r="D65" t="s">
+        <v>484</v>
+      </c>
+      <c r="F65" t="s">
+        <v>83</v>
+      </c>
+      <c r="J65" t="s">
+        <v>485</v>
+      </c>
+      <c r="P65" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>486</v>
+      </c>
+      <c r="R65" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>488</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>489</v>
+      </c>
+      <c r="D66" t="s">
+        <v>490</v>
+      </c>
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" t="s">
+        <v>491</v>
+      </c>
+      <c r="P66" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>492</v>
+      </c>
+      <c r="R66" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>494</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>495</v>
+      </c>
+      <c r="D67" t="s">
+        <v>496</v>
+      </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" t="s">
+        <v>497</v>
+      </c>
+      <c r="P67" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>498</v>
+      </c>
+      <c r="R67" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>500</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>501</v>
+      </c>
+      <c r="D68" t="s">
+        <v>502</v>
+      </c>
+      <c r="F68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J68" t="s">
+        <v>503</v>
+      </c>
+      <c r="P68" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>504</v>
+      </c>
+      <c r="R68" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>506</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>507</v>
+      </c>
+      <c r="D69" t="s">
+        <v>508</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" t="s">
+        <v>509</v>
+      </c>
+      <c r="P69" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>510</v>
+      </c>
+      <c r="R69" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>512</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>513</v>
+      </c>
+      <c r="D70" t="s">
+        <v>514</v>
+      </c>
+      <c r="F70" t="s">
+        <v>134</v>
+      </c>
+      <c r="J70" t="s">
+        <v>515</v>
+      </c>
+      <c r="P70" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>516</v>
+      </c>
+      <c r="R70" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>518</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>519</v>
+      </c>
+      <c r="D71" t="s">
+        <v>520</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" t="s">
+        <v>521</v>
+      </c>
+      <c r="P71" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>522</v>
+      </c>
+      <c r="R71" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>524</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>525</v>
+      </c>
+      <c r="D72" t="s">
+        <v>526</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" t="s">
+        <v>527</v>
+      </c>
+      <c r="P72" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>528</v>
+      </c>
+      <c r="R72" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>530</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>531</v>
+      </c>
+      <c r="D73" t="s">
+        <v>532</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73" t="s">
+        <v>533</v>
+      </c>
+      <c r="P73" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>534</v>
+      </c>
+      <c r="R73" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>536</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>537</v>
+      </c>
+      <c r="D74" t="s">
+        <v>538</v>
+      </c>
+      <c r="F74" t="s">
+        <v>134</v>
+      </c>
+      <c r="J74" t="s">
+        <v>539</v>
+      </c>
+      <c r="P74" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>540</v>
+      </c>
+      <c r="R74" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>542</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>543</v>
+      </c>
+      <c r="D75" t="s">
+        <v>544</v>
+      </c>
+      <c r="F75" t="s">
+        <v>301</v>
+      </c>
+      <c r="J75" t="s">
+        <v>545</v>
+      </c>
+      <c r="P75" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>546</v>
+      </c>
+      <c r="R75" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>548</v>
+      </c>
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>549</v>
+      </c>
+      <c r="D76" t="s">
+        <v>550</v>
+      </c>
+      <c r="F76" t="s">
+        <v>301</v>
+      </c>
+      <c r="J76" t="s">
+        <v>551</v>
+      </c>
+      <c r="P76" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>552</v>
+      </c>
+      <c r="R76" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>554</v>
+      </c>
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" t="s">
+        <v>555</v>
+      </c>
+      <c r="D77" t="s">
+        <v>556</v>
+      </c>
+      <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" t="s">
+        <v>557</v>
+      </c>
+      <c r="P77" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>558</v>
+      </c>
+      <c r="R77" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>560</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>561</v>
+      </c>
+      <c r="D78" t="s">
+        <v>562</v>
+      </c>
+      <c r="F78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" t="s">
+        <v>563</v>
+      </c>
+      <c r="P78" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>564</v>
+      </c>
+      <c r="R78" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>566</v>
+      </c>
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" t="s">
+        <v>567</v>
+      </c>
+      <c r="D79" t="s">
+        <v>568</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79" t="s">
+        <v>569</v>
+      </c>
+      <c r="P79" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>570</v>
+      </c>
+      <c r="R79" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>572</v>
+      </c>
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" t="s">
+        <v>573</v>
+      </c>
+      <c r="D80" t="s">
+        <v>574</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" t="s">
+        <v>575</v>
+      </c>
+      <c r="P80" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>576</v>
+      </c>
+      <c r="R80" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>578</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" t="s">
+        <v>579</v>
+      </c>
+      <c r="D81" t="s">
+        <v>580</v>
+      </c>
+      <c r="F81" t="s">
+        <v>134</v>
+      </c>
+      <c r="J81" t="s">
+        <v>581</v>
+      </c>
+      <c r="P81" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>582</v>
+      </c>
+      <c r="R81" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>584</v>
+      </c>
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" t="s">
+        <v>585</v>
+      </c>
+      <c r="D82" t="s">
+        <v>586</v>
+      </c>
+      <c r="F82" t="s">
+        <v>301</v>
+      </c>
+      <c r="J82" t="s">
+        <v>587</v>
+      </c>
+      <c r="P82" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>588</v>
+      </c>
+      <c r="R82" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>590</v>
+      </c>
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" t="s">
+        <v>591</v>
+      </c>
+      <c r="D83" t="s">
+        <v>592</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" t="s">
+        <v>593</v>
+      </c>
+      <c r="P83" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>594</v>
+      </c>
+      <c r="R83" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>596</v>
+      </c>
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" t="s">
+        <v>597</v>
+      </c>
+      <c r="D84" t="s">
+        <v>598</v>
+      </c>
+      <c r="F84" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" t="s">
+        <v>599</v>
+      </c>
+      <c r="P84" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>600</v>
+      </c>
+      <c r="R84" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>602</v>
+      </c>
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" t="s">
+        <v>603</v>
+      </c>
+      <c r="D85" t="s">
+        <v>604</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" t="s">
+        <v>605</v>
+      </c>
+      <c r="P85" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>606</v>
+      </c>
+      <c r="R85" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>608</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" t="s">
+        <v>609</v>
+      </c>
+      <c r="D86" t="s">
+        <v>610</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" t="s">
+        <v>611</v>
+      </c>
+      <c r="P86" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>612</v>
+      </c>
+      <c r="R86" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>614</v>
+      </c>
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" t="s">
+        <v>615</v>
+      </c>
+      <c r="D87" t="s">
+        <v>616</v>
+      </c>
+      <c r="F87" t="s">
+        <v>134</v>
+      </c>
+      <c r="J87" t="s">
+        <v>617</v>
+      </c>
+      <c r="P87" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>618</v>
+      </c>
+      <c r="R87" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>620</v>
+      </c>
+      <c r="B88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" t="s">
+        <v>621</v>
+      </c>
+      <c r="D88" t="s">
+        <v>622</v>
+      </c>
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88" t="s">
+        <v>623</v>
+      </c>
+      <c r="P88" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>624</v>
+      </c>
+      <c r="R88" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>626</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="s">
+        <v>627</v>
+      </c>
+      <c r="D89" t="s">
+        <v>628</v>
+      </c>
+      <c r="F89" t="s">
+        <v>301</v>
+      </c>
+      <c r="J89" t="s">
+        <v>629</v>
+      </c>
+      <c r="P89" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>630</v>
+      </c>
+      <c r="R89" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>632</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="s">
+        <v>633</v>
+      </c>
+      <c r="D90" t="s">
+        <v>634</v>
+      </c>
+      <c r="F90" t="s">
+        <v>134</v>
+      </c>
+      <c r="J90" t="s">
+        <v>635</v>
+      </c>
+      <c r="P90" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>636</v>
+      </c>
+      <c r="R90" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>638</v>
+      </c>
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" t="s">
+        <v>639</v>
+      </c>
+      <c r="D91" t="s">
+        <v>640</v>
+      </c>
+      <c r="F91" t="s">
+        <v>301</v>
+      </c>
+      <c r="J91" t="s">
+        <v>641</v>
+      </c>
+      <c r="P91" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>642</v>
+      </c>
+      <c r="R91" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>644</v>
+      </c>
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" t="s">
+        <v>645</v>
+      </c>
+      <c r="D92" t="s">
+        <v>646</v>
+      </c>
+      <c r="F92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J92" t="s">
+        <v>647</v>
+      </c>
+      <c r="P92" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>648</v>
+      </c>
+      <c r="R92" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>650</v>
+      </c>
+      <c r="B93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" t="s">
+        <v>651</v>
+      </c>
+      <c r="D93" t="s">
+        <v>652</v>
+      </c>
+      <c r="F93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" t="s">
+        <v>653</v>
+      </c>
+      <c r="P93" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>654</v>
+      </c>
+      <c r="R93" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>656</v>
+      </c>
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" t="s">
+        <v>657</v>
+      </c>
+      <c r="D94" t="s">
+        <v>658</v>
+      </c>
+      <c r="F94" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" t="s">
+        <v>659</v>
+      </c>
+      <c r="P94" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>660</v>
+      </c>
+      <c r="R94" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>662</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>663</v>
+      </c>
+      <c r="E95" t="s">
+        <v>664</v>
+      </c>
+      <c r="F95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I95" t="s">
+        <v>665</v>
+      </c>
+      <c r="J95" t="s">
+        <v>666</v>
+      </c>
+      <c r="K95" t="s">
+        <v>667</v>
+      </c>
+      <c r="L95" t="s">
+        <v>668</v>
+      </c>
+      <c r="M95" t="s">
+        <v>669</v>
+      </c>
+      <c r="O95" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>671</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>672</v>
+      </c>
+      <c r="D96" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" t="s">
+        <v>673</v>
+      </c>
+      <c r="F96" t="s">
+        <v>56</v>
+      </c>
+      <c r="I96" t="s">
+        <v>57</v>
+      </c>
+      <c r="J96" t="s">
+        <v>674</v>
+      </c>
+      <c r="K96" t="s">
+        <v>675</v>
+      </c>
+      <c r="L96" t="s">
+        <v>676</v>
+      </c>
+      <c r="M96" t="s">
+        <v>61</v>
+      </c>
+      <c r="N96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>677</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>678</v>
+      </c>
+      <c r="E97" t="s">
+        <v>679</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>680</v>
+      </c>
+      <c r="H97" t="s">
+        <v>404</v>
+      </c>
+      <c r="I97" t="s">
+        <v>681</v>
+      </c>
+      <c r="J97" t="s">
+        <v>682</v>
+      </c>
+      <c r="L97" t="s">
+        <v>683</v>
+      </c>
+      <c r="M97" t="s">
+        <v>684</v>
+      </c>
+      <c r="N97" t="s">
+        <v>364</v>
+      </c>
+      <c r="O97" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>686</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" t="s">
+        <v>687</v>
+      </c>
+      <c r="E98" t="s">
+        <v>688</v>
+      </c>
+      <c r="F98" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" t="s">
+        <v>142</v>
+      </c>
+      <c r="J98" t="s">
+        <v>689</v>
+      </c>
+      <c r="K98" t="s">
+        <v>690</v>
+      </c>
+      <c r="L98" t="s">
+        <v>691</v>
+      </c>
+      <c r="M98" t="s">
+        <v>89</v>
+      </c>
+      <c r="O98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>692</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="s">
+        <v>693</v>
+      </c>
+      <c r="E99" t="s">
+        <v>694</v>
+      </c>
+      <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
+        <v>695</v>
+      </c>
+      <c r="H99" t="s">
+        <v>696</v>
+      </c>
+      <c r="I99" t="s">
+        <v>697</v>
+      </c>
+      <c r="J99" t="s">
+        <v>698</v>
+      </c>
+      <c r="K99" t="s">
+        <v>699</v>
+      </c>
+      <c r="L99" t="s">
+        <v>700</v>
+      </c>
+      <c r="M99" t="s">
+        <v>701</v>
+      </c>
+      <c r="N99" t="s">
+        <v>702</v>
+      </c>
+      <c r="O99" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>704</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="s">
+        <v>705</v>
+      </c>
+      <c r="E100" t="s">
+        <v>706</v>
+      </c>
+      <c r="F100" t="s">
+        <v>134</v>
+      </c>
+      <c r="G100" t="s">
+        <v>707</v>
+      </c>
+      <c r="H100" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" t="s">
+        <v>708</v>
+      </c>
+      <c r="J100" t="s">
+        <v>709</v>
+      </c>
+      <c r="K100" t="s">
+        <v>710</v>
+      </c>
+      <c r="L100" t="s">
+        <v>711</v>
+      </c>
+      <c r="M100" t="s">
+        <v>712</v>
+      </c>
+      <c r="N100" t="s">
+        <v>40</v>
+      </c>
+      <c r="O100" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>714</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="s">
+        <v>715</v>
+      </c>
+      <c r="E101" t="s">
+        <v>716</v>
+      </c>
+      <c r="F101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
+        <v>717</v>
+      </c>
+      <c r="H101" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" t="s">
+        <v>718</v>
+      </c>
+      <c r="J101" t="s">
+        <v>719</v>
+      </c>
+      <c r="K101" t="s">
+        <v>720</v>
+      </c>
+      <c r="L101" t="s">
+        <v>721</v>
+      </c>
+      <c r="M101" t="s">
+        <v>722</v>
+      </c>
+      <c r="N101" t="s">
+        <v>40</v>
+      </c>
+      <c r="O101" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>
